--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -451,17 +451,13 @@
         <v>131.7433333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>131.705</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>131.6483333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>129</v>
-      </c>
-      <c r="K4" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -585,13 +565,9 @@
         <v>129.4</v>
       </c>
       <c r="K5" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>129.4</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,20 +595,18 @@
         <v>131.565</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>129.4</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -668,14 +642,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>129.3</v>
+        <v>129.4</v>
       </c>
       <c r="K7" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -705,16 +679,14 @@
         <v>131.4383333333334</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>130</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -748,16 +720,14 @@
         <v>131.4533333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>131</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -791,16 +761,14 @@
         <v>131.4683333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>131</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -834,16 +802,14 @@
         <v>131.4833333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>131</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -884,7 +850,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -925,7 +891,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -966,7 +932,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1007,7 +973,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1048,7 +1014,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1089,7 +1055,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1130,7 +1096,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1171,7 +1137,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1212,7 +1178,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1253,7 +1219,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1294,7 +1260,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1335,7 +1301,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1376,7 +1342,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1417,7 +1383,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1458,7 +1424,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1499,7 +1465,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1540,7 +1506,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1581,7 +1547,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1622,7 +1588,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1663,7 +1629,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1704,7 +1670,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1745,7 +1711,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1786,7 +1752,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1827,7 +1793,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1868,7 +1834,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1909,7 +1875,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1950,7 +1916,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1984,16 +1950,14 @@
         <v>130.3516666666666</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>129</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2027,16 +1991,14 @@
         <v>130.2799999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>128</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2070,16 +2032,14 @@
         <v>130.2633333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>129.1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2113,16 +2073,14 @@
         <v>130.2616666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>127.2</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2156,16 +2114,14 @@
         <v>130.2466666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>130.1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2199,16 +2155,14 @@
         <v>130.2149999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>130.1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2242,16 +2196,14 @@
         <v>130.2233333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>131.5</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2285,16 +2237,14 @@
         <v>130.24</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>132</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2328,16 +2278,14 @@
         <v>130.36</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>132</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2378,7 +2326,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2419,7 +2367,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2460,7 +2408,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2501,7 +2449,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2538,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1.009671814671815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2579,11 +2527,17 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2617,8 +2571,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2652,8 +2612,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2687,8 +2653,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2719,11 +2691,17 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2757,8 +2735,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2792,8 +2776,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2827,8 +2817,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2862,8 +2858,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2897,8 +2899,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2932,8 +2940,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2967,8 +2981,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2999,13 +3019,19 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>1.039822256568779</v>
       </c>
     </row>
     <row r="66">
@@ -4746,14 +4772,20 @@
         <v>133.0316666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>130.2</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4788,7 +4820,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4823,7 +4859,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4858,7 +4898,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4893,7 +4937,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4928,7 +4976,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4963,7 +5015,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4998,7 +5054,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +5093,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5068,7 +5132,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5103,7 +5171,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5138,7 +5210,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5173,7 +5249,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5201,18 +5281,18 @@
         <v>131.7583333333334</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="K128" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5240,20 +5320,16 @@
         <v>131.6666666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K129" t="n">
-        <v>128.5</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -5283,20 +5359,16 @@
         <v>131.6083333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K130" t="n">
-        <v>128.5</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -5334,10 +5406,12 @@
       <c r="J131" t="n">
         <v>129.5</v>
       </c>
-      <c r="K131" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5373,12 +5447,10 @@
       <c r="J132" t="n">
         <v>129.5</v>
       </c>
-      <c r="K132" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -5414,14 +5486,12 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>129</v>
-      </c>
-      <c r="K133" t="n">
         <v>129.5</v>
       </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -5457,11 +5527,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>130</v>
-      </c>
-      <c r="K134" t="n">
         <v>129.5</v>
       </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,9 +5570,7 @@
       <c r="J135" t="n">
         <v>130</v>
       </c>
-      <c r="K135" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5545,9 +5611,7 @@
       <c r="J136" t="n">
         <v>130</v>
       </c>
-      <c r="K136" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,17 +5644,13 @@
         <v>131.1950000000001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K137" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5623,17 +5683,13 @@
         <v>131.1133333333334</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K138" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,19 +433,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>129.5</v>
+        <v>129</v>
       </c>
       <c r="C2" t="n">
-        <v>129.5</v>
+        <v>129.3</v>
       </c>
       <c r="D2" t="n">
-        <v>129.5</v>
+        <v>129.3</v>
       </c>
       <c r="E2" t="n">
-        <v>129.5</v>
+        <v>129</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>20726.087</v>
       </c>
       <c r="G2" t="n">
         <v>131.7433333333334</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>129.4</v>
+        <v>129.5</v>
       </c>
       <c r="C3" t="n">
-        <v>129.4</v>
+        <v>129.5</v>
       </c>
       <c r="D3" t="n">
-        <v>129.4</v>
+        <v>129.5</v>
       </c>
       <c r="E3" t="n">
-        <v>129.4</v>
+        <v>129.5</v>
       </c>
       <c r="F3" t="n">
-        <v>452</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>131.705</v>
+        <v>131.7433333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
+        <v>129.4</v>
       </c>
       <c r="C4" t="n">
         <v>129.4</v>
@@ -512,13 +512,13 @@
         <v>129.4</v>
       </c>
       <c r="E4" t="n">
-        <v>129</v>
+        <v>129.4</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.2019</v>
+        <v>452</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6483333333334</v>
+        <v>131.705</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>129.4</v>
+        <v>129</v>
       </c>
       <c r="C5" t="n">
         <v>129.4</v>
@@ -547,26 +547,22 @@
         <v>129.4</v>
       </c>
       <c r="E5" t="n">
-        <v>129.4</v>
+        <v>129</v>
       </c>
       <c r="F5" t="n">
-        <v>360</v>
+        <v>1029.2019</v>
       </c>
       <c r="G5" t="n">
-        <v>131.6216666666667</v>
+        <v>131.6483333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>129.4</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -589,10 +585,10 @@
         <v>129.4</v>
       </c>
       <c r="F6" t="n">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="G6" t="n">
-        <v>131.565</v>
+        <v>131.6216666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -601,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,40 +608,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>129.3</v>
+        <v>129.4</v>
       </c>
       <c r="C7" t="n">
-        <v>129.3</v>
+        <v>129.4</v>
       </c>
       <c r="D7" t="n">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="E7" t="n">
-        <v>129.3</v>
+        <v>129.4</v>
       </c>
       <c r="F7" t="n">
-        <v>26567.25</v>
+        <v>216</v>
       </c>
       <c r="G7" t="n">
-        <v>131.4716666666667</v>
+        <v>131.565</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -661,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>130</v>
+        <v>129.3</v>
       </c>
       <c r="C8" t="n">
-        <v>130</v>
+        <v>129.3</v>
       </c>
       <c r="D8" t="n">
-        <v>130</v>
+        <v>129.5</v>
       </c>
       <c r="E8" t="n">
-        <v>130</v>
+        <v>129.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1298.1911</v>
+        <v>26567.25</v>
       </c>
       <c r="G8" t="n">
-        <v>131.4383333333334</v>
+        <v>131.4716666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -685,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" t="n">
-        <v>76</v>
+        <v>1298.1911</v>
       </c>
       <c r="G9" t="n">
-        <v>131.4533333333333</v>
+        <v>131.4383333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -755,10 +725,10 @@
         <v>131</v>
       </c>
       <c r="F10" t="n">
-        <v>76.3359</v>
+        <v>76</v>
       </c>
       <c r="G10" t="n">
-        <v>131.4683333333333</v>
+        <v>131.4533333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -767,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -799,7 +763,7 @@
         <v>76.3359</v>
       </c>
       <c r="G11" t="n">
-        <v>131.4833333333333</v>
+        <v>131.4683333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -808,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -828,19 +786,19 @@
         <v>131</v>
       </c>
       <c r="C12" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="E12" t="n">
         <v>131</v>
       </c>
       <c r="F12" t="n">
-        <v>207.6409</v>
+        <v>76.3359</v>
       </c>
       <c r="G12" t="n">
-        <v>131.4816666666667</v>
+        <v>131.4833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -849,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -866,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>131.8</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7</v>
+        <v>131.9</v>
       </c>
       <c r="D13" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7</v>
+        <v>131</v>
       </c>
       <c r="F13" t="n">
-        <v>1623</v>
+        <v>207.6409</v>
       </c>
       <c r="G13" t="n">
-        <v>131.5083333333333</v>
+        <v>131.4816666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -890,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -907,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132</v>
+        <v>131.8</v>
       </c>
       <c r="C14" t="n">
-        <v>132</v>
+        <v>131.7</v>
       </c>
       <c r="D14" t="n">
         <v>132</v>
       </c>
       <c r="E14" t="n">
-        <v>132</v>
+        <v>131.7</v>
       </c>
       <c r="F14" t="n">
-        <v>162.5484</v>
+        <v>1623</v>
       </c>
       <c r="G14" t="n">
-        <v>131.4083333333333</v>
+        <v>131.5083333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -931,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -948,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D15" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" t="n">
-        <v>45.0925</v>
+        <v>162.5484</v>
       </c>
       <c r="G15" t="n">
-        <v>131.3583333333333</v>
+        <v>131.4083333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -972,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -989,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" t="n">
-        <v>288</v>
+        <v>45.0925</v>
       </c>
       <c r="G16" t="n">
-        <v>131.375</v>
+        <v>131.3583333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1013,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1030,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="C17" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D17" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="E17" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="G17" t="n">
-        <v>131.4066666666666</v>
+        <v>131.375</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1054,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1071,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>132.8</v>
+        <v>132.9</v>
       </c>
       <c r="C18" t="n">
-        <v>130.7</v>
+        <v>132.9</v>
       </c>
       <c r="D18" t="n">
-        <v>132.8</v>
+        <v>132.9</v>
       </c>
       <c r="E18" t="n">
-        <v>130.7</v>
+        <v>132.9</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>131.3183333333333</v>
+        <v>131.4066666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1095,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1112,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>130.7</v>
+        <v>132.8</v>
       </c>
       <c r="C19" t="n">
         <v>130.7</v>
       </c>
       <c r="D19" t="n">
-        <v>130.7</v>
+        <v>132.8</v>
       </c>
       <c r="E19" t="n">
         <v>130.7</v>
       </c>
       <c r="F19" t="n">
-        <v>44.93</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>131.23</v>
+        <v>131.3183333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1136,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1162,13 +1072,13 @@
         <v>130.7</v>
       </c>
       <c r="E20" t="n">
-        <v>128</v>
+        <v>130.7</v>
       </c>
       <c r="F20" t="n">
-        <v>3442.8133</v>
+        <v>44.93</v>
       </c>
       <c r="G20" t="n">
-        <v>131.2216666666666</v>
+        <v>131.23</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1177,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1203,13 +1107,13 @@
         <v>130.7</v>
       </c>
       <c r="E21" t="n">
-        <v>130.7</v>
+        <v>128</v>
       </c>
       <c r="F21" t="n">
-        <v>521.0939</v>
+        <v>3442.8133</v>
       </c>
       <c r="G21" t="n">
-        <v>131.2333333333333</v>
+        <v>131.2216666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1218,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1241,16 +1139,16 @@
         <v>130.7</v>
       </c>
       <c r="D22" t="n">
-        <v>131.7</v>
+        <v>130.7</v>
       </c>
       <c r="E22" t="n">
         <v>130.7</v>
       </c>
       <c r="F22" t="n">
-        <v>1814.8233</v>
+        <v>521.0939</v>
       </c>
       <c r="G22" t="n">
-        <v>131.145</v>
+        <v>131.2333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1259,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1276,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>131</v>
+        <v>130.7</v>
       </c>
       <c r="C23" t="n">
-        <v>131</v>
+        <v>130.7</v>
       </c>
       <c r="D23" t="n">
-        <v>131</v>
+        <v>131.7</v>
       </c>
       <c r="E23" t="n">
-        <v>131</v>
+        <v>130.7</v>
       </c>
       <c r="F23" t="n">
-        <v>656.3208</v>
+        <v>1814.8233</v>
       </c>
       <c r="G23" t="n">
-        <v>131.1116666666666</v>
+        <v>131.145</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1300,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1317,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24" t="n">
-        <v>17</v>
+        <v>656.3208</v>
       </c>
       <c r="G24" t="n">
-        <v>131.0116666666666</v>
+        <v>131.1116666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1341,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1358,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>129.7</v>
+        <v>132</v>
       </c>
       <c r="C25" t="n">
-        <v>129.7</v>
+        <v>132</v>
       </c>
       <c r="D25" t="n">
-        <v>129.7</v>
+        <v>132</v>
       </c>
       <c r="E25" t="n">
-        <v>129.7</v>
+        <v>132</v>
       </c>
       <c r="F25" t="n">
-        <v>61.125</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>130.9233333333333</v>
+        <v>131.0116666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1382,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1399,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="C26" t="n">
-        <v>136.8</v>
+        <v>129.7</v>
       </c>
       <c r="D26" t="n">
-        <v>136.8</v>
+        <v>129.7</v>
       </c>
       <c r="E26" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1200</v>
+        <v>61.125</v>
       </c>
       <c r="G26" t="n">
-        <v>131.0033333333333</v>
+        <v>130.9233333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1423,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1440,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" t="n">
-        <v>131</v>
+        <v>136.8</v>
       </c>
       <c r="D27" t="n">
-        <v>133</v>
+        <v>136.8</v>
       </c>
       <c r="E27" t="n">
         <v>131</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="G27" t="n">
-        <v>130.92</v>
+        <v>131.0033333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1464,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1481,10 +1343,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D28" t="n">
         <v>133</v>
@@ -1493,10 +1355,10 @@
         <v>131</v>
       </c>
       <c r="F28" t="n">
-        <v>1887.3935</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>130.9533333333333</v>
+        <v>130.92</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1505,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1525,19 +1381,19 @@
         <v>132</v>
       </c>
       <c r="C29" t="n">
-        <v>132.8</v>
+        <v>133</v>
       </c>
       <c r="D29" t="n">
-        <v>132.8</v>
+        <v>133</v>
       </c>
       <c r="E29" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" t="n">
-        <v>400</v>
+        <v>1887.3935</v>
       </c>
       <c r="G29" t="n">
-        <v>130.9833333333333</v>
+        <v>130.9533333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1546,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1563,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" t="n">
-        <v>131</v>
+        <v>132.8</v>
       </c>
       <c r="D30" t="n">
-        <v>131</v>
+        <v>132.8</v>
       </c>
       <c r="E30" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F30" t="n">
-        <v>9.99</v>
+        <v>400</v>
       </c>
       <c r="G30" t="n">
-        <v>130.9666666666666</v>
+        <v>130.9833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1587,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" t="n">
-        <v>458</v>
+        <v>9.99</v>
       </c>
       <c r="G31" t="n">
-        <v>130.8833333333333</v>
+        <v>130.9666666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1628,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1645,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D32" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E32" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" t="n">
-        <v>159</v>
+        <v>458</v>
       </c>
       <c r="G32" t="n">
-        <v>130.865</v>
+        <v>130.8833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1669,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1698,10 +1530,10 @@
         <v>131</v>
       </c>
       <c r="F33" t="n">
-        <v>837.6825</v>
+        <v>159</v>
       </c>
       <c r="G33" t="n">
-        <v>130.7983333333333</v>
+        <v>130.865</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1710,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1727,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="D34" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="E34" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F34" t="n">
-        <v>6138.743</v>
+        <v>837.6825</v>
       </c>
       <c r="G34" t="n">
-        <v>130.7749999999999</v>
+        <v>130.7983333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1751,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1771,19 +1591,19 @@
         <v>129</v>
       </c>
       <c r="C35" t="n">
-        <v>129</v>
+        <v>131.9</v>
       </c>
       <c r="D35" t="n">
-        <v>129</v>
+        <v>131.9</v>
       </c>
       <c r="E35" t="n">
         <v>129</v>
       </c>
       <c r="F35" t="n">
-        <v>60</v>
+        <v>6138.743</v>
       </c>
       <c r="G35" t="n">
-        <v>130.7083333333333</v>
+        <v>130.7749999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1792,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1812,19 +1626,19 @@
         <v>129</v>
       </c>
       <c r="C36" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36" t="n">
-        <v>130.1</v>
+        <v>129</v>
       </c>
       <c r="E36" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" t="n">
-        <v>447.7825</v>
+        <v>60</v>
       </c>
       <c r="G36" t="n">
-        <v>130.6166666666666</v>
+        <v>130.7083333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1833,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1850,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" t="n">
         <v>128</v>
       </c>
       <c r="D37" t="n">
-        <v>128</v>
+        <v>130.1</v>
       </c>
       <c r="E37" t="n">
         <v>128</v>
       </c>
       <c r="F37" t="n">
-        <v>1463.6569</v>
+        <v>447.7825</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5333333333333</v>
+        <v>130.6166666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1874,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1894,19 +1696,19 @@
         <v>128</v>
       </c>
       <c r="C38" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" t="n">
-        <v>130.1</v>
+        <v>128</v>
       </c>
       <c r="E38" t="n">
         <v>128</v>
       </c>
       <c r="F38" t="n">
-        <v>2941</v>
+        <v>1463.6569</v>
       </c>
       <c r="G38" t="n">
-        <v>130.4983333333333</v>
+        <v>130.5333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1915,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1932,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>128</v>
+      </c>
+      <c r="C39" t="n">
         <v>129</v>
       </c>
-      <c r="C39" t="n">
-        <v>130</v>
-      </c>
       <c r="D39" t="n">
-        <v>130</v>
+        <v>130.1</v>
       </c>
       <c r="E39" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F39" t="n">
-        <v>840.329</v>
+        <v>2941</v>
       </c>
       <c r="G39" t="n">
-        <v>130.3516666666666</v>
+        <v>130.4983333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1956,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" t="n">
-        <v>126.8</v>
+        <v>130</v>
       </c>
       <c r="D40" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E40" t="n">
-        <v>126.8</v>
+        <v>129</v>
       </c>
       <c r="F40" t="n">
-        <v>3231.3429</v>
+        <v>840.329</v>
       </c>
       <c r="G40" t="n">
-        <v>130.2799999999999</v>
+        <v>130.3516666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1997,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2014,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>129.1</v>
+        <v>128</v>
       </c>
       <c r="C41" t="n">
-        <v>130.1</v>
+        <v>126.8</v>
       </c>
       <c r="D41" t="n">
-        <v>130.1</v>
+        <v>128</v>
       </c>
       <c r="E41" t="n">
-        <v>129</v>
+        <v>126.8</v>
       </c>
       <c r="F41" t="n">
-        <v>2627</v>
+        <v>3231.3429</v>
       </c>
       <c r="G41" t="n">
-        <v>130.2633333333333</v>
+        <v>130.2799999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2038,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2055,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>127.2</v>
+        <v>129.1</v>
       </c>
       <c r="C42" t="n">
-        <v>129.9</v>
+        <v>130.1</v>
       </c>
       <c r="D42" t="n">
-        <v>129.9</v>
+        <v>130.1</v>
       </c>
       <c r="E42" t="n">
-        <v>126.2</v>
+        <v>129</v>
       </c>
       <c r="F42" t="n">
-        <v>5315.2043</v>
+        <v>2627</v>
       </c>
       <c r="G42" t="n">
-        <v>130.2616666666666</v>
+        <v>130.2633333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2079,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2096,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>130.1</v>
+        <v>127.2</v>
       </c>
       <c r="C43" t="n">
-        <v>130.1</v>
+        <v>129.9</v>
       </c>
       <c r="D43" t="n">
-        <v>130.1</v>
+        <v>129.9</v>
       </c>
       <c r="E43" t="n">
-        <v>130.1</v>
+        <v>126.2</v>
       </c>
       <c r="F43" t="n">
-        <v>6616.9889</v>
+        <v>5315.2043</v>
       </c>
       <c r="G43" t="n">
-        <v>130.2466666666666</v>
+        <v>130.2616666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2120,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2149,10 +1915,10 @@
         <v>130.1</v>
       </c>
       <c r="F44" t="n">
-        <v>5749.7249</v>
+        <v>6616.9889</v>
       </c>
       <c r="G44" t="n">
-        <v>130.2149999999999</v>
+        <v>130.2466666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2161,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2178,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>131.5</v>
+        <v>130.1</v>
       </c>
       <c r="C45" t="n">
-        <v>131.5</v>
+        <v>130.1</v>
       </c>
       <c r="D45" t="n">
-        <v>131.5</v>
+        <v>130.1</v>
       </c>
       <c r="E45" t="n">
-        <v>131.5</v>
+        <v>130.1</v>
       </c>
       <c r="F45" t="n">
-        <v>14196.3491</v>
+        <v>5749.7249</v>
       </c>
       <c r="G45" t="n">
-        <v>130.2233333333333</v>
+        <v>130.2149999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2202,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2219,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="C46" t="n">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="D46" t="n">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="E46" t="n">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="F46" t="n">
-        <v>4.888</v>
+        <v>14196.3491</v>
       </c>
       <c r="G46" t="n">
-        <v>130.24</v>
+        <v>130.2233333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2243,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2263,19 +2011,19 @@
         <v>132</v>
       </c>
       <c r="C47" t="n">
-        <v>137.2</v>
+        <v>132</v>
       </c>
       <c r="D47" t="n">
-        <v>137.2</v>
+        <v>132</v>
       </c>
       <c r="E47" t="n">
-        <v>129.2</v>
+        <v>132</v>
       </c>
       <c r="F47" t="n">
-        <v>7000</v>
+        <v>4.888</v>
       </c>
       <c r="G47" t="n">
-        <v>130.36</v>
+        <v>130.24</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2284,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2301,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>131.3</v>
+        <v>132</v>
       </c>
       <c r="C48" t="n">
-        <v>136.2</v>
+        <v>137.2</v>
       </c>
       <c r="D48" t="n">
-        <v>136.2</v>
+        <v>137.2</v>
       </c>
       <c r="E48" t="n">
-        <v>131.3</v>
+        <v>129.2</v>
       </c>
       <c r="F48" t="n">
-        <v>290.65</v>
+        <v>7000</v>
       </c>
       <c r="G48" t="n">
-        <v>130.4466666666666</v>
+        <v>130.36</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2325,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2342,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>132</v>
+        <v>131.3</v>
       </c>
       <c r="C49" t="n">
         <v>136.2</v>
@@ -2351,13 +2087,13 @@
         <v>136.2</v>
       </c>
       <c r="E49" t="n">
-        <v>132</v>
+        <v>131.3</v>
       </c>
       <c r="F49" t="n">
-        <v>1831.7029</v>
+        <v>290.65</v>
       </c>
       <c r="G49" t="n">
-        <v>130.5499999999999</v>
+        <v>130.4466666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2366,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>136.2</v>
+        <v>132</v>
       </c>
       <c r="C50" t="n">
         <v>136.2</v>
@@ -2392,13 +2122,13 @@
         <v>136.2</v>
       </c>
       <c r="E50" t="n">
-        <v>136.2</v>
+        <v>132</v>
       </c>
       <c r="F50" t="n">
-        <v>3.8573</v>
+        <v>1831.7029</v>
       </c>
       <c r="G50" t="n">
-        <v>130.5866666666666</v>
+        <v>130.5499999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2407,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2424,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>132</v>
+        <v>136.2</v>
       </c>
       <c r="C51" t="n">
-        <v>131.1</v>
+        <v>136.2</v>
       </c>
       <c r="D51" t="n">
-        <v>132</v>
+        <v>136.2</v>
       </c>
       <c r="E51" t="n">
-        <v>131.1</v>
+        <v>136.2</v>
       </c>
       <c r="F51" t="n">
-        <v>799.9434</v>
+        <v>3.8573</v>
       </c>
       <c r="G51" t="n">
-        <v>130.6216666666666</v>
+        <v>130.5866666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2448,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2465,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="C52" t="n">
-        <v>131.4</v>
+        <v>131.1</v>
       </c>
       <c r="D52" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="E52" t="n">
-        <v>131.4</v>
+        <v>131.1</v>
       </c>
       <c r="F52" t="n">
-        <v>7196.7376</v>
+        <v>799.9434</v>
       </c>
       <c r="G52" t="n">
-        <v>130.6616666666666</v>
+        <v>130.6216666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2489,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2506,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>132.5</v>
+        <v>133.9</v>
       </c>
       <c r="C53" t="n">
-        <v>132.5</v>
+        <v>131.4</v>
       </c>
       <c r="D53" t="n">
-        <v>132.5</v>
+        <v>133.9</v>
       </c>
       <c r="E53" t="n">
-        <v>132.5</v>
+        <v>131.4</v>
       </c>
       <c r="F53" t="n">
-        <v>1030</v>
+        <v>7196.7376</v>
       </c>
       <c r="G53" t="n">
-        <v>130.7366666666666</v>
+        <v>130.6616666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2530,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2547,38 +2253,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>135.1</v>
+        <v>132.5</v>
       </c>
       <c r="C54" t="n">
-        <v>135</v>
+        <v>132.5</v>
       </c>
       <c r="D54" t="n">
-        <v>135.1</v>
+        <v>132.5</v>
       </c>
       <c r="E54" t="n">
-        <v>135</v>
+        <v>132.5</v>
       </c>
       <c r="F54" t="n">
-        <v>13.9718</v>
+        <v>1030</v>
       </c>
       <c r="G54" t="n">
-        <v>130.8699999999999</v>
+        <v>130.7366666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2591,19 +2291,19 @@
         <v>135.1</v>
       </c>
       <c r="C55" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="D55" t="n">
         <v>135.1</v>
       </c>
       <c r="E55" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>13.9718</v>
       </c>
       <c r="G55" t="n">
-        <v>130.9883333333333</v>
+        <v>130.8699999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2612,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2641,10 +2335,10 @@
         <v>135.1</v>
       </c>
       <c r="F56" t="n">
-        <v>668.5683</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>131.1066666666666</v>
+        <v>130.9883333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2653,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2682,10 +2370,10 @@
         <v>135.1</v>
       </c>
       <c r="F57" t="n">
-        <v>604.9153</v>
+        <v>668.5683</v>
       </c>
       <c r="G57" t="n">
-        <v>131.225</v>
+        <v>131.1066666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2694,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2714,19 +2396,19 @@
         <v>135.1</v>
       </c>
       <c r="C58" t="n">
-        <v>132</v>
+        <v>135.1</v>
       </c>
       <c r="D58" t="n">
-        <v>136.1</v>
+        <v>135.1</v>
       </c>
       <c r="E58" t="n">
-        <v>132</v>
+        <v>135.1</v>
       </c>
       <c r="F58" t="n">
-        <v>18865.8563</v>
+        <v>604.9153</v>
       </c>
       <c r="G58" t="n">
-        <v>131.325</v>
+        <v>131.225</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2735,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2752,38 +2428,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>134</v>
+        <v>135.1</v>
       </c>
       <c r="C59" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D59" t="n">
-        <v>134</v>
+        <v>136.1</v>
       </c>
       <c r="E59" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F59" t="n">
-        <v>508.8354</v>
+        <v>18865.8563</v>
       </c>
       <c r="G59" t="n">
-        <v>131.4583333333333</v>
+        <v>131.325</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2793,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" t="n">
-        <v>136.8</v>
+        <v>134</v>
       </c>
       <c r="D60" t="n">
-        <v>136.8</v>
+        <v>134</v>
       </c>
       <c r="E60" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F60" t="n">
-        <v>1098</v>
+        <v>508.8354</v>
       </c>
       <c r="G60" t="n">
-        <v>131.5883333333333</v>
+        <v>131.4583333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2817,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2837,19 +2501,19 @@
         <v>135</v>
       </c>
       <c r="C61" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="D61" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="E61" t="n">
         <v>135</v>
       </c>
       <c r="F61" t="n">
-        <v>151.2507</v>
+        <v>1098</v>
       </c>
       <c r="G61" t="n">
-        <v>131.6833333333333</v>
+        <v>131.5883333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2858,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2875,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E62" t="n">
-        <v>134.2</v>
+        <v>135</v>
       </c>
       <c r="F62" t="n">
-        <v>757</v>
+        <v>151.2507</v>
       </c>
       <c r="G62" t="n">
-        <v>131.8083333333333</v>
+        <v>131.6833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2899,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2916,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>137.2</v>
+        <v>136</v>
       </c>
       <c r="C63" t="n">
-        <v>137.2</v>
+        <v>137</v>
       </c>
       <c r="D63" t="n">
-        <v>137.2</v>
+        <v>137</v>
       </c>
       <c r="E63" t="n">
-        <v>137.2</v>
+        <v>134.2</v>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>757</v>
       </c>
       <c r="G63" t="n">
-        <v>131.9383333333333</v>
+        <v>131.8083333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2940,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2957,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="C64" t="n">
-        <v>136.2</v>
+        <v>137.2</v>
       </c>
       <c r="D64" t="n">
-        <v>136.2</v>
+        <v>137.2</v>
       </c>
       <c r="E64" t="n">
-        <v>135</v>
+        <v>137.2</v>
       </c>
       <c r="F64" t="n">
-        <v>669</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>132.0516666666666</v>
+        <v>131.9383333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2981,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2998,40 +2638,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>134.1</v>
+        <v>135</v>
       </c>
       <c r="C65" t="n">
-        <v>135.2</v>
+        <v>136.2</v>
       </c>
       <c r="D65" t="n">
-        <v>135.2</v>
+        <v>136.2</v>
       </c>
       <c r="E65" t="n">
-        <v>134.1</v>
+        <v>135</v>
       </c>
       <c r="F65" t="n">
-        <v>4361</v>
+        <v>669</v>
       </c>
       <c r="G65" t="n">
-        <v>132.1483333333333</v>
+        <v>132.0516666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>1.039822256568779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3039,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>134.2</v>
+        <v>134.1</v>
       </c>
       <c r="C66" t="n">
-        <v>136.2</v>
+        <v>135.2</v>
       </c>
       <c r="D66" t="n">
-        <v>136.2</v>
+        <v>135.2</v>
       </c>
       <c r="E66" t="n">
-        <v>134.2</v>
+        <v>134.1</v>
       </c>
       <c r="F66" t="n">
-        <v>6514.4269</v>
+        <v>4361</v>
       </c>
       <c r="G66" t="n">
-        <v>132.2616666666666</v>
+        <v>132.1483333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3074,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>135.2</v>
+        <v>134.2</v>
       </c>
       <c r="C67" t="n">
         <v>136.2</v>
       </c>
       <c r="D67" t="n">
-        <v>137.2</v>
+        <v>136.2</v>
       </c>
       <c r="E67" t="n">
-        <v>135.2</v>
+        <v>134.2</v>
       </c>
       <c r="F67" t="n">
-        <v>17</v>
+        <v>6514.4269</v>
       </c>
       <c r="G67" t="n">
-        <v>132.3766666666666</v>
+        <v>132.2616666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3109,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>134.4</v>
+        <v>135.2</v>
       </c>
       <c r="C68" t="n">
-        <v>136</v>
+        <v>136.2</v>
       </c>
       <c r="D68" t="n">
-        <v>136</v>
+        <v>137.2</v>
       </c>
       <c r="E68" t="n">
-        <v>134.3</v>
+        <v>135.2</v>
       </c>
       <c r="F68" t="n">
-        <v>6986.9671</v>
+        <v>17</v>
       </c>
       <c r="G68" t="n">
-        <v>132.4766666666666</v>
+        <v>132.3766666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3144,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>135</v>
+        <v>134.4</v>
       </c>
       <c r="C69" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D69" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E69" t="n">
-        <v>135</v>
+        <v>134.3</v>
       </c>
       <c r="F69" t="n">
-        <v>97.7482</v>
+        <v>6986.9671</v>
       </c>
       <c r="G69" t="n">
-        <v>132.5433333333333</v>
+        <v>132.4766666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3179,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C70" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D70" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E70" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F70" t="n">
-        <v>518.7482</v>
+        <v>97.7482</v>
       </c>
       <c r="G70" t="n">
-        <v>132.5766666666666</v>
+        <v>132.5433333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3217,19 +2851,19 @@
         <v>134</v>
       </c>
       <c r="C71" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" t="n">
         <v>134</v>
       </c>
       <c r="E71" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F71" t="n">
-        <v>726.8549</v>
+        <v>518.7482</v>
       </c>
       <c r="G71" t="n">
-        <v>132.6266666666666</v>
+        <v>132.5766666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3249,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C72" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D72" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E72" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F72" t="n">
-        <v>6166.7376</v>
+        <v>726.8549</v>
       </c>
       <c r="G72" t="n">
-        <v>132.6283333333333</v>
+        <v>132.6266666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3284,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>132.2</v>
+        <v>132</v>
       </c>
       <c r="C73" t="n">
-        <v>132.2</v>
+        <v>132</v>
       </c>
       <c r="D73" t="n">
-        <v>132.2</v>
+        <v>132</v>
       </c>
       <c r="E73" t="n">
-        <v>132.2</v>
+        <v>132</v>
       </c>
       <c r="F73" t="n">
-        <v>9852.197200000001</v>
+        <v>6166.7376</v>
       </c>
       <c r="G73" t="n">
-        <v>132.6366666666666</v>
+        <v>132.6283333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3319,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>134</v>
+        <v>132.2</v>
       </c>
       <c r="C74" t="n">
-        <v>134</v>
+        <v>132.2</v>
       </c>
       <c r="D74" t="n">
-        <v>134</v>
+        <v>132.2</v>
       </c>
       <c r="E74" t="n">
-        <v>134</v>
+        <v>132.2</v>
       </c>
       <c r="F74" t="n">
-        <v>574</v>
+        <v>9852.197200000001</v>
       </c>
       <c r="G74" t="n">
-        <v>132.67</v>
+        <v>132.6366666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3354,31 +2988,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>133.9</v>
+        <v>134</v>
       </c>
       <c r="C75" t="n">
-        <v>133.9</v>
+        <v>134</v>
       </c>
       <c r="D75" t="n">
-        <v>133.9</v>
+        <v>134</v>
       </c>
       <c r="E75" t="n">
-        <v>133.9</v>
+        <v>134</v>
       </c>
       <c r="F75" t="n">
-        <v>533.3537</v>
+        <v>574</v>
       </c>
       <c r="G75" t="n">
-        <v>132.7183333333333</v>
+        <v>132.67</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>132.2</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3401,10 +3039,10 @@
         <v>133.9</v>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>533.3537</v>
       </c>
       <c r="G76" t="n">
-        <v>132.7499999999999</v>
+        <v>132.7183333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3413,8 +3051,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3427,19 +3071,19 @@
         <v>133.9</v>
       </c>
       <c r="C77" t="n">
-        <v>133.2</v>
+        <v>133.9</v>
       </c>
       <c r="D77" t="n">
         <v>133.9</v>
       </c>
       <c r="E77" t="n">
-        <v>133.2</v>
+        <v>133.9</v>
       </c>
       <c r="F77" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="G77" t="n">
-        <v>132.755</v>
+        <v>132.7499999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3448,8 +3092,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3462,19 +3112,19 @@
         <v>133.9</v>
       </c>
       <c r="C78" t="n">
-        <v>134.8</v>
+        <v>133.2</v>
       </c>
       <c r="D78" t="n">
-        <v>134.8</v>
+        <v>133.9</v>
       </c>
       <c r="E78" t="n">
-        <v>133.9</v>
+        <v>133.2</v>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="G78" t="n">
-        <v>132.8233333333333</v>
+        <v>132.755</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3494,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>133.2</v>
+        <v>133.9</v>
       </c>
       <c r="C79" t="n">
-        <v>133.8</v>
+        <v>134.8</v>
       </c>
       <c r="D79" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="E79" t="n">
-        <v>132.3</v>
+        <v>133.9</v>
       </c>
       <c r="F79" t="n">
-        <v>24084.05</v>
+        <v>800</v>
       </c>
       <c r="G79" t="n">
-        <v>132.875</v>
+        <v>132.8233333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3529,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>134.1</v>
+        <v>133.2</v>
       </c>
       <c r="C80" t="n">
-        <v>134.1</v>
+        <v>133.8</v>
       </c>
       <c r="D80" t="n">
-        <v>134.1</v>
+        <v>134.9</v>
       </c>
       <c r="E80" t="n">
-        <v>134.1</v>
+        <v>132.3</v>
       </c>
       <c r="F80" t="n">
-        <v>433</v>
+        <v>24084.05</v>
       </c>
       <c r="G80" t="n">
-        <v>132.9316666666666</v>
+        <v>132.875</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3564,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>133.1</v>
+        <v>134.1</v>
       </c>
       <c r="C81" t="n">
-        <v>133.1</v>
+        <v>134.1</v>
       </c>
       <c r="D81" t="n">
-        <v>133.1</v>
+        <v>134.1</v>
       </c>
       <c r="E81" t="n">
-        <v>133.1</v>
+        <v>134.1</v>
       </c>
       <c r="F81" t="n">
-        <v>150.2671</v>
+        <v>433</v>
       </c>
       <c r="G81" t="n">
-        <v>132.9716666666667</v>
+        <v>132.9316666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3599,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>133.9</v>
+        <v>133.1</v>
       </c>
       <c r="C82" t="n">
-        <v>136</v>
+        <v>133.1</v>
       </c>
       <c r="D82" t="n">
-        <v>136</v>
+        <v>133.1</v>
       </c>
       <c r="E82" t="n">
-        <v>133.9</v>
+        <v>133.1</v>
       </c>
       <c r="F82" t="n">
-        <v>2500</v>
+        <v>150.2671</v>
       </c>
       <c r="G82" t="n">
-        <v>133.06</v>
+        <v>132.9716666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3634,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>134.6</v>
+        <v>133.9</v>
       </c>
       <c r="C83" t="n">
-        <v>134.6</v>
+        <v>136</v>
       </c>
       <c r="D83" t="n">
-        <v>134.6</v>
+        <v>136</v>
       </c>
       <c r="E83" t="n">
-        <v>134.6</v>
+        <v>133.9</v>
       </c>
       <c r="F83" t="n">
-        <v>447</v>
+        <v>2500</v>
       </c>
       <c r="G83" t="n">
-        <v>133.12</v>
+        <v>133.06</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3672,19 +3322,19 @@
         <v>134.6</v>
       </c>
       <c r="C84" t="n">
-        <v>134.1</v>
+        <v>134.6</v>
       </c>
       <c r="D84" t="n">
         <v>134.6</v>
       </c>
       <c r="E84" t="n">
-        <v>134.1</v>
+        <v>134.6</v>
       </c>
       <c r="F84" t="n">
-        <v>1302.8654</v>
+        <v>447</v>
       </c>
       <c r="G84" t="n">
-        <v>133.155</v>
+        <v>133.12</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3704,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>133.6</v>
+        <v>134.6</v>
       </c>
       <c r="C85" t="n">
-        <v>133.6</v>
+        <v>134.1</v>
       </c>
       <c r="D85" t="n">
-        <v>133.6</v>
+        <v>134.6</v>
       </c>
       <c r="E85" t="n">
-        <v>133.6</v>
+        <v>134.1</v>
       </c>
       <c r="F85" t="n">
-        <v>2600</v>
+        <v>1302.8654</v>
       </c>
       <c r="G85" t="n">
-        <v>133.22</v>
+        <v>133.155</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3739,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>132.1</v>
+        <v>133.6</v>
       </c>
       <c r="C86" t="n">
-        <v>133.1</v>
+        <v>133.6</v>
       </c>
       <c r="D86" t="n">
-        <v>133.1</v>
+        <v>133.6</v>
       </c>
       <c r="E86" t="n">
-        <v>128</v>
+        <v>133.6</v>
       </c>
       <c r="F86" t="n">
-        <v>37885.6159</v>
+        <v>2600</v>
       </c>
       <c r="G86" t="n">
-        <v>133.1583333333334</v>
+        <v>133.22</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3774,7 +3424,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>133.1</v>
+        <v>132.1</v>
       </c>
       <c r="C87" t="n">
         <v>133.1</v>
@@ -3783,13 +3433,13 @@
         <v>133.1</v>
       </c>
       <c r="E87" t="n">
-        <v>133.1</v>
+        <v>128</v>
       </c>
       <c r="F87" t="n">
-        <v>312</v>
+        <v>37885.6159</v>
       </c>
       <c r="G87" t="n">
-        <v>133.1933333333334</v>
+        <v>133.1583333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3809,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="C88" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="D88" t="n">
-        <v>134.1</v>
+        <v>133.1</v>
       </c>
       <c r="E88" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2086.125</v>
+        <v>312</v>
       </c>
       <c r="G88" t="n">
-        <v>133.1766666666667</v>
+        <v>133.1933333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3844,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="C89" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="D89" t="n">
-        <v>133.1</v>
+        <v>134.1</v>
       </c>
       <c r="E89" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="F89" t="n">
-        <v>968.6814000000001</v>
+        <v>2086.125</v>
       </c>
       <c r="G89" t="n">
-        <v>133.1816666666667</v>
+        <v>133.1766666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3879,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>133</v>
+        <v>133.1</v>
       </c>
       <c r="C90" t="n">
-        <v>133</v>
+        <v>133.1</v>
       </c>
       <c r="D90" t="n">
-        <v>133</v>
+        <v>133.1</v>
       </c>
       <c r="E90" t="n">
-        <v>133</v>
+        <v>133.1</v>
       </c>
       <c r="F90" t="n">
-        <v>2621</v>
+        <v>968.6814000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>133.215</v>
+        <v>133.1816666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3914,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="C91" t="n">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="D91" t="n">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="E91" t="n">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="F91" t="n">
-        <v>2254</v>
+        <v>2621</v>
       </c>
       <c r="G91" t="n">
-        <v>133.2333333333334</v>
+        <v>133.215</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3949,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="C92" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="D92" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="E92" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="F92" t="n">
-        <v>11081.8643</v>
+        <v>2254</v>
       </c>
       <c r="G92" t="n">
-        <v>133.25</v>
+        <v>133.2333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3987,19 +3637,19 @@
         <v>132</v>
       </c>
       <c r="C93" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="D93" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="E93" t="n">
         <v>132</v>
       </c>
       <c r="F93" t="n">
-        <v>5781</v>
+        <v>11081.8643</v>
       </c>
       <c r="G93" t="n">
-        <v>133.275</v>
+        <v>133.25</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4022,19 +3672,19 @@
         <v>132</v>
       </c>
       <c r="C94" t="n">
-        <v>132</v>
+        <v>132.5</v>
       </c>
       <c r="D94" t="n">
-        <v>132</v>
+        <v>132.5</v>
       </c>
       <c r="E94" t="n">
         <v>132</v>
       </c>
       <c r="F94" t="n">
-        <v>595</v>
+        <v>5781</v>
       </c>
       <c r="G94" t="n">
-        <v>133.2766666666667</v>
+        <v>133.275</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4066,10 +3716,10 @@
         <v>132</v>
       </c>
       <c r="F95" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G95" t="n">
-        <v>133.3266666666667</v>
+        <v>133.2766666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4101,10 +3751,10 @@
         <v>132</v>
       </c>
       <c r="F96" t="n">
-        <v>501.4283</v>
+        <v>594</v>
       </c>
       <c r="G96" t="n">
-        <v>133.3933333333334</v>
+        <v>133.3266666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4124,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>130.2</v>
+        <v>132</v>
       </c>
       <c r="C97" t="n">
-        <v>131.6</v>
+        <v>132</v>
       </c>
       <c r="D97" t="n">
-        <v>131.6</v>
+        <v>132</v>
       </c>
       <c r="E97" t="n">
-        <v>129.9</v>
+        <v>132</v>
       </c>
       <c r="F97" t="n">
-        <v>8802.956899999999</v>
+        <v>501.4283</v>
       </c>
       <c r="G97" t="n">
-        <v>133.4533333333334</v>
+        <v>133.3933333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4159,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C98" t="n">
         <v>131.6</v>
-      </c>
-      <c r="C98" t="n">
-        <v>130.9</v>
       </c>
       <c r="D98" t="n">
         <v>131.6</v>
       </c>
       <c r="E98" t="n">
-        <v>130.9</v>
+        <v>129.9</v>
       </c>
       <c r="F98" t="n">
-        <v>2180</v>
+        <v>8802.956899999999</v>
       </c>
       <c r="G98" t="n">
-        <v>133.485</v>
+        <v>133.4533333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4194,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>132</v>
+        <v>131.6</v>
       </c>
       <c r="C99" t="n">
-        <v>132.9</v>
+        <v>130.9</v>
       </c>
       <c r="D99" t="n">
-        <v>132.9</v>
+        <v>131.6</v>
       </c>
       <c r="E99" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="F99" t="n">
-        <v>577.8736</v>
+        <v>2180</v>
       </c>
       <c r="G99" t="n">
-        <v>133.5333333333334</v>
+        <v>133.485</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4229,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>131.5</v>
+        <v>132</v>
       </c>
       <c r="C100" t="n">
-        <v>131.5</v>
+        <v>132.9</v>
       </c>
       <c r="D100" t="n">
-        <v>131.5</v>
+        <v>132.9</v>
       </c>
       <c r="E100" t="n">
-        <v>131.5</v>
+        <v>131</v>
       </c>
       <c r="F100" t="n">
-        <v>226.7123</v>
+        <v>577.8736</v>
       </c>
       <c r="G100" t="n">
-        <v>133.6116666666667</v>
+        <v>133.5333333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4264,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>131</v>
+        <v>131.5</v>
       </c>
       <c r="C101" t="n">
-        <v>131</v>
+        <v>131.5</v>
       </c>
       <c r="D101" t="n">
-        <v>131</v>
+        <v>131.5</v>
       </c>
       <c r="E101" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="F101" t="n">
-        <v>1308.4706</v>
+        <v>226.7123</v>
       </c>
       <c r="G101" t="n">
-        <v>133.6266666666667</v>
+        <v>133.6116666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4299,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="C102" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="D102" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="E102" t="n">
         <v>130</v>
       </c>
       <c r="F102" t="n">
-        <v>10248.7018</v>
+        <v>1308.4706</v>
       </c>
       <c r="G102" t="n">
-        <v>133.63</v>
+        <v>133.6266666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4343,10 +3993,10 @@
         <v>130.1</v>
       </c>
       <c r="E103" t="n">
-        <v>130.1</v>
+        <v>130</v>
       </c>
       <c r="F103" t="n">
-        <v>1444.2</v>
+        <v>10248.7018</v>
       </c>
       <c r="G103" t="n">
         <v>133.63</v>
@@ -4369,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>131</v>
+        <v>130.1</v>
       </c>
       <c r="C104" t="n">
-        <v>131</v>
+        <v>130.1</v>
       </c>
       <c r="D104" t="n">
-        <v>131</v>
+        <v>130.1</v>
       </c>
       <c r="E104" t="n">
-        <v>131</v>
+        <v>130.1</v>
       </c>
       <c r="F104" t="n">
-        <v>991.6488000000001</v>
+        <v>1444.2</v>
       </c>
       <c r="G104" t="n">
-        <v>133.645</v>
+        <v>133.63</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4416,10 +4066,10 @@
         <v>131</v>
       </c>
       <c r="F105" t="n">
-        <v>20473.1154</v>
+        <v>991.6488000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>133.6366666666667</v>
+        <v>133.645</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4451,10 +4101,10 @@
         <v>131</v>
       </c>
       <c r="F106" t="n">
-        <v>9.650600000000001</v>
+        <v>20473.1154</v>
       </c>
       <c r="G106" t="n">
-        <v>133.62</v>
+        <v>133.6366666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4474,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C107" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D107" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E107" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>9.650600000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>133.5333333333334</v>
+        <v>133.62</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4509,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C108" t="n">
         <v>132</v>
       </c>
       <c r="D108" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E108" t="n">
         <v>132</v>
       </c>
       <c r="F108" t="n">
-        <v>34.2555</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>133.4633333333334</v>
+        <v>133.5333333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4544,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C109" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D109" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E109" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F109" t="n">
-        <v>7665.9888</v>
+        <v>34.2555</v>
       </c>
       <c r="G109" t="n">
-        <v>133.36</v>
+        <v>133.4633333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4579,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F110" t="n">
-        <v>28.9707</v>
+        <v>7665.9888</v>
       </c>
       <c r="G110" t="n">
-        <v>133.2733333333334</v>
+        <v>133.36</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4614,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>129.7</v>
+        <v>131</v>
       </c>
       <c r="C111" t="n">
-        <v>129.7</v>
+        <v>131</v>
       </c>
       <c r="D111" t="n">
-        <v>129.7</v>
+        <v>131</v>
       </c>
       <c r="E111" t="n">
-        <v>129.7</v>
+        <v>131</v>
       </c>
       <c r="F111" t="n">
-        <v>49.3929</v>
+        <v>28.9707</v>
       </c>
       <c r="G111" t="n">
-        <v>133.25</v>
+        <v>133.2733333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4649,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>129.6</v>
+        <v>129.7</v>
       </c>
       <c r="C112" t="n">
-        <v>130.5</v>
+        <v>129.7</v>
       </c>
       <c r="D112" t="n">
-        <v>131.8</v>
+        <v>129.7</v>
       </c>
       <c r="E112" t="n">
-        <v>129.6</v>
+        <v>129.7</v>
       </c>
       <c r="F112" t="n">
-        <v>14162.1791</v>
+        <v>49.3929</v>
       </c>
       <c r="G112" t="n">
-        <v>133.235</v>
+        <v>133.25</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4684,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>130.2</v>
+        <v>129.6</v>
       </c>
       <c r="C113" t="n">
-        <v>130.2</v>
+        <v>130.5</v>
       </c>
       <c r="D113" t="n">
-        <v>130.2</v>
+        <v>131.8</v>
       </c>
       <c r="E113" t="n">
-        <v>130.2</v>
+        <v>129.6</v>
       </c>
       <c r="F113" t="n">
-        <v>11830</v>
+        <v>14162.1791</v>
       </c>
       <c r="G113" t="n">
-        <v>133.1966666666667</v>
+        <v>133.235</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4731,10 +4381,10 @@
         <v>130.2</v>
       </c>
       <c r="F114" t="n">
-        <v>3830</v>
+        <v>11830</v>
       </c>
       <c r="G114" t="n">
-        <v>133.1166666666667</v>
+        <v>133.1966666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4757,35 +4407,29 @@
         <v>130.2</v>
       </c>
       <c r="C115" t="n">
-        <v>130</v>
+        <v>130.2</v>
       </c>
       <c r="D115" t="n">
         <v>130.2</v>
       </c>
       <c r="E115" t="n">
-        <v>130</v>
+        <v>130.2</v>
       </c>
       <c r="F115" t="n">
-        <v>643.8045</v>
+        <v>3830</v>
       </c>
       <c r="G115" t="n">
-        <v>133.0316666666667</v>
+        <v>133.1166666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>130.2</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4795,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>130</v>
+        <v>130.2</v>
       </c>
       <c r="C116" t="n">
         <v>130</v>
       </c>
       <c r="D116" t="n">
-        <v>130</v>
+        <v>130.2</v>
       </c>
       <c r="E116" t="n">
         <v>130</v>
       </c>
       <c r="F116" t="n">
-        <v>123</v>
+        <v>643.8045</v>
       </c>
       <c r="G116" t="n">
-        <v>132.9466666666667</v>
+        <v>133.0316666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4820,11 +4464,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4834,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="C117" t="n">
-        <v>128.5</v>
+        <v>130</v>
       </c>
       <c r="D117" t="n">
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="E117" t="n">
-        <v>128.5</v>
+        <v>130</v>
       </c>
       <c r="F117" t="n">
-        <v>4353.6424</v>
+        <v>123</v>
       </c>
       <c r="G117" t="n">
-        <v>132.8366666666667</v>
+        <v>132.9466666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4859,11 +4499,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4876,19 +4512,19 @@
         <v>129.5</v>
       </c>
       <c r="C118" t="n">
-        <v>130</v>
+        <v>128.5</v>
       </c>
       <c r="D118" t="n">
-        <v>132</v>
+        <v>129.5</v>
       </c>
       <c r="E118" t="n">
-        <v>129.5</v>
+        <v>128.5</v>
       </c>
       <c r="F118" t="n">
-        <v>8961</v>
+        <v>4353.6424</v>
       </c>
       <c r="G118" t="n">
-        <v>132.8033333333333</v>
+        <v>132.8366666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4898,11 +4534,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4912,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>130</v>
+        <v>129.5</v>
       </c>
       <c r="C119" t="n">
         <v>130</v>
       </c>
       <c r="D119" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E119" t="n">
-        <v>130</v>
+        <v>129.5</v>
       </c>
       <c r="F119" t="n">
-        <v>1151</v>
+        <v>8961</v>
       </c>
       <c r="G119" t="n">
-        <v>132.7366666666667</v>
+        <v>132.8033333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4937,11 +4569,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4957,16 +4585,16 @@
         <v>130</v>
       </c>
       <c r="D120" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E120" t="n">
         <v>130</v>
       </c>
       <c r="F120" t="n">
-        <v>7360.9245</v>
+        <v>1151</v>
       </c>
       <c r="G120" t="n">
-        <v>132.6233333333333</v>
+        <v>132.7366666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4976,11 +4604,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4996,16 +4620,16 @@
         <v>130</v>
       </c>
       <c r="D121" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E121" t="n">
         <v>130</v>
       </c>
       <c r="F121" t="n">
-        <v>901.78</v>
+        <v>7360.9245</v>
       </c>
       <c r="G121" t="n">
-        <v>132.54</v>
+        <v>132.6233333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5015,11 +4639,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5041,10 +4661,10 @@
         <v>130</v>
       </c>
       <c r="F122" t="n">
-        <v>7.6924</v>
+        <v>901.78</v>
       </c>
       <c r="G122" t="n">
-        <v>132.4233333333333</v>
+        <v>132.54</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5054,11 +4674,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5071,19 +4687,19 @@
         <v>130</v>
       </c>
       <c r="C123" t="n">
-        <v>130.6</v>
+        <v>130</v>
       </c>
       <c r="D123" t="n">
-        <v>130.6</v>
+        <v>130</v>
       </c>
       <c r="E123" t="n">
-        <v>129.1</v>
+        <v>130</v>
       </c>
       <c r="F123" t="n">
-        <v>19975.5284</v>
+        <v>7.6924</v>
       </c>
       <c r="G123" t="n">
-        <v>132.3133333333334</v>
+        <v>132.4233333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5093,11 +4709,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5107,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="C124" t="n">
-        <v>129.5</v>
+        <v>130.6</v>
       </c>
       <c r="D124" t="n">
         <v>130.6</v>
       </c>
       <c r="E124" t="n">
-        <v>129.5</v>
+        <v>129.1</v>
       </c>
       <c r="F124" t="n">
-        <v>21006.4733</v>
+        <v>19975.5284</v>
       </c>
       <c r="G124" t="n">
-        <v>132.2016666666667</v>
+        <v>132.3133333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5132,11 +4744,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5152,16 +4760,16 @@
         <v>129.5</v>
       </c>
       <c r="D125" t="n">
-        <v>129.5</v>
+        <v>130.6</v>
       </c>
       <c r="E125" t="n">
         <v>129.5</v>
       </c>
       <c r="F125" t="n">
-        <v>600</v>
+        <v>21006.4733</v>
       </c>
       <c r="G125" t="n">
-        <v>132.1066666666667</v>
+        <v>132.2016666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5171,11 +4779,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5197,10 +4801,10 @@
         <v>129.5</v>
       </c>
       <c r="F126" t="n">
-        <v>4800</v>
+        <v>600</v>
       </c>
       <c r="G126" t="n">
-        <v>131.995</v>
+        <v>132.1066666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5210,11 +4814,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5236,10 +4836,10 @@
         <v>129.5</v>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>4800</v>
       </c>
       <c r="G127" t="n">
-        <v>131.8833333333334</v>
+        <v>131.995</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5249,11 +4849,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>128.5</v>
+        <v>129.5</v>
       </c>
       <c r="C128" t="n">
-        <v>128.5</v>
+        <v>129.5</v>
       </c>
       <c r="D128" t="n">
-        <v>128.5</v>
+        <v>129.5</v>
       </c>
       <c r="E128" t="n">
-        <v>128.5</v>
+        <v>129.5</v>
       </c>
       <c r="F128" t="n">
-        <v>18060.9778</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="n">
-        <v>131.7583333333334</v>
+        <v>131.8833333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5288,11 +4884,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5302,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>129.5</v>
+        <v>128.5</v>
       </c>
       <c r="C129" t="n">
-        <v>129.5</v>
+        <v>128.5</v>
       </c>
       <c r="D129" t="n">
-        <v>129.5</v>
+        <v>128.5</v>
       </c>
       <c r="E129" t="n">
-        <v>129.5</v>
+        <v>128.5</v>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>18060.9778</v>
       </c>
       <c r="G129" t="n">
-        <v>131.6666666666667</v>
+        <v>131.7583333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5327,11 +4919,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5353,10 +4941,10 @@
         <v>129.5</v>
       </c>
       <c r="F130" t="n">
-        <v>1715</v>
+        <v>200</v>
       </c>
       <c r="G130" t="n">
-        <v>131.6083333333334</v>
+        <v>131.6666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5366,11 +4954,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5392,26 +4976,20 @@
         <v>129.5</v>
       </c>
       <c r="F131" t="n">
-        <v>2000</v>
+        <v>1715</v>
       </c>
       <c r="G131" t="n">
-        <v>131.5333333333334</v>
+        <v>131.6083333333334</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5433,26 +5011,20 @@
         <v>129.5</v>
       </c>
       <c r="F132" t="n">
-        <v>1315</v>
+        <v>2000</v>
       </c>
       <c r="G132" t="n">
-        <v>131.4916666666667</v>
+        <v>131.5333333333334</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5462,7 +5034,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>129</v>
+        <v>129.5</v>
       </c>
       <c r="C133" t="n">
         <v>129.5</v>
@@ -5471,29 +5043,23 @@
         <v>129.5</v>
       </c>
       <c r="E133" t="n">
-        <v>129</v>
+        <v>129.5</v>
       </c>
       <c r="F133" t="n">
-        <v>524</v>
+        <v>1315</v>
       </c>
       <c r="G133" t="n">
-        <v>131.4466666666667</v>
+        <v>131.4916666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5503,38 +5069,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" t="n">
-        <v>130</v>
+        <v>129.5</v>
       </c>
       <c r="D134" t="n">
-        <v>130</v>
+        <v>129.5</v>
       </c>
       <c r="E134" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F134" t="n">
-        <v>151.8712</v>
+        <v>524</v>
       </c>
       <c r="G134" t="n">
-        <v>131.38</v>
+        <v>131.4466666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5556,26 +5116,20 @@
         <v>130</v>
       </c>
       <c r="F135" t="n">
-        <v>7.041</v>
+        <v>151.8712</v>
       </c>
       <c r="G135" t="n">
-        <v>131.315</v>
+        <v>131.38</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>130</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5597,26 +5151,20 @@
         <v>130</v>
       </c>
       <c r="F136" t="n">
-        <v>3774.1598</v>
+        <v>7.041</v>
       </c>
       <c r="G136" t="n">
-        <v>131.2500000000001</v>
+        <v>131.315</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>130</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5626,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="C137" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="D137" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="E137" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="F137" t="n">
-        <v>273</v>
+        <v>3774.1598</v>
       </c>
       <c r="G137" t="n">
-        <v>131.1950000000001</v>
+        <v>131.2500000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5651,11 +5199,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5677,10 +5221,10 @@
         <v>129.9</v>
       </c>
       <c r="F138" t="n">
-        <v>11209.5664</v>
+        <v>273</v>
       </c>
       <c r="G138" t="n">
-        <v>131.1133333333334</v>
+        <v>131.1950000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5690,12 +5234,43 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11209.5664</v>
+      </c>
+      <c r="G139" t="n">
+        <v>131.1133333333334</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>20726.087</v>
       </c>
       <c r="G2" t="n">
+        <v>128.8200000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>131.7433333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>21</v>
       </c>
       <c r="G3" t="n">
+        <v>128.7866666666669</v>
+      </c>
+      <c r="H3" t="n">
         <v>131.7433333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>452</v>
       </c>
       <c r="G4" t="n">
+        <v>128.6800000000002</v>
+      </c>
+      <c r="H4" t="n">
         <v>131.705</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1029.2019</v>
       </c>
       <c r="G5" t="n">
+        <v>128.6400000000002</v>
+      </c>
+      <c r="H5" t="n">
         <v>131.6483333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>360</v>
       </c>
       <c r="G6" t="n">
+        <v>128.3333333333335</v>
+      </c>
+      <c r="H6" t="n">
         <v>131.6216666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>216</v>
       </c>
       <c r="G7" t="n">
+        <v>128.3600000000002</v>
+      </c>
+      <c r="H7" t="n">
         <v>131.565</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>26567.25</v>
       </c>
       <c r="G8" t="n">
+        <v>128.3800000000002</v>
+      </c>
+      <c r="H8" t="n">
         <v>131.4716666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1298.1911</v>
       </c>
       <c r="G9" t="n">
+        <v>128.5133333333336</v>
+      </c>
+      <c r="H9" t="n">
         <v>131.4383333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>76</v>
       </c>
       <c r="G10" t="n">
+        <v>128.7800000000002</v>
+      </c>
+      <c r="H10" t="n">
         <v>131.4533333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>76.3359</v>
       </c>
       <c r="G11" t="n">
+        <v>128.9800000000002</v>
+      </c>
+      <c r="H11" t="n">
         <v>131.4683333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>76.3359</v>
       </c>
       <c r="G12" t="n">
+        <v>129.1800000000002</v>
+      </c>
+      <c r="H12" t="n">
         <v>131.4833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>207.6409</v>
       </c>
       <c r="G13" t="n">
+        <v>129.4400000000002</v>
+      </c>
+      <c r="H13" t="n">
         <v>131.4816666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1623</v>
       </c>
       <c r="G14" t="n">
+        <v>129.8200000000002</v>
+      </c>
+      <c r="H14" t="n">
         <v>131.5083333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>162.5484</v>
       </c>
       <c r="G15" t="n">
+        <v>130.2200000000002</v>
+      </c>
+      <c r="H15" t="n">
         <v>131.4083333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>45.0925</v>
       </c>
       <c r="G16" t="n">
+        <v>130.3533333333336</v>
+      </c>
+      <c r="H16" t="n">
         <v>131.3583333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>288</v>
       </c>
       <c r="G17" t="n">
+        <v>130.5333333333336</v>
+      </c>
+      <c r="H17" t="n">
         <v>131.375</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>4</v>
       </c>
       <c r="G18" t="n">
+        <v>130.7600000000002</v>
+      </c>
+      <c r="H18" t="n">
         <v>131.4066666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>8</v>
       </c>
       <c r="G19" t="n">
+        <v>130.8466666666669</v>
+      </c>
+      <c r="H19" t="n">
         <v>131.3183333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>44.93</v>
       </c>
       <c r="G20" t="n">
+        <v>130.9333333333335</v>
+      </c>
+      <c r="H20" t="n">
         <v>131.23</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>3442.8133</v>
       </c>
       <c r="G21" t="n">
+        <v>131.0200000000002</v>
+      </c>
+      <c r="H21" t="n">
         <v>131.2216666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>521.0939</v>
       </c>
       <c r="G22" t="n">
+        <v>131.1066666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>131.2333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1814.8233</v>
       </c>
       <c r="G23" t="n">
+        <v>131.2000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>131.145</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,25 @@
         <v>656.3208</v>
       </c>
       <c r="G24" t="n">
+        <v>131.2666666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>131.1116666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1331,27 @@
         <v>17</v>
       </c>
       <c r="G25" t="n">
+        <v>131.3333333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>131.0116666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1375,27 @@
         <v>61.125</v>
       </c>
       <c r="G26" t="n">
+        <v>131.2466666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>130.9233333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,21 @@
         <v>1200</v>
       </c>
       <c r="G27" t="n">
+        <v>131.6333333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>131.0033333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1457,21 @@
         <v>8</v>
       </c>
       <c r="G28" t="n">
+        <v>131.5733333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>130.92</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1495,21 @@
         <v>1887.3935</v>
       </c>
       <c r="G29" t="n">
+        <v>131.6600000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>130.9533333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1533,21 @@
         <v>400</v>
       </c>
       <c r="G30" t="n">
+        <v>131.7133333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>130.9833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1571,21 @@
         <v>9.99</v>
       </c>
       <c r="G31" t="n">
+        <v>131.7133333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>130.9666666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1609,21 @@
         <v>458</v>
       </c>
       <c r="G32" t="n">
+        <v>131.7133333333335</v>
+      </c>
+      <c r="H32" t="n">
         <v>130.8833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1647,21 @@
         <v>159</v>
       </c>
       <c r="G33" t="n">
+        <v>131.5866666666668</v>
+      </c>
+      <c r="H33" t="n">
         <v>130.865</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1685,21 @@
         <v>837.6825</v>
       </c>
       <c r="G34" t="n">
+        <v>131.6066666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>130.7983333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1723,21 @@
         <v>6138.743</v>
       </c>
       <c r="G35" t="n">
+        <v>131.6866666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>130.7749999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1761,21 @@
         <v>60</v>
       </c>
       <c r="G36" t="n">
+        <v>131.5733333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>130.7083333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1799,21 @@
         <v>447.7825</v>
       </c>
       <c r="G37" t="n">
+        <v>131.3933333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>130.6166666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1837,21 @@
         <v>1463.6569</v>
       </c>
       <c r="G38" t="n">
+        <v>131.2133333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>130.5333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1875,21 @@
         <v>2941</v>
       </c>
       <c r="G39" t="n">
+        <v>131.0800000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>130.4983333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1913,27 @@
         <v>840.329</v>
       </c>
       <c r="G40" t="n">
+        <v>130.9466666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>130.3516666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>129</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1957,27 @@
         <v>3231.3429</v>
       </c>
       <c r="G41" t="n">
+        <v>130.7533333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>130.2799999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>130</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2001,27 @@
         <v>2627</v>
       </c>
       <c r="G42" t="n">
+        <v>130.3066666666668</v>
+      </c>
+      <c r="H42" t="n">
         <v>130.2633333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>126.8</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2045,25 @@
         <v>5315.2043</v>
       </c>
       <c r="G43" t="n">
+        <v>130.2333333333335</v>
+      </c>
+      <c r="H43" t="n">
         <v>130.2616666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2087,25 @@
         <v>6616.9889</v>
       </c>
       <c r="G44" t="n">
+        <v>130.0400000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>130.2466666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2129,25 @@
         <v>5749.7249</v>
       </c>
       <c r="G45" t="n">
+        <v>129.8600000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>130.2149999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2171,25 @@
         <v>14196.3491</v>
       </c>
       <c r="G46" t="n">
+        <v>129.8933333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>130.2233333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2213,25 @@
         <v>4.888</v>
       </c>
       <c r="G47" t="n">
+        <v>129.8933333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>130.24</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2255,25 @@
         <v>7000</v>
       </c>
       <c r="G48" t="n">
+        <v>130.3066666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>130.36</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2297,25 @@
         <v>290.65</v>
       </c>
       <c r="G49" t="n">
+        <v>130.6533333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>130.4466666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2339,25 @@
         <v>1831.7029</v>
       </c>
       <c r="G50" t="n">
+        <v>130.9400000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>130.5499999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2381,25 @@
         <v>3.8573</v>
       </c>
       <c r="G51" t="n">
+        <v>131.42</v>
+      </c>
+      <c r="H51" t="n">
         <v>130.5866666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2423,25 @@
         <v>799.9434</v>
       </c>
       <c r="G52" t="n">
+        <v>131.6266666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>130.6216666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2465,25 @@
         <v>7196.7376</v>
       </c>
       <c r="G53" t="n">
+        <v>131.8533333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>130.6616666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2507,25 @@
         <v>1030</v>
       </c>
       <c r="G54" t="n">
+        <v>132.0866666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>130.7366666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2549,25 @@
         <v>13.9718</v>
       </c>
       <c r="G55" t="n">
+        <v>132.42</v>
+      </c>
+      <c r="H55" t="n">
         <v>130.8699999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2591,25 @@
         <v>6</v>
       </c>
       <c r="G56" t="n">
+        <v>132.9733333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>130.9883333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2633,25 @@
         <v>668.5683</v>
       </c>
       <c r="G57" t="n">
+        <v>133.3066666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>131.1066666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2675,25 @@
         <v>604.9153</v>
       </c>
       <c r="G58" t="n">
+        <v>133.6533333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>131.225</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2717,25 @@
         <v>18865.8563</v>
       </c>
       <c r="G59" t="n">
+        <v>133.7800000000001</v>
+      </c>
+      <c r="H59" t="n">
         <v>131.325</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2759,25 @@
         <v>508.8354</v>
       </c>
       <c r="G60" t="n">
+        <v>134.04</v>
+      </c>
+      <c r="H60" t="n">
         <v>131.4583333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2801,25 @@
         <v>1098</v>
       </c>
       <c r="G61" t="n">
+        <v>134.3933333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>131.5883333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2843,25 @@
         <v>151.2507</v>
       </c>
       <c r="G62" t="n">
+        <v>134.5933333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>131.6833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2885,25 @@
         <v>757</v>
       </c>
       <c r="G63" t="n">
+        <v>134.5800000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>131.8083333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2927,25 @@
         <v>6</v>
       </c>
       <c r="G64" t="n">
+        <v>134.6466666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>131.9383333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,20 +2969,25 @@
         <v>669</v>
       </c>
       <c r="G65" t="n">
+        <v>134.6466666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>132.0516666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,18 +3009,21 @@
         <v>4361</v>
       </c>
       <c r="G66" t="n">
+        <v>134.5800000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>132.1483333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3047,21 @@
         <v>6514.4269</v>
       </c>
       <c r="G67" t="n">
+        <v>134.9200000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>132.2616666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3085,21 @@
         <v>17</v>
       </c>
       <c r="G68" t="n">
+        <v>135.2400000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>132.3766666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3123,21 @@
         <v>6986.9671</v>
       </c>
       <c r="G69" t="n">
+        <v>135.4733333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>132.4766666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3161,21 @@
         <v>97.7482</v>
       </c>
       <c r="G70" t="n">
+        <v>135.4733333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>132.5433333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3199,21 @@
         <v>518.7482</v>
       </c>
       <c r="G71" t="n">
+        <v>135.3333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>132.5766666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3237,21 @@
         <v>726.8549</v>
       </c>
       <c r="G72" t="n">
+        <v>135.2600000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>132.6266666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3275,21 @@
         <v>6166.7376</v>
       </c>
       <c r="G73" t="n">
+        <v>135.0533333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>132.6283333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3313,21 @@
         <v>9852.197200000001</v>
       </c>
       <c r="G74" t="n">
+        <v>135.0666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>132.6366666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,22 +3351,21 @@
         <v>574</v>
       </c>
       <c r="G75" t="n">
+        <v>135.0666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>132.67</v>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>132.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,1885 +3389,2053 @@
         <v>533.3537</v>
       </c>
       <c r="G76" t="n">
+        <v>134.8733333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>132.7183333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>200</v>
+      </c>
+      <c r="G77" t="n">
+        <v>134.8000000000001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>132.7499999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>134.5466666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>132.755</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>800</v>
+      </c>
+      <c r="G79" t="n">
+        <v>134.3866666666667</v>
+      </c>
+      <c r="H79" t="n">
+        <v>132.8233333333333</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>24084.05</v>
+      </c>
+      <c r="G80" t="n">
+        <v>134.2266666666667</v>
+      </c>
+      <c r="H80" t="n">
+        <v>132.875</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>433</v>
+      </c>
+      <c r="G81" t="n">
+        <v>134.1533333333334</v>
+      </c>
+      <c r="H81" t="n">
+        <v>132.9316666666666</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>150.2671</v>
+      </c>
+      <c r="G82" t="n">
+        <v>133.9466666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>132.9716666666667</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>136</v>
+      </c>
+      <c r="D83" t="n">
+        <v>136</v>
+      </c>
+      <c r="E83" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G83" t="n">
+        <v>133.9333333333334</v>
+      </c>
+      <c r="H83" t="n">
+        <v>133.06</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C84" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="F84" t="n">
+        <v>447</v>
+      </c>
+      <c r="G84" t="n">
+        <v>133.8400000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>133.12</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C85" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1302.8654</v>
+      </c>
+      <c r="G85" t="n">
+        <v>133.7800000000001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>133.155</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="E86" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G86" t="n">
+        <v>133.8200000000001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>133.22</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>128</v>
+      </c>
+      <c r="F87" t="n">
+        <v>37885.6159</v>
+      </c>
+      <c r="G87" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="H87" t="n">
+        <v>133.1583333333334</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>312</v>
+      </c>
+      <c r="G88" t="n">
+        <v>133.8333333333334</v>
+      </c>
+      <c r="H88" t="n">
+        <v>133.1933333333334</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>132</v>
+      </c>
+      <c r="C89" t="n">
+        <v>132</v>
+      </c>
+      <c r="D89" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>132</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2086.125</v>
+      </c>
+      <c r="G89" t="n">
+        <v>133.82</v>
+      </c>
+      <c r="H89" t="n">
+        <v>133.1766666666667</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>968.6814000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="H90" t="n">
+        <v>133.1816666666667</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>133</v>
+      </c>
+      <c r="C91" t="n">
+        <v>133</v>
+      </c>
+      <c r="D91" t="n">
+        <v>133</v>
+      </c>
+      <c r="E91" t="n">
+        <v>133</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2621</v>
+      </c>
+      <c r="G91" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H91" t="n">
+        <v>133.215</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2254</v>
+      </c>
+      <c r="G92" t="n">
+        <v>133.6466666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>133.2333333333334</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>132</v>
+      </c>
+      <c r="C93" t="n">
+        <v>132</v>
+      </c>
+      <c r="D93" t="n">
+        <v>132</v>
+      </c>
+      <c r="E93" t="n">
+        <v>132</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11081.8643</v>
+      </c>
+      <c r="G93" t="n">
+        <v>133.5666666666667</v>
+      </c>
+      <c r="H93" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>132</v>
+      </c>
+      <c r="C94" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>132</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5781</v>
+      </c>
+      <c r="G94" t="n">
+        <v>133.4133333333333</v>
+      </c>
+      <c r="H94" t="n">
+        <v>133.275</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>132</v>
+      </c>
+      <c r="C95" t="n">
+        <v>132</v>
+      </c>
+      <c r="D95" t="n">
+        <v>132</v>
+      </c>
+      <c r="E95" t="n">
+        <v>132</v>
+      </c>
+      <c r="F95" t="n">
+        <v>595</v>
+      </c>
+      <c r="G95" t="n">
+        <v>133.2933333333333</v>
+      </c>
+      <c r="H95" t="n">
+        <v>133.2766666666667</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>132</v>
+      </c>
+      <c r="C96" t="n">
+        <v>132</v>
+      </c>
+      <c r="D96" t="n">
+        <v>132</v>
+      </c>
+      <c r="E96" t="n">
+        <v>132</v>
+      </c>
+      <c r="F96" t="n">
+        <v>594</v>
+      </c>
+      <c r="G96" t="n">
+        <v>133.1533333333333</v>
+      </c>
+      <c r="H96" t="n">
+        <v>133.3266666666667</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>132</v>
+      </c>
+      <c r="C97" t="n">
+        <v>132</v>
+      </c>
+      <c r="D97" t="n">
+        <v>132</v>
+      </c>
+      <c r="E97" t="n">
+        <v>132</v>
+      </c>
+      <c r="F97" t="n">
+        <v>501.4283</v>
+      </c>
+      <c r="G97" t="n">
+        <v>133.08</v>
+      </c>
+      <c r="H97" t="n">
+        <v>133.3933333333334</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8802.956899999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>132.7866666666667</v>
+      </c>
+      <c r="H98" t="n">
+        <v>133.4533333333334</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2180</v>
+      </c>
+      <c r="G99" t="n">
+        <v>132.54</v>
+      </c>
+      <c r="H99" t="n">
+        <v>133.485</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>132</v>
+      </c>
+      <c r="C100" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>131</v>
+      </c>
+      <c r="F100" t="n">
+        <v>577.8736</v>
+      </c>
+      <c r="G100" t="n">
+        <v>132.46</v>
+      </c>
+      <c r="H100" t="n">
+        <v>133.5333333333334</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>226.7123</v>
+      </c>
+      <c r="G101" t="n">
+        <v>132.32</v>
+      </c>
+      <c r="H101" t="n">
+        <v>133.6116666666667</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>131</v>
+      </c>
+      <c r="C102" t="n">
+        <v>131</v>
+      </c>
+      <c r="D102" t="n">
+        <v>131</v>
+      </c>
+      <c r="E102" t="n">
+        <v>130</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1308.4706</v>
+      </c>
+      <c r="G102" t="n">
+        <v>132.18</v>
+      </c>
+      <c r="H102" t="n">
+        <v>133.6266666666667</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>130</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10248.7018</v>
+      </c>
+      <c r="G103" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="H103" t="n">
+        <v>133.63</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1444.2</v>
+      </c>
+      <c r="G104" t="n">
+        <v>131.8533333333334</v>
+      </c>
+      <c r="H104" t="n">
+        <v>133.63</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>131</v>
+      </c>
+      <c r="C105" t="n">
+        <v>131</v>
+      </c>
+      <c r="D105" t="n">
+        <v>131</v>
+      </c>
+      <c r="E105" t="n">
+        <v>131</v>
+      </c>
+      <c r="F105" t="n">
+        <v>991.6488000000001</v>
+      </c>
+      <c r="G105" t="n">
+        <v>131.7133333333333</v>
+      </c>
+      <c r="H105" t="n">
+        <v>133.645</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>131</v>
+      </c>
+      <c r="C106" t="n">
+        <v>131</v>
+      </c>
+      <c r="D106" t="n">
+        <v>131</v>
+      </c>
+      <c r="E106" t="n">
+        <v>131</v>
+      </c>
+      <c r="F106" t="n">
+        <v>20473.1154</v>
+      </c>
+      <c r="G106" t="n">
+        <v>131.58</v>
+      </c>
+      <c r="H106" t="n">
+        <v>133.6366666666667</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>131</v>
+      </c>
+      <c r="C107" t="n">
+        <v>131</v>
+      </c>
+      <c r="D107" t="n">
+        <v>131</v>
+      </c>
+      <c r="E107" t="n">
+        <v>131</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9.650600000000001</v>
+      </c>
+      <c r="G107" t="n">
+        <v>131.44</v>
+      </c>
+      <c r="H107" t="n">
+        <v>133.62</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>133</v>
+      </c>
+      <c r="C108" t="n">
+        <v>132</v>
+      </c>
+      <c r="D108" t="n">
+        <v>133</v>
+      </c>
+      <c r="E108" t="n">
+        <v>132</v>
+      </c>
+      <c r="F108" t="n">
+        <v>200</v>
+      </c>
+      <c r="G108" t="n">
+        <v>131.44</v>
+      </c>
+      <c r="H108" t="n">
+        <v>133.5333333333334</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>132</v>
+      </c>
+      <c r="C109" t="n">
+        <v>132</v>
+      </c>
+      <c r="D109" t="n">
+        <v>132</v>
+      </c>
+      <c r="E109" t="n">
+        <v>132</v>
+      </c>
+      <c r="F109" t="n">
+        <v>34.2555</v>
+      </c>
+      <c r="G109" t="n">
+        <v>131.4066666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>133.4633333333334</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>130</v>
+      </c>
+      <c r="C110" t="n">
+        <v>130</v>
+      </c>
+      <c r="D110" t="n">
+        <v>130</v>
+      </c>
+      <c r="E110" t="n">
+        <v>130</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7665.9888</v>
+      </c>
+      <c r="G110" t="n">
+        <v>131.2733333333334</v>
+      </c>
+      <c r="H110" t="n">
+        <v>133.36</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>131</v>
+      </c>
+      <c r="C111" t="n">
+        <v>131</v>
+      </c>
+      <c r="D111" t="n">
+        <v>131</v>
+      </c>
+      <c r="E111" t="n">
+        <v>131</v>
+      </c>
+      <c r="F111" t="n">
+        <v>28.9707</v>
+      </c>
+      <c r="G111" t="n">
+        <v>131.2066666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>133.2733333333334</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>49.3929</v>
+      </c>
+      <c r="G112" t="n">
+        <v>131.0533333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14162.1791</v>
+      </c>
+      <c r="G113" t="n">
+        <v>130.98</v>
+      </c>
+      <c r="H113" t="n">
+        <v>133.235</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>11830</v>
+      </c>
+      <c r="G114" t="n">
+        <v>130.9333333333333</v>
+      </c>
+      <c r="H114" t="n">
+        <v>133.1966666666667</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3830</v>
+      </c>
+      <c r="G115" t="n">
+        <v>130.7533333333333</v>
+      </c>
+      <c r="H115" t="n">
+        <v>133.1166666666667</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>130</v>
+      </c>
+      <c r="D116" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>130</v>
+      </c>
+      <c r="F116" t="n">
+        <v>643.8045</v>
+      </c>
+      <c r="G116" t="n">
+        <v>130.6533333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>133.0316666666667</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>130</v>
+      </c>
+      <c r="C117" t="n">
+        <v>130</v>
+      </c>
+      <c r="D117" t="n">
+        <v>130</v>
+      </c>
+      <c r="E117" t="n">
+        <v>130</v>
+      </c>
+      <c r="F117" t="n">
+        <v>123</v>
+      </c>
+      <c r="G117" t="n">
+        <v>130.5866666666666</v>
+      </c>
+      <c r="H117" t="n">
+        <v>132.9466666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4353.6424</v>
+      </c>
+      <c r="G118" t="n">
+        <v>130.48</v>
+      </c>
+      <c r="H118" t="n">
+        <v>132.8366666666667</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>130</v>
+      </c>
+      <c r="D119" t="n">
+        <v>132</v>
+      </c>
+      <c r="E119" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8961</v>
+      </c>
+      <c r="G119" t="n">
+        <v>130.4733333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>132.8033333333333</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>130</v>
+      </c>
+      <c r="C120" t="n">
+        <v>130</v>
+      </c>
+      <c r="D120" t="n">
+        <v>130</v>
+      </c>
+      <c r="E120" t="n">
+        <v>130</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1151</v>
+      </c>
+      <c r="G120" t="n">
+        <v>130.4066666666667</v>
+      </c>
+      <c r="H120" t="n">
+        <v>132.7366666666667</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>130</v>
+      </c>
+      <c r="C121" t="n">
+        <v>130</v>
+      </c>
+      <c r="D121" t="n">
+        <v>133</v>
+      </c>
+      <c r="E121" t="n">
+        <v>130</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7360.9245</v>
+      </c>
+      <c r="G121" t="n">
+        <v>130.34</v>
+      </c>
+      <c r="H121" t="n">
+        <v>132.6233333333333</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>130</v>
+      </c>
+      <c r="C122" t="n">
+        <v>130</v>
+      </c>
+      <c r="D122" t="n">
+        <v>130</v>
+      </c>
+      <c r="E122" t="n">
+        <v>130</v>
+      </c>
+      <c r="F122" t="n">
+        <v>901.78</v>
+      </c>
+      <c r="G122" t="n">
+        <v>130.2733333333333</v>
+      </c>
+      <c r="H122" t="n">
+        <v>132.54</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>130</v>
+      </c>
+      <c r="C123" t="n">
+        <v>130</v>
+      </c>
+      <c r="D123" t="n">
+        <v>130</v>
+      </c>
+      <c r="E123" t="n">
+        <v>130</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7.6924</v>
+      </c>
+      <c r="G123" t="n">
+        <v>130.14</v>
+      </c>
+      <c r="H123" t="n">
+        <v>132.4233333333333</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>130</v>
+      </c>
+      <c r="C124" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>19975.5284</v>
+      </c>
+      <c r="G124" t="n">
+        <v>130.0466666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>132.3133333333334</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>21006.4733</v>
+      </c>
+      <c r="G125" t="n">
+        <v>130.0133333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>132.2016666666667</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>600</v>
+      </c>
+      <c r="G126" t="n">
+        <v>129.9133333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>132.1066666666667</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G127" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="H127" t="n">
+        <v>131.995</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="L127" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>129.8333333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>131.8833333333334</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="L128" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="C77" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="D77" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="E77" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>200</v>
-      </c>
-      <c r="G77" t="n">
-        <v>132.7499999999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18060.9778</v>
+      </c>
+      <c r="G129" t="n">
+        <v>129.72</v>
+      </c>
+      <c r="H129" t="n">
+        <v>131.7583333333334</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="C78" t="n">
-        <v>133.2</v>
-      </c>
-      <c r="D78" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>133.2</v>
-      </c>
-      <c r="F78" t="n">
-        <v>8</v>
-      </c>
-      <c r="G78" t="n">
-        <v>132.755</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="C79" t="n">
-        <v>134.8</v>
-      </c>
-      <c r="D79" t="n">
-        <v>134.8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>800</v>
-      </c>
-      <c r="G79" t="n">
-        <v>132.8233333333333</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>133.2</v>
-      </c>
-      <c r="C80" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="D80" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="F80" t="n">
-        <v>24084.05</v>
-      </c>
-      <c r="G80" t="n">
-        <v>132.875</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="C81" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>433</v>
-      </c>
-      <c r="G81" t="n">
-        <v>132.9316666666666</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="F82" t="n">
-        <v>150.2671</v>
-      </c>
-      <c r="G82" t="n">
-        <v>132.9716666666667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="C83" t="n">
-        <v>136</v>
-      </c>
-      <c r="D83" t="n">
-        <v>136</v>
-      </c>
-      <c r="E83" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G83" t="n">
-        <v>133.06</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="C84" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="D84" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="F84" t="n">
-        <v>447</v>
-      </c>
-      <c r="G84" t="n">
-        <v>133.12</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="C85" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="E85" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1302.8654</v>
-      </c>
-      <c r="G85" t="n">
-        <v>133.155</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="C86" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="D86" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="E86" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2600</v>
-      </c>
-      <c r="G86" t="n">
-        <v>133.22</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>128</v>
-      </c>
-      <c r="F87" t="n">
-        <v>37885.6159</v>
-      </c>
-      <c r="G87" t="n">
-        <v>133.1583333333334</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="F88" t="n">
-        <v>312</v>
-      </c>
-      <c r="G88" t="n">
-        <v>133.1933333333334</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>132</v>
-      </c>
-      <c r="C89" t="n">
-        <v>132</v>
-      </c>
-      <c r="D89" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>132</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2086.125</v>
-      </c>
-      <c r="G89" t="n">
-        <v>133.1766666666667</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>968.6814000000001</v>
-      </c>
-      <c r="G90" t="n">
-        <v>133.1816666666667</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>133</v>
-      </c>
-      <c r="C91" t="n">
-        <v>133</v>
-      </c>
-      <c r="D91" t="n">
-        <v>133</v>
-      </c>
-      <c r="E91" t="n">
-        <v>133</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2621</v>
-      </c>
-      <c r="G91" t="n">
-        <v>133.215</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2254</v>
-      </c>
-      <c r="G92" t="n">
-        <v>133.2333333333334</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>132</v>
-      </c>
-      <c r="C93" t="n">
-        <v>132</v>
-      </c>
-      <c r="D93" t="n">
-        <v>132</v>
-      </c>
-      <c r="E93" t="n">
-        <v>132</v>
-      </c>
-      <c r="F93" t="n">
-        <v>11081.8643</v>
-      </c>
-      <c r="G93" t="n">
-        <v>133.25</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>132</v>
-      </c>
-      <c r="C94" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="D94" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="E94" t="n">
-        <v>132</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5781</v>
-      </c>
-      <c r="G94" t="n">
-        <v>133.275</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>132</v>
-      </c>
-      <c r="C95" t="n">
-        <v>132</v>
-      </c>
-      <c r="D95" t="n">
-        <v>132</v>
-      </c>
-      <c r="E95" t="n">
-        <v>132</v>
-      </c>
-      <c r="F95" t="n">
-        <v>595</v>
-      </c>
-      <c r="G95" t="n">
-        <v>133.2766666666667</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>132</v>
-      </c>
-      <c r="C96" t="n">
-        <v>132</v>
-      </c>
-      <c r="D96" t="n">
-        <v>132</v>
-      </c>
-      <c r="E96" t="n">
-        <v>132</v>
-      </c>
-      <c r="F96" t="n">
-        <v>594</v>
-      </c>
-      <c r="G96" t="n">
-        <v>133.3266666666667</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>132</v>
-      </c>
-      <c r="C97" t="n">
-        <v>132</v>
-      </c>
-      <c r="D97" t="n">
-        <v>132</v>
-      </c>
-      <c r="E97" t="n">
-        <v>132</v>
-      </c>
-      <c r="F97" t="n">
-        <v>501.4283</v>
-      </c>
-      <c r="G97" t="n">
-        <v>133.3933333333334</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="D98" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="E98" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F98" t="n">
-        <v>8802.956899999999</v>
-      </c>
-      <c r="G98" t="n">
-        <v>133.4533333333334</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="C99" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2180</v>
-      </c>
-      <c r="G99" t="n">
-        <v>133.485</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>132</v>
-      </c>
-      <c r="C100" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="D100" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>131</v>
-      </c>
-      <c r="F100" t="n">
-        <v>577.8736</v>
-      </c>
-      <c r="G100" t="n">
-        <v>133.5333333333334</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="D101" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="E101" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>226.7123</v>
-      </c>
-      <c r="G101" t="n">
-        <v>133.6116666666667</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>131</v>
-      </c>
-      <c r="C102" t="n">
-        <v>131</v>
-      </c>
-      <c r="D102" t="n">
-        <v>131</v>
-      </c>
-      <c r="E102" t="n">
-        <v>130</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1308.4706</v>
-      </c>
-      <c r="G102" t="n">
-        <v>133.6266666666667</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="E103" t="n">
-        <v>130</v>
-      </c>
-      <c r="F103" t="n">
-        <v>10248.7018</v>
-      </c>
-      <c r="G103" t="n">
-        <v>133.63</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="E104" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1444.2</v>
-      </c>
-      <c r="G104" t="n">
-        <v>133.63</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>131</v>
-      </c>
-      <c r="C105" t="n">
-        <v>131</v>
-      </c>
-      <c r="D105" t="n">
-        <v>131</v>
-      </c>
-      <c r="E105" t="n">
-        <v>131</v>
-      </c>
-      <c r="F105" t="n">
-        <v>991.6488000000001</v>
-      </c>
-      <c r="G105" t="n">
-        <v>133.645</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>131</v>
-      </c>
-      <c r="C106" t="n">
-        <v>131</v>
-      </c>
-      <c r="D106" t="n">
-        <v>131</v>
-      </c>
-      <c r="E106" t="n">
-        <v>131</v>
-      </c>
-      <c r="F106" t="n">
-        <v>20473.1154</v>
-      </c>
-      <c r="G106" t="n">
-        <v>133.6366666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>131</v>
-      </c>
-      <c r="C107" t="n">
-        <v>131</v>
-      </c>
-      <c r="D107" t="n">
-        <v>131</v>
-      </c>
-      <c r="E107" t="n">
-        <v>131</v>
-      </c>
-      <c r="F107" t="n">
-        <v>9.650600000000001</v>
-      </c>
-      <c r="G107" t="n">
-        <v>133.62</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>133</v>
-      </c>
-      <c r="C108" t="n">
-        <v>132</v>
-      </c>
-      <c r="D108" t="n">
-        <v>133</v>
-      </c>
-      <c r="E108" t="n">
-        <v>132</v>
-      </c>
-      <c r="F108" t="n">
-        <v>200</v>
-      </c>
-      <c r="G108" t="n">
-        <v>133.5333333333334</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>132</v>
-      </c>
-      <c r="C109" t="n">
-        <v>132</v>
-      </c>
-      <c r="D109" t="n">
-        <v>132</v>
-      </c>
-      <c r="E109" t="n">
-        <v>132</v>
-      </c>
-      <c r="F109" t="n">
-        <v>34.2555</v>
-      </c>
-      <c r="G109" t="n">
-        <v>133.4633333333334</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>130</v>
-      </c>
-      <c r="C110" t="n">
-        <v>130</v>
-      </c>
-      <c r="D110" t="n">
-        <v>130</v>
-      </c>
-      <c r="E110" t="n">
-        <v>130</v>
-      </c>
-      <c r="F110" t="n">
-        <v>7665.9888</v>
-      </c>
-      <c r="G110" t="n">
-        <v>133.36</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>131</v>
-      </c>
-      <c r="C111" t="n">
-        <v>131</v>
-      </c>
-      <c r="D111" t="n">
-        <v>131</v>
-      </c>
-      <c r="E111" t="n">
-        <v>131</v>
-      </c>
-      <c r="F111" t="n">
-        <v>28.9707</v>
-      </c>
-      <c r="G111" t="n">
-        <v>133.2733333333334</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="C112" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="D112" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="E112" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="F112" t="n">
-        <v>49.3929</v>
-      </c>
-      <c r="G112" t="n">
-        <v>133.25</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="C113" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="E113" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="F113" t="n">
-        <v>14162.1791</v>
-      </c>
-      <c r="G113" t="n">
-        <v>133.235</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>11830</v>
-      </c>
-      <c r="G114" t="n">
-        <v>133.1966666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3830</v>
-      </c>
-      <c r="G115" t="n">
-        <v>133.1166666666667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C116" t="n">
-        <v>130</v>
-      </c>
-      <c r="D116" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>130</v>
-      </c>
-      <c r="F116" t="n">
-        <v>643.8045</v>
-      </c>
-      <c r="G116" t="n">
-        <v>133.0316666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>130</v>
-      </c>
-      <c r="C117" t="n">
-        <v>130</v>
-      </c>
-      <c r="D117" t="n">
-        <v>130</v>
-      </c>
-      <c r="E117" t="n">
-        <v>130</v>
-      </c>
-      <c r="F117" t="n">
-        <v>123</v>
-      </c>
-      <c r="G117" t="n">
-        <v>132.9466666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4353.6424</v>
-      </c>
-      <c r="G118" t="n">
-        <v>132.8366666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>130</v>
-      </c>
-      <c r="D119" t="n">
-        <v>132</v>
-      </c>
-      <c r="E119" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>8961</v>
-      </c>
-      <c r="G119" t="n">
-        <v>132.8033333333333</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>130</v>
-      </c>
-      <c r="C120" t="n">
-        <v>130</v>
-      </c>
-      <c r="D120" t="n">
-        <v>130</v>
-      </c>
-      <c r="E120" t="n">
-        <v>130</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1151</v>
-      </c>
-      <c r="G120" t="n">
-        <v>132.7366666666667</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>130</v>
-      </c>
-      <c r="C121" t="n">
-        <v>130</v>
-      </c>
-      <c r="D121" t="n">
-        <v>133</v>
-      </c>
-      <c r="E121" t="n">
-        <v>130</v>
-      </c>
-      <c r="F121" t="n">
-        <v>7360.9245</v>
-      </c>
-      <c r="G121" t="n">
-        <v>132.6233333333333</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>130</v>
-      </c>
-      <c r="C122" t="n">
-        <v>130</v>
-      </c>
-      <c r="D122" t="n">
-        <v>130</v>
-      </c>
-      <c r="E122" t="n">
-        <v>130</v>
-      </c>
-      <c r="F122" t="n">
-        <v>901.78</v>
-      </c>
-      <c r="G122" t="n">
-        <v>132.54</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>130</v>
-      </c>
-      <c r="C123" t="n">
-        <v>130</v>
-      </c>
-      <c r="D123" t="n">
-        <v>130</v>
-      </c>
-      <c r="E123" t="n">
-        <v>130</v>
-      </c>
-      <c r="F123" t="n">
-        <v>7.6924</v>
-      </c>
-      <c r="G123" t="n">
-        <v>132.4233333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>130</v>
-      </c>
-      <c r="C124" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="D124" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="E124" t="n">
-        <v>129.1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>19975.5284</v>
-      </c>
-      <c r="G124" t="n">
-        <v>132.3133333333334</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C125" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="E125" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F125" t="n">
-        <v>21006.4733</v>
-      </c>
-      <c r="G125" t="n">
-        <v>132.2016666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C126" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D126" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E126" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F126" t="n">
-        <v>600</v>
-      </c>
-      <c r="G126" t="n">
-        <v>132.1066666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C127" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G127" t="n">
-        <v>131.995</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G128" t="n">
-        <v>131.8833333333334</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="C129" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="D129" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="E129" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>18060.9778</v>
-      </c>
-      <c r="G129" t="n">
-        <v>131.7583333333334</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5459,25 @@
         <v>200</v>
       </c>
       <c r="G130" t="n">
+        <v>129.6733333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>131.6666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="L130" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5501,29 @@
         <v>1715</v>
       </c>
       <c r="G131" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="H131" t="n">
         <v>131.6083333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="L131" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5547,29 @@
         <v>2000</v>
       </c>
       <c r="G132" t="n">
+        <v>129.6066666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>131.5333333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="L132" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5593,25 @@
         <v>1315</v>
       </c>
       <c r="G133" t="n">
+        <v>129.6733333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>131.4916666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="L133" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5635,29 @@
         <v>524</v>
       </c>
       <c r="G134" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="H134" t="n">
         <v>131.4466666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5681,29 @@
         <v>151.8712</v>
       </c>
       <c r="G135" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="H135" t="n">
         <v>131.38</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="L135" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5727,29 @@
         <v>7.041</v>
       </c>
       <c r="G136" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="H136" t="n">
         <v>131.315</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>130</v>
+      </c>
+      <c r="L136" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5773,29 @@
         <v>3774.1598</v>
       </c>
       <c r="G137" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="H137" t="n">
         <v>131.2500000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>130</v>
+      </c>
+      <c r="L137" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5819,27 @@
         <v>273</v>
       </c>
       <c r="G138" t="n">
+        <v>129.6333333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>131.1950000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5863,467 @@
         <v>11209.5664</v>
       </c>
       <c r="G139" t="n">
+        <v>129.5866666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>131.1133333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3350.6497</v>
+      </c>
+      <c r="G140" t="n">
+        <v>129.6133333333334</v>
+      </c>
+      <c r="H140" t="n">
+        <v>131.0483333333333</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>131</v>
+      </c>
+      <c r="C141" t="n">
+        <v>131</v>
+      </c>
+      <c r="D141" t="n">
+        <v>131</v>
+      </c>
+      <c r="E141" t="n">
+        <v>131</v>
+      </c>
+      <c r="F141" t="n">
+        <v>99.708</v>
+      </c>
+      <c r="G141" t="n">
+        <v>129.7133333333334</v>
+      </c>
+      <c r="H141" t="n">
+        <v>130.9966666666667</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>131</v>
+      </c>
+      <c r="C142" t="n">
+        <v>131</v>
+      </c>
+      <c r="D142" t="n">
+        <v>131</v>
+      </c>
+      <c r="E142" t="n">
+        <v>131</v>
+      </c>
+      <c r="F142" t="n">
+        <v>59.9144</v>
+      </c>
+      <c r="G142" t="n">
+        <v>129.8133333333334</v>
+      </c>
+      <c r="H142" t="n">
+        <v>130.9616666666667</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4</v>
+      </c>
+      <c r="G143" t="n">
+        <v>130.02</v>
+      </c>
+      <c r="H143" t="n">
+        <v>130.905</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>24.483</v>
+      </c>
+      <c r="G144" t="n">
+        <v>130.2933333333334</v>
+      </c>
+      <c r="H144" t="n">
+        <v>130.8716666666667</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4717.6925</v>
+      </c>
+      <c r="G145" t="n">
+        <v>130.36</v>
+      </c>
+      <c r="H145" t="n">
+        <v>130.8116666666667</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>130</v>
+      </c>
+      <c r="C146" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2848.7091</v>
+      </c>
+      <c r="G146" t="n">
+        <v>130.4933333333334</v>
+      </c>
+      <c r="H146" t="n">
+        <v>130.7766666666667</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D147" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F147" t="n">
+        <v>200</v>
+      </c>
+      <c r="G147" t="n">
+        <v>130.52</v>
+      </c>
+      <c r="H147" t="n">
+        <v>130.7233333333333</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1562.9999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>130.6133333333334</v>
+      </c>
+      <c r="H148" t="n">
+        <v>130.6866666666666</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19449.518</v>
+      </c>
+      <c r="G149" t="n">
+        <v>130.6266666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>130.6483333333333</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C2" t="n">
-        <v>129.3</v>
+        <v>132.1</v>
       </c>
       <c r="D2" t="n">
-        <v>129.3</v>
+        <v>137</v>
       </c>
       <c r="E2" t="n">
-        <v>129</v>
+        <v>132.1</v>
       </c>
       <c r="F2" t="n">
-        <v>20726.087</v>
+        <v>464.41</v>
       </c>
       <c r="G2" t="n">
-        <v>128.8200000000002</v>
+        <v>88867.51829975293</v>
       </c>
       <c r="H2" t="n">
-        <v>131.7433333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="C3" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="D3" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G3" t="n">
-        <v>128.7866666666669</v>
+        <v>88977.51829975293</v>
       </c>
       <c r="H3" t="n">
-        <v>131.7433333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>129.4</v>
+        <v>132</v>
       </c>
       <c r="C4" t="n">
-        <v>129.4</v>
+        <v>133.3</v>
       </c>
       <c r="D4" t="n">
-        <v>129.4</v>
+        <v>139.9</v>
       </c>
       <c r="E4" t="n">
-        <v>129.4</v>
+        <v>131.2</v>
       </c>
       <c r="F4" t="n">
-        <v>452</v>
+        <v>6931.0324</v>
       </c>
       <c r="G4" t="n">
-        <v>128.6800000000002</v>
+        <v>82046.48589975294</v>
       </c>
       <c r="H4" t="n">
-        <v>131.705</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" t="n">
-        <v>129.4</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>129.4</v>
+        <v>133</v>
       </c>
       <c r="E5" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F5" t="n">
-        <v>1029.2019</v>
+        <v>593.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>128.6400000000002</v>
+        <v>81452.48599975294</v>
       </c>
       <c r="H5" t="n">
-        <v>131.6483333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>129.4</v>
+        <v>133.5</v>
       </c>
       <c r="C6" t="n">
-        <v>129.4</v>
+        <v>133.5</v>
       </c>
       <c r="D6" t="n">
-        <v>129.4</v>
+        <v>133.5</v>
       </c>
       <c r="E6" t="n">
-        <v>129.4</v>
+        <v>133.5</v>
       </c>
       <c r="F6" t="n">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="G6" t="n">
-        <v>128.3333333333335</v>
+        <v>81873.48599975294</v>
       </c>
       <c r="H6" t="n">
-        <v>131.6216666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>129.4</v>
+        <v>134</v>
       </c>
       <c r="C7" t="n">
-        <v>129.4</v>
+        <v>133</v>
       </c>
       <c r="D7" t="n">
-        <v>129.4</v>
+        <v>134</v>
       </c>
       <c r="E7" t="n">
-        <v>129.4</v>
+        <v>133</v>
       </c>
       <c r="F7" t="n">
-        <v>216</v>
+        <v>498.4999</v>
       </c>
       <c r="G7" t="n">
-        <v>128.3600000000002</v>
+        <v>81374.98609975295</v>
       </c>
       <c r="H7" t="n">
-        <v>131.565</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>129.3</v>
+        <v>131.1</v>
       </c>
       <c r="C8" t="n">
-        <v>129.3</v>
+        <v>131.1</v>
       </c>
       <c r="D8" t="n">
-        <v>129.5</v>
+        <v>131.1</v>
       </c>
       <c r="E8" t="n">
-        <v>129.3</v>
+        <v>131.1</v>
       </c>
       <c r="F8" t="n">
-        <v>26567.25</v>
+        <v>1332.8278</v>
       </c>
       <c r="G8" t="n">
-        <v>128.3800000000002</v>
+        <v>80042.15829975295</v>
       </c>
       <c r="H8" t="n">
-        <v>131.4716666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C9" t="n">
-        <v>130</v>
+        <v>138.8</v>
       </c>
       <c r="D9" t="n">
-        <v>130</v>
+        <v>138.8</v>
       </c>
       <c r="E9" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F9" t="n">
-        <v>1298.1911</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>128.5133333333336</v>
+        <v>80053.15829975295</v>
       </c>
       <c r="H9" t="n">
-        <v>131.4383333333334</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -745,33 +716,30 @@
         <v>131</v>
       </c>
       <c r="C10" t="n">
-        <v>131</v>
+        <v>131.1</v>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>137.9</v>
       </c>
       <c r="E10" t="n">
-        <v>131</v>
+        <v>130.1</v>
       </c>
       <c r="F10" t="n">
-        <v>76</v>
+        <v>3969.337485134155</v>
       </c>
       <c r="G10" t="n">
-        <v>128.7800000000002</v>
+        <v>76083.8208146188</v>
       </c>
       <c r="H10" t="n">
-        <v>131.4533333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131</v>
+        <v>131.1</v>
       </c>
       <c r="C11" t="n">
-        <v>131</v>
+        <v>131.1</v>
       </c>
       <c r="D11" t="n">
-        <v>131</v>
+        <v>131.1</v>
       </c>
       <c r="E11" t="n">
-        <v>131</v>
+        <v>131.1</v>
       </c>
       <c r="F11" t="n">
-        <v>76.3359</v>
+        <v>293</v>
       </c>
       <c r="G11" t="n">
-        <v>128.9800000000002</v>
+        <v>76083.8208146188</v>
       </c>
       <c r="H11" t="n">
-        <v>131.4683333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,33 +786,30 @@
         <v>131</v>
       </c>
       <c r="C12" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" t="n">
         <v>131</v>
       </c>
       <c r="E12" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" t="n">
-        <v>76.3359</v>
+        <v>2396.3375</v>
       </c>
       <c r="G12" t="n">
-        <v>129.1800000000002</v>
+        <v>73687.4833146188</v>
       </c>
       <c r="H12" t="n">
-        <v>131.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -859,33 +821,30 @@
         <v>131</v>
       </c>
       <c r="C13" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="D13" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="E13" t="n">
         <v>131</v>
       </c>
       <c r="F13" t="n">
-        <v>207.6409</v>
+        <v>220.6528</v>
       </c>
       <c r="G13" t="n">
-        <v>129.4400000000002</v>
+        <v>73908.1361146188</v>
       </c>
       <c r="H13" t="n">
-        <v>131.4816666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131.8</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7</v>
+        <v>132</v>
       </c>
       <c r="D14" t="n">
         <v>132</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7</v>
+        <v>131</v>
       </c>
       <c r="F14" t="n">
-        <v>1623</v>
+        <v>116.6388</v>
       </c>
       <c r="G14" t="n">
-        <v>129.8200000000002</v>
+        <v>74024.7749146188</v>
       </c>
       <c r="H14" t="n">
-        <v>131.5083333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" t="n">
-        <v>162.5484</v>
+        <v>43.3505</v>
       </c>
       <c r="G15" t="n">
-        <v>130.2200000000002</v>
+        <v>73981.4244146188</v>
       </c>
       <c r="H15" t="n">
-        <v>131.4083333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -982,24 +935,21 @@
         <v>131</v>
       </c>
       <c r="F16" t="n">
-        <v>45.0925</v>
+        <v>53.9893</v>
       </c>
       <c r="G16" t="n">
-        <v>130.3533333333336</v>
+        <v>73981.4244146188</v>
       </c>
       <c r="H16" t="n">
-        <v>131.3583333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" t="n">
-        <v>288</v>
+        <v>11363.5304</v>
       </c>
       <c r="G17" t="n">
-        <v>130.5333333333336</v>
+        <v>62617.8940146188</v>
       </c>
       <c r="H17" t="n">
-        <v>131.375</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>132.9</v>
+        <v>130</v>
       </c>
       <c r="C18" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="D18" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="E18" t="n">
-        <v>132.9</v>
+        <v>130</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>510.7848</v>
       </c>
       <c r="G18" t="n">
-        <v>130.7600000000002</v>
+        <v>63128.6788146188</v>
       </c>
       <c r="H18" t="n">
-        <v>131.4066666666666</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>132.8</v>
+        <v>130</v>
       </c>
       <c r="C19" t="n">
-        <v>130.7</v>
+        <v>130</v>
       </c>
       <c r="D19" t="n">
-        <v>132.8</v>
+        <v>130</v>
       </c>
       <c r="E19" t="n">
-        <v>130.7</v>
+        <v>130</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="G19" t="n">
-        <v>130.8466666666669</v>
+        <v>55128.6788146188</v>
       </c>
       <c r="H19" t="n">
-        <v>131.3183333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>130.7</v>
+        <v>129</v>
       </c>
       <c r="C20" t="n">
-        <v>130.7</v>
+        <v>134</v>
       </c>
       <c r="D20" t="n">
-        <v>130.7</v>
+        <v>134</v>
       </c>
       <c r="E20" t="n">
-        <v>130.7</v>
+        <v>129</v>
       </c>
       <c r="F20" t="n">
-        <v>44.93</v>
+        <v>16875.9897</v>
       </c>
       <c r="G20" t="n">
-        <v>130.9333333333335</v>
+        <v>72004.6685146188</v>
       </c>
       <c r="H20" t="n">
-        <v>131.23</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>130.7</v>
+        <v>130</v>
       </c>
       <c r="C21" t="n">
-        <v>130.7</v>
+        <v>129</v>
       </c>
       <c r="D21" t="n">
-        <v>130.7</v>
+        <v>130</v>
       </c>
       <c r="E21" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" t="n">
-        <v>3442.8133</v>
+        <v>56851.1516</v>
       </c>
       <c r="G21" t="n">
-        <v>131.0200000000002</v>
+        <v>15153.5169146188</v>
       </c>
       <c r="H21" t="n">
-        <v>131.2216666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>130.7</v>
+        <v>129</v>
       </c>
       <c r="C22" t="n">
-        <v>130.7</v>
+        <v>129</v>
       </c>
       <c r="D22" t="n">
-        <v>130.7</v>
+        <v>129</v>
       </c>
       <c r="E22" t="n">
-        <v>130.7</v>
+        <v>129</v>
       </c>
       <c r="F22" t="n">
-        <v>521.0939</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>131.1066666666668</v>
+        <v>15153.5169146188</v>
       </c>
       <c r="H22" t="n">
-        <v>131.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>130.7</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n">
-        <v>130.7</v>
+        <v>128</v>
       </c>
       <c r="D23" t="n">
-        <v>131.7</v>
+        <v>128</v>
       </c>
       <c r="E23" t="n">
-        <v>130.7</v>
+        <v>128</v>
       </c>
       <c r="F23" t="n">
-        <v>1814.8233</v>
+        <v>1836.0756</v>
       </c>
       <c r="G23" t="n">
-        <v>131.2000000000001</v>
+        <v>13317.4413146188</v>
       </c>
       <c r="H23" t="n">
-        <v>131.145</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,40 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C24" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D24" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E24" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F24" t="n">
-        <v>656.3208</v>
+        <v>123.5768</v>
       </c>
       <c r="G24" t="n">
-        <v>131.2666666666668</v>
+        <v>13193.8645146188</v>
       </c>
       <c r="H24" t="n">
-        <v>131.1116666666666</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="L24" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1316,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C25" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D25" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E25" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>5600</v>
       </c>
       <c r="G25" t="n">
-        <v>131.3333333333335</v>
+        <v>18793.8645146188</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0116666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>129.7</v>
+        <v>128</v>
       </c>
       <c r="C26" t="n">
-        <v>129.7</v>
+        <v>128</v>
       </c>
       <c r="D26" t="n">
-        <v>129.7</v>
+        <v>128</v>
       </c>
       <c r="E26" t="n">
-        <v>129.7</v>
+        <v>128</v>
       </c>
       <c r="F26" t="n">
-        <v>61.125</v>
+        <v>9400</v>
       </c>
       <c r="G26" t="n">
-        <v>131.2466666666668</v>
+        <v>18793.8645146188</v>
       </c>
       <c r="H26" t="n">
-        <v>130.9233333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C27" t="n">
-        <v>136.8</v>
+        <v>128</v>
       </c>
       <c r="D27" t="n">
-        <v>136.8</v>
+        <v>128</v>
       </c>
       <c r="E27" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F27" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="G27" t="n">
-        <v>131.6333333333335</v>
+        <v>18793.8645146188</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0033333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>133</v>
+        <v>129.6</v>
       </c>
       <c r="C28" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D28" t="n">
-        <v>133</v>
+        <v>129.6</v>
       </c>
       <c r="E28" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>34310.6013</v>
       </c>
       <c r="G28" t="n">
-        <v>131.5733333333334</v>
+        <v>-15516.7367853812</v>
       </c>
       <c r="H28" t="n">
-        <v>130.92</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C29" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D29" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E29" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F29" t="n">
-        <v>1887.3935</v>
+        <v>5616</v>
       </c>
       <c r="G29" t="n">
-        <v>131.6600000000001</v>
+        <v>-15516.7367853812</v>
       </c>
       <c r="H29" t="n">
-        <v>130.9533333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C30" t="n">
-        <v>132.8</v>
+        <v>129</v>
       </c>
       <c r="D30" t="n">
-        <v>132.8</v>
+        <v>129</v>
       </c>
       <c r="E30" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>1653</v>
       </c>
       <c r="G30" t="n">
-        <v>131.7133333333335</v>
+        <v>-13863.7367853812</v>
       </c>
       <c r="H30" t="n">
-        <v>130.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" t="n">
-        <v>131</v>
+        <v>129.3</v>
       </c>
       <c r="D31" t="n">
-        <v>131</v>
+        <v>129.3</v>
       </c>
       <c r="E31" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F31" t="n">
-        <v>9.99</v>
+        <v>20726.087</v>
       </c>
       <c r="G31" t="n">
-        <v>131.7133333333335</v>
+        <v>6862.350214618797</v>
       </c>
       <c r="H31" t="n">
-        <v>130.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>132</v>
+        <v>129.5</v>
       </c>
       <c r="C32" t="n">
-        <v>132</v>
+        <v>129.5</v>
       </c>
       <c r="D32" t="n">
-        <v>132</v>
+        <v>129.5</v>
       </c>
       <c r="E32" t="n">
-        <v>132</v>
+        <v>129.5</v>
       </c>
       <c r="F32" t="n">
-        <v>458</v>
+        <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>131.7133333333335</v>
+        <v>6883.350214618797</v>
       </c>
       <c r="H32" t="n">
-        <v>130.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>131</v>
+        <v>129.4</v>
       </c>
       <c r="C33" t="n">
-        <v>131</v>
+        <v>129.4</v>
       </c>
       <c r="D33" t="n">
-        <v>131</v>
+        <v>129.4</v>
       </c>
       <c r="E33" t="n">
-        <v>131</v>
+        <v>129.4</v>
       </c>
       <c r="F33" t="n">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="G33" t="n">
-        <v>131.5866666666668</v>
+        <v>6431.350214618797</v>
       </c>
       <c r="H33" t="n">
-        <v>130.865</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" t="n">
-        <v>131</v>
+        <v>129.4</v>
       </c>
       <c r="D34" t="n">
-        <v>131</v>
+        <v>129.4</v>
       </c>
       <c r="E34" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F34" t="n">
-        <v>837.6825</v>
+        <v>1029.2019</v>
       </c>
       <c r="G34" t="n">
-        <v>131.6066666666668</v>
+        <v>6431.350214618797</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7983333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>129</v>
+        <v>129.4</v>
       </c>
       <c r="C35" t="n">
-        <v>131.9</v>
+        <v>129.4</v>
       </c>
       <c r="D35" t="n">
-        <v>131.9</v>
+        <v>129.4</v>
       </c>
       <c r="E35" t="n">
-        <v>129</v>
+        <v>129.4</v>
       </c>
       <c r="F35" t="n">
-        <v>6138.743</v>
+        <v>360</v>
       </c>
       <c r="G35" t="n">
-        <v>131.6866666666668</v>
+        <v>6431.350214618797</v>
       </c>
       <c r="H35" t="n">
-        <v>130.7749999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1746,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>129</v>
+        <v>129.4</v>
       </c>
       <c r="C36" t="n">
-        <v>129</v>
+        <v>129.4</v>
       </c>
       <c r="D36" t="n">
-        <v>129</v>
+        <v>129.4</v>
       </c>
       <c r="E36" t="n">
-        <v>129</v>
+        <v>129.4</v>
       </c>
       <c r="F36" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="G36" t="n">
-        <v>131.5733333333334</v>
+        <v>6431.350214618797</v>
       </c>
       <c r="H36" t="n">
-        <v>130.7083333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>129</v>
+        <v>129.3</v>
       </c>
       <c r="C37" t="n">
-        <v>128</v>
+        <v>129.3</v>
       </c>
       <c r="D37" t="n">
-        <v>130.1</v>
+        <v>129.5</v>
       </c>
       <c r="E37" t="n">
-        <v>128</v>
+        <v>129.3</v>
       </c>
       <c r="F37" t="n">
-        <v>447.7825</v>
+        <v>26567.25</v>
       </c>
       <c r="G37" t="n">
-        <v>131.3933333333334</v>
+        <v>-20135.8997853812</v>
       </c>
       <c r="H37" t="n">
-        <v>130.6166666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C38" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D38" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E38" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F38" t="n">
-        <v>1463.6569</v>
+        <v>1298.1911</v>
       </c>
       <c r="G38" t="n">
-        <v>131.2133333333334</v>
+        <v>-18837.7086853812</v>
       </c>
       <c r="H38" t="n">
-        <v>130.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C39" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D39" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="E39" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F39" t="n">
-        <v>2941</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
-        <v>131.0800000000001</v>
+        <v>-18761.7086853812</v>
       </c>
       <c r="H39" t="n">
-        <v>130.4983333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,42 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C40" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F40" t="n">
-        <v>840.329</v>
+        <v>76.3359</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9466666666668</v>
+        <v>-18761.7086853812</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3516666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,42 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C41" t="n">
-        <v>126.8</v>
+        <v>131</v>
       </c>
       <c r="D41" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E41" t="n">
-        <v>126.8</v>
+        <v>131</v>
       </c>
       <c r="F41" t="n">
-        <v>3231.3429</v>
+        <v>76.3359</v>
       </c>
       <c r="G41" t="n">
-        <v>130.7533333333334</v>
+        <v>-18761.7086853812</v>
       </c>
       <c r="H41" t="n">
-        <v>130.2799999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,42 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>129.1</v>
+        <v>131</v>
       </c>
       <c r="C42" t="n">
-        <v>130.1</v>
+        <v>131.9</v>
       </c>
       <c r="D42" t="n">
-        <v>130.1</v>
+        <v>131.9</v>
       </c>
       <c r="E42" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F42" t="n">
-        <v>2627</v>
+        <v>207.6409</v>
       </c>
       <c r="G42" t="n">
-        <v>130.3066666666668</v>
+        <v>-18554.0677853812</v>
       </c>
       <c r="H42" t="n">
-        <v>130.2633333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>126.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,40 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>127.2</v>
+        <v>131.8</v>
       </c>
       <c r="C43" t="n">
-        <v>129.9</v>
+        <v>131.7</v>
       </c>
       <c r="D43" t="n">
-        <v>129.9</v>
+        <v>132</v>
       </c>
       <c r="E43" t="n">
-        <v>126.2</v>
+        <v>131.7</v>
       </c>
       <c r="F43" t="n">
-        <v>5315.2043</v>
+        <v>1623</v>
       </c>
       <c r="G43" t="n">
-        <v>130.2333333333335</v>
+        <v>-20177.0677853812</v>
       </c>
       <c r="H43" t="n">
-        <v>130.2616666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,40 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="C44" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="D44" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="E44" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="F44" t="n">
-        <v>6616.9889</v>
+        <v>162.5484</v>
       </c>
       <c r="G44" t="n">
-        <v>130.0400000000001</v>
+        <v>-20014.51938538121</v>
       </c>
       <c r="H44" t="n">
-        <v>130.2466666666666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2114,40 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="C45" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="D45" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="E45" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="F45" t="n">
-        <v>5749.7249</v>
+        <v>45.0925</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8600000000001</v>
+        <v>-20059.6118853812</v>
       </c>
       <c r="H45" t="n">
-        <v>130.2149999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2156,40 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>131.5</v>
+        <v>133</v>
       </c>
       <c r="C46" t="n">
-        <v>131.5</v>
+        <v>132</v>
       </c>
       <c r="D46" t="n">
-        <v>131.5</v>
+        <v>133</v>
       </c>
       <c r="E46" t="n">
-        <v>131.5</v>
+        <v>132</v>
       </c>
       <c r="F46" t="n">
-        <v>14196.3491</v>
+        <v>288</v>
       </c>
       <c r="G46" t="n">
-        <v>129.8933333333334</v>
+        <v>-19771.6118853812</v>
       </c>
       <c r="H46" t="n">
-        <v>130.2233333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,40 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="C47" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="D47" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="E47" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="F47" t="n">
-        <v>4.888</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>129.8933333333334</v>
+        <v>-19767.6118853812</v>
       </c>
       <c r="H47" t="n">
-        <v>130.24</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,40 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>132</v>
+        <v>132.8</v>
       </c>
       <c r="C48" t="n">
-        <v>137.2</v>
+        <v>130.7</v>
       </c>
       <c r="D48" t="n">
-        <v>137.2</v>
+        <v>132.8</v>
       </c>
       <c r="E48" t="n">
-        <v>129.2</v>
+        <v>130.7</v>
       </c>
       <c r="F48" t="n">
-        <v>7000</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
-        <v>130.3066666666668</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H48" t="n">
-        <v>130.36</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,40 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>131.3</v>
+        <v>130.7</v>
       </c>
       <c r="C49" t="n">
-        <v>136.2</v>
+        <v>130.7</v>
       </c>
       <c r="D49" t="n">
-        <v>136.2</v>
+        <v>130.7</v>
       </c>
       <c r="E49" t="n">
-        <v>131.3</v>
+        <v>130.7</v>
       </c>
       <c r="F49" t="n">
-        <v>290.65</v>
+        <v>44.93</v>
       </c>
       <c r="G49" t="n">
-        <v>130.6533333333334</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H49" t="n">
-        <v>130.4466666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2324,40 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>132</v>
+        <v>130.7</v>
       </c>
       <c r="C50" t="n">
-        <v>136.2</v>
+        <v>130.7</v>
       </c>
       <c r="D50" t="n">
-        <v>136.2</v>
+        <v>130.7</v>
       </c>
       <c r="E50" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F50" t="n">
-        <v>1831.7029</v>
+        <v>3442.8133</v>
       </c>
       <c r="G50" t="n">
-        <v>130.9400000000001</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H50" t="n">
-        <v>130.5499999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,40 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>136.2</v>
+        <v>130.7</v>
       </c>
       <c r="C51" t="n">
-        <v>136.2</v>
+        <v>130.7</v>
       </c>
       <c r="D51" t="n">
-        <v>136.2</v>
+        <v>130.7</v>
       </c>
       <c r="E51" t="n">
-        <v>136.2</v>
+        <v>130.7</v>
       </c>
       <c r="F51" t="n">
-        <v>3.8573</v>
+        <v>521.0939</v>
       </c>
       <c r="G51" t="n">
-        <v>131.42</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H51" t="n">
-        <v>130.5866666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,40 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>132</v>
+        <v>130.7</v>
       </c>
       <c r="C52" t="n">
-        <v>131.1</v>
+        <v>130.7</v>
       </c>
       <c r="D52" t="n">
-        <v>132</v>
+        <v>131.7</v>
       </c>
       <c r="E52" t="n">
-        <v>131.1</v>
+        <v>130.7</v>
       </c>
       <c r="F52" t="n">
-        <v>799.9434</v>
+        <v>1814.8233</v>
       </c>
       <c r="G52" t="n">
-        <v>131.6266666666667</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H52" t="n">
-        <v>130.6216666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,40 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>133.9</v>
+        <v>131</v>
       </c>
       <c r="C53" t="n">
-        <v>131.4</v>
+        <v>131</v>
       </c>
       <c r="D53" t="n">
-        <v>133.9</v>
+        <v>131</v>
       </c>
       <c r="E53" t="n">
-        <v>131.4</v>
+        <v>131</v>
       </c>
       <c r="F53" t="n">
-        <v>7196.7376</v>
+        <v>656.3208</v>
       </c>
       <c r="G53" t="n">
-        <v>131.8533333333334</v>
+        <v>-19119.2910853812</v>
       </c>
       <c r="H53" t="n">
-        <v>130.6616666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,40 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="C54" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="D54" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="E54" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="F54" t="n">
-        <v>1030</v>
+        <v>17</v>
       </c>
       <c r="G54" t="n">
-        <v>132.0866666666667</v>
+        <v>-19102.2910853812</v>
       </c>
       <c r="H54" t="n">
-        <v>130.7366666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,40 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>135.1</v>
+        <v>129.7</v>
       </c>
       <c r="C55" t="n">
-        <v>135</v>
+        <v>129.7</v>
       </c>
       <c r="D55" t="n">
-        <v>135.1</v>
+        <v>129.7</v>
       </c>
       <c r="E55" t="n">
-        <v>135</v>
+        <v>129.7</v>
       </c>
       <c r="F55" t="n">
-        <v>13.9718</v>
+        <v>61.125</v>
       </c>
       <c r="G55" t="n">
-        <v>132.42</v>
+        <v>-19163.4160853812</v>
       </c>
       <c r="H55" t="n">
-        <v>130.8699999999999</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2576,40 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="C56" t="n">
-        <v>135.1</v>
+        <v>136.8</v>
       </c>
       <c r="D56" t="n">
-        <v>135.1</v>
+        <v>136.8</v>
       </c>
       <c r="E56" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="n">
-        <v>132.9733333333334</v>
+        <v>-17963.4160853812</v>
       </c>
       <c r="H56" t="n">
-        <v>130.9883333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,40 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>135.1</v>
+        <v>133</v>
       </c>
       <c r="C57" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="D57" t="n">
-        <v>135.1</v>
+        <v>133</v>
       </c>
       <c r="E57" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="F57" t="n">
-        <v>668.5683</v>
+        <v>8</v>
       </c>
       <c r="G57" t="n">
-        <v>133.3066666666667</v>
+        <v>-17971.4160853812</v>
       </c>
       <c r="H57" t="n">
-        <v>131.1066666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,40 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>135.1</v>
+        <v>132</v>
       </c>
       <c r="C58" t="n">
-        <v>135.1</v>
+        <v>133</v>
       </c>
       <c r="D58" t="n">
-        <v>135.1</v>
+        <v>133</v>
       </c>
       <c r="E58" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="F58" t="n">
-        <v>604.9153</v>
+        <v>1887.3935</v>
       </c>
       <c r="G58" t="n">
-        <v>133.6533333333334</v>
+        <v>-16084.0225853812</v>
       </c>
       <c r="H58" t="n">
-        <v>131.225</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,40 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>135.1</v>
+        <v>132</v>
       </c>
       <c r="C59" t="n">
-        <v>132</v>
+        <v>132.8</v>
       </c>
       <c r="D59" t="n">
-        <v>136.1</v>
+        <v>132.8</v>
       </c>
       <c r="E59" t="n">
         <v>132</v>
       </c>
       <c r="F59" t="n">
-        <v>18865.8563</v>
+        <v>400</v>
       </c>
       <c r="G59" t="n">
-        <v>133.7800000000001</v>
+        <v>-16484.0225853812</v>
       </c>
       <c r="H59" t="n">
-        <v>131.325</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2744,40 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C60" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D60" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E60" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F60" t="n">
-        <v>508.8354</v>
+        <v>9.99</v>
       </c>
       <c r="G60" t="n">
-        <v>134.04</v>
+        <v>-16494.0125853812</v>
       </c>
       <c r="H60" t="n">
-        <v>131.4583333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2786,40 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C61" t="n">
-        <v>136.8</v>
+        <v>132</v>
       </c>
       <c r="D61" t="n">
-        <v>136.8</v>
+        <v>132</v>
       </c>
       <c r="E61" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F61" t="n">
-        <v>1098</v>
+        <v>458</v>
       </c>
       <c r="G61" t="n">
-        <v>134.3933333333334</v>
+        <v>-16036.0125853812</v>
       </c>
       <c r="H61" t="n">
-        <v>131.5883333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,40 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C62" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D62" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E62" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F62" t="n">
-        <v>151.2507</v>
+        <v>159</v>
       </c>
       <c r="G62" t="n">
-        <v>134.5933333333334</v>
+        <v>-16195.0125853812</v>
       </c>
       <c r="H62" t="n">
-        <v>131.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,40 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C63" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D63" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E63" t="n">
-        <v>134.2</v>
+        <v>131</v>
       </c>
       <c r="F63" t="n">
-        <v>757</v>
+        <v>837.6825</v>
       </c>
       <c r="G63" t="n">
-        <v>134.5800000000001</v>
+        <v>-16195.0125853812</v>
       </c>
       <c r="H63" t="n">
-        <v>131.8083333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,40 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>137.2</v>
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>137.2</v>
+        <v>131.9</v>
       </c>
       <c r="D64" t="n">
-        <v>137.2</v>
+        <v>131.9</v>
       </c>
       <c r="E64" t="n">
-        <v>137.2</v>
+        <v>129</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>6138.743</v>
       </c>
       <c r="G64" t="n">
-        <v>134.6466666666667</v>
+        <v>-10056.2695853812</v>
       </c>
       <c r="H64" t="n">
-        <v>131.9383333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,76 +2638,68 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C65" t="n">
-        <v>136.2</v>
+        <v>129</v>
       </c>
       <c r="D65" t="n">
-        <v>136.2</v>
+        <v>129</v>
       </c>
       <c r="E65" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F65" t="n">
-        <v>669</v>
+        <v>60</v>
       </c>
       <c r="G65" t="n">
-        <v>134.6466666666667</v>
+        <v>-10116.2695853812</v>
       </c>
       <c r="H65" t="n">
-        <v>132.0516666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>134.1</v>
+        <v>129</v>
       </c>
       <c r="C66" t="n">
-        <v>135.2</v>
+        <v>128</v>
       </c>
       <c r="D66" t="n">
-        <v>135.2</v>
+        <v>130.1</v>
       </c>
       <c r="E66" t="n">
-        <v>134.1</v>
+        <v>128</v>
       </c>
       <c r="F66" t="n">
-        <v>4361</v>
+        <v>447.7825</v>
       </c>
       <c r="G66" t="n">
-        <v>134.5800000000001</v>
+        <v>-10564.0520853812</v>
       </c>
       <c r="H66" t="n">
-        <v>132.1483333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3032,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>134.2</v>
+        <v>128</v>
       </c>
       <c r="C67" t="n">
-        <v>136.2</v>
+        <v>128</v>
       </c>
       <c r="D67" t="n">
-        <v>136.2</v>
+        <v>128</v>
       </c>
       <c r="E67" t="n">
-        <v>134.2</v>
+        <v>128</v>
       </c>
       <c r="F67" t="n">
-        <v>6514.4269</v>
+        <v>1463.6569</v>
       </c>
       <c r="G67" t="n">
-        <v>134.9200000000001</v>
+        <v>-10564.0520853812</v>
       </c>
       <c r="H67" t="n">
-        <v>132.2616666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3070,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>135.2</v>
+        <v>128</v>
       </c>
       <c r="C68" t="n">
-        <v>136.2</v>
+        <v>129</v>
       </c>
       <c r="D68" t="n">
-        <v>137.2</v>
+        <v>130.1</v>
       </c>
       <c r="E68" t="n">
-        <v>135.2</v>
+        <v>128</v>
       </c>
       <c r="F68" t="n">
-        <v>17</v>
+        <v>2941</v>
       </c>
       <c r="G68" t="n">
-        <v>135.2400000000001</v>
+        <v>-7623.052085381201</v>
       </c>
       <c r="H68" t="n">
-        <v>132.3766666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>134.4</v>
+        <v>129</v>
       </c>
       <c r="C69" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D69" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E69" t="n">
-        <v>134.3</v>
+        <v>129</v>
       </c>
       <c r="F69" t="n">
-        <v>6986.9671</v>
+        <v>840.329</v>
       </c>
       <c r="G69" t="n">
-        <v>135.4733333333334</v>
+        <v>-6782.723085381202</v>
       </c>
       <c r="H69" t="n">
-        <v>132.4766666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C70" t="n">
-        <v>135</v>
+        <v>126.8</v>
       </c>
       <c r="D70" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E70" t="n">
-        <v>135</v>
+        <v>126.8</v>
       </c>
       <c r="F70" t="n">
-        <v>97.7482</v>
+        <v>3231.3429</v>
       </c>
       <c r="G70" t="n">
-        <v>135.4733333333334</v>
+        <v>-10014.0659853812</v>
       </c>
       <c r="H70" t="n">
-        <v>132.5433333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>134</v>
+        <v>129.1</v>
       </c>
       <c r="C71" t="n">
-        <v>133</v>
+        <v>130.1</v>
       </c>
       <c r="D71" t="n">
-        <v>134</v>
+        <v>130.1</v>
       </c>
       <c r="E71" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F71" t="n">
-        <v>518.7482</v>
+        <v>2627</v>
       </c>
       <c r="G71" t="n">
-        <v>135.3333333333334</v>
+        <v>-7387.065985381201</v>
       </c>
       <c r="H71" t="n">
-        <v>132.5766666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>134</v>
+        <v>127.2</v>
       </c>
       <c r="C72" t="n">
-        <v>134</v>
+        <v>129.9</v>
       </c>
       <c r="D72" t="n">
-        <v>134</v>
+        <v>129.9</v>
       </c>
       <c r="E72" t="n">
-        <v>134</v>
+        <v>126.2</v>
       </c>
       <c r="F72" t="n">
-        <v>726.8549</v>
+        <v>5315.2043</v>
       </c>
       <c r="G72" t="n">
-        <v>135.2600000000001</v>
+        <v>-12702.2702853812</v>
       </c>
       <c r="H72" t="n">
-        <v>132.6266666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="C73" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="D73" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="E73" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="F73" t="n">
-        <v>6166.7376</v>
+        <v>6616.9889</v>
       </c>
       <c r="G73" t="n">
-        <v>135.0533333333334</v>
+        <v>-6085.2813853812</v>
       </c>
       <c r="H73" t="n">
-        <v>132.6283333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>132.2</v>
+        <v>130.1</v>
       </c>
       <c r="C74" t="n">
-        <v>132.2</v>
+        <v>130.1</v>
       </c>
       <c r="D74" t="n">
-        <v>132.2</v>
+        <v>130.1</v>
       </c>
       <c r="E74" t="n">
-        <v>132.2</v>
+        <v>130.1</v>
       </c>
       <c r="F74" t="n">
-        <v>9852.197200000001</v>
+        <v>5749.7249</v>
       </c>
       <c r="G74" t="n">
-        <v>135.0666666666667</v>
+        <v>-6085.2813853812</v>
       </c>
       <c r="H74" t="n">
-        <v>132.6366666666666</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>134</v>
+        <v>131.5</v>
       </c>
       <c r="C75" t="n">
-        <v>134</v>
+        <v>131.5</v>
       </c>
       <c r="D75" t="n">
-        <v>134</v>
+        <v>131.5</v>
       </c>
       <c r="E75" t="n">
-        <v>134</v>
+        <v>131.5</v>
       </c>
       <c r="F75" t="n">
-        <v>574</v>
+        <v>14196.3491</v>
       </c>
       <c r="G75" t="n">
-        <v>135.0666666666667</v>
+        <v>8111.067714618799</v>
       </c>
       <c r="H75" t="n">
-        <v>132.67</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="C76" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="D76" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="E76" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="F76" t="n">
-        <v>533.3537</v>
+        <v>4.888</v>
       </c>
       <c r="G76" t="n">
-        <v>134.8733333333334</v>
+        <v>8115.955714618799</v>
       </c>
       <c r="H76" t="n">
-        <v>132.7183333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="C77" t="n">
-        <v>133.9</v>
+        <v>137.2</v>
       </c>
       <c r="D77" t="n">
-        <v>133.9</v>
+        <v>137.2</v>
       </c>
       <c r="E77" t="n">
-        <v>133.9</v>
+        <v>129.2</v>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G77" t="n">
-        <v>134.8000000000001</v>
+        <v>15115.9557146188</v>
       </c>
       <c r="H77" t="n">
-        <v>132.7499999999999</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>133.9</v>
+        <v>131.3</v>
       </c>
       <c r="C78" t="n">
-        <v>133.2</v>
+        <v>136.2</v>
       </c>
       <c r="D78" t="n">
-        <v>133.9</v>
+        <v>136.2</v>
       </c>
       <c r="E78" t="n">
-        <v>133.2</v>
+        <v>131.3</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>290.65</v>
       </c>
       <c r="G78" t="n">
-        <v>134.5466666666667</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H78" t="n">
-        <v>132.755</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="C79" t="n">
-        <v>134.8</v>
+        <v>136.2</v>
       </c>
       <c r="D79" t="n">
-        <v>134.8</v>
+        <v>136.2</v>
       </c>
       <c r="E79" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="F79" t="n">
-        <v>800</v>
+        <v>1831.7029</v>
       </c>
       <c r="G79" t="n">
-        <v>134.3866666666667</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H79" t="n">
-        <v>132.8233333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3526,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>133.2</v>
+        <v>136.2</v>
       </c>
       <c r="C80" t="n">
-        <v>133.8</v>
+        <v>136.2</v>
       </c>
       <c r="D80" t="n">
-        <v>134.9</v>
+        <v>136.2</v>
       </c>
       <c r="E80" t="n">
-        <v>132.3</v>
+        <v>136.2</v>
       </c>
       <c r="F80" t="n">
-        <v>24084.05</v>
+        <v>3.8573</v>
       </c>
       <c r="G80" t="n">
-        <v>134.2266666666667</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H80" t="n">
-        <v>132.875</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>134.1</v>
+        <v>132</v>
       </c>
       <c r="C81" t="n">
-        <v>134.1</v>
+        <v>131.1</v>
       </c>
       <c r="D81" t="n">
-        <v>134.1</v>
+        <v>132</v>
       </c>
       <c r="E81" t="n">
-        <v>134.1</v>
+        <v>131.1</v>
       </c>
       <c r="F81" t="n">
-        <v>433</v>
+        <v>799.9434</v>
       </c>
       <c r="G81" t="n">
-        <v>134.1533333333334</v>
+        <v>14025.3623146188</v>
       </c>
       <c r="H81" t="n">
-        <v>132.9316666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>133.1</v>
+        <v>133.9</v>
       </c>
       <c r="C82" t="n">
-        <v>133.1</v>
+        <v>131.4</v>
       </c>
       <c r="D82" t="n">
-        <v>133.1</v>
+        <v>133.9</v>
       </c>
       <c r="E82" t="n">
-        <v>133.1</v>
+        <v>131.4</v>
       </c>
       <c r="F82" t="n">
-        <v>150.2671</v>
+        <v>7196.7376</v>
       </c>
       <c r="G82" t="n">
-        <v>133.9466666666667</v>
+        <v>21222.0999146188</v>
       </c>
       <c r="H82" t="n">
-        <v>132.9716666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>133.9</v>
+        <v>132.5</v>
       </c>
       <c r="C83" t="n">
-        <v>136</v>
+        <v>132.5</v>
       </c>
       <c r="D83" t="n">
-        <v>136</v>
+        <v>132.5</v>
       </c>
       <c r="E83" t="n">
-        <v>133.9</v>
+        <v>132.5</v>
       </c>
       <c r="F83" t="n">
-        <v>2500</v>
+        <v>1030</v>
       </c>
       <c r="G83" t="n">
-        <v>133.9333333333334</v>
+        <v>22252.0999146188</v>
       </c>
       <c r="H83" t="n">
-        <v>133.06</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>134.6</v>
+        <v>135.1</v>
       </c>
       <c r="C84" t="n">
-        <v>134.6</v>
+        <v>135</v>
       </c>
       <c r="D84" t="n">
-        <v>134.6</v>
+        <v>135.1</v>
       </c>
       <c r="E84" t="n">
-        <v>134.6</v>
+        <v>135</v>
       </c>
       <c r="F84" t="n">
-        <v>447</v>
+        <v>13.9718</v>
       </c>
       <c r="G84" t="n">
-        <v>133.8400000000001</v>
+        <v>22266.0717146188</v>
       </c>
       <c r="H84" t="n">
-        <v>133.12</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>134.6</v>
+        <v>135.1</v>
       </c>
       <c r="C85" t="n">
-        <v>134.1</v>
+        <v>135.1</v>
       </c>
       <c r="D85" t="n">
-        <v>134.6</v>
+        <v>135.1</v>
       </c>
       <c r="E85" t="n">
-        <v>134.1</v>
+        <v>135.1</v>
       </c>
       <c r="F85" t="n">
-        <v>1302.8654</v>
+        <v>6</v>
       </c>
       <c r="G85" t="n">
-        <v>133.7800000000001</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H85" t="n">
-        <v>133.155</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>133.6</v>
+        <v>135.1</v>
       </c>
       <c r="C86" t="n">
-        <v>133.6</v>
+        <v>135.1</v>
       </c>
       <c r="D86" t="n">
-        <v>133.6</v>
+        <v>135.1</v>
       </c>
       <c r="E86" t="n">
-        <v>133.6</v>
+        <v>135.1</v>
       </c>
       <c r="F86" t="n">
-        <v>2600</v>
+        <v>668.5683</v>
       </c>
       <c r="G86" t="n">
-        <v>133.8200000000001</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H86" t="n">
-        <v>133.22</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>132.1</v>
+        <v>135.1</v>
       </c>
       <c r="C87" t="n">
-        <v>133.1</v>
+        <v>135.1</v>
       </c>
       <c r="D87" t="n">
-        <v>133.1</v>
+        <v>135.1</v>
       </c>
       <c r="E87" t="n">
-        <v>128</v>
+        <v>135.1</v>
       </c>
       <c r="F87" t="n">
-        <v>37885.6159</v>
+        <v>604.9153</v>
       </c>
       <c r="G87" t="n">
-        <v>133.76</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H87" t="n">
-        <v>133.1583333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>133.1</v>
+        <v>135.1</v>
       </c>
       <c r="C88" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="D88" t="n">
-        <v>133.1</v>
+        <v>136.1</v>
       </c>
       <c r="E88" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="F88" t="n">
-        <v>312</v>
+        <v>18865.8563</v>
       </c>
       <c r="G88" t="n">
-        <v>133.8333333333334</v>
+        <v>3406.215414618797</v>
       </c>
       <c r="H88" t="n">
-        <v>133.1933333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C89" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D89" t="n">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="E89" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F89" t="n">
-        <v>2086.125</v>
+        <v>508.8354</v>
       </c>
       <c r="G89" t="n">
-        <v>133.82</v>
+        <v>3915.050814618797</v>
       </c>
       <c r="H89" t="n">
-        <v>133.1766666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3906,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>133.1</v>
+        <v>135</v>
       </c>
       <c r="C90" t="n">
-        <v>133.1</v>
+        <v>136.8</v>
       </c>
       <c r="D90" t="n">
-        <v>133.1</v>
+        <v>136.8</v>
       </c>
       <c r="E90" t="n">
-        <v>133.1</v>
+        <v>135</v>
       </c>
       <c r="F90" t="n">
-        <v>968.6814000000001</v>
+        <v>1098</v>
       </c>
       <c r="G90" t="n">
-        <v>133.76</v>
+        <v>5013.050814618797</v>
       </c>
       <c r="H90" t="n">
-        <v>133.1816666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C91" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D91" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E91" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F91" t="n">
-        <v>2621</v>
+        <v>151.2507</v>
       </c>
       <c r="G91" t="n">
-        <v>133.7</v>
+        <v>4861.800114618797</v>
       </c>
       <c r="H91" t="n">
-        <v>133.215</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>133.1</v>
+        <v>136</v>
       </c>
       <c r="C92" t="n">
-        <v>133.1</v>
+        <v>137</v>
       </c>
       <c r="D92" t="n">
-        <v>133.1</v>
+        <v>137</v>
       </c>
       <c r="E92" t="n">
-        <v>133.1</v>
+        <v>134.2</v>
       </c>
       <c r="F92" t="n">
-        <v>2254</v>
+        <v>757</v>
       </c>
       <c r="G92" t="n">
-        <v>133.6466666666667</v>
+        <v>5618.800114618797</v>
       </c>
       <c r="H92" t="n">
-        <v>133.2333333333334</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>132</v>
+        <v>137.2</v>
       </c>
       <c r="C93" t="n">
-        <v>132</v>
+        <v>137.2</v>
       </c>
       <c r="D93" t="n">
-        <v>132</v>
+        <v>137.2</v>
       </c>
       <c r="E93" t="n">
-        <v>132</v>
+        <v>137.2</v>
       </c>
       <c r="F93" t="n">
-        <v>11081.8643</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>133.5666666666667</v>
+        <v>5624.800114618797</v>
       </c>
       <c r="H93" t="n">
-        <v>133.25</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C94" t="n">
-        <v>132.5</v>
+        <v>136.2</v>
       </c>
       <c r="D94" t="n">
-        <v>132.5</v>
+        <v>136.2</v>
       </c>
       <c r="E94" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F94" t="n">
-        <v>5781</v>
+        <v>669</v>
       </c>
       <c r="G94" t="n">
-        <v>133.4133333333333</v>
+        <v>4955.800114618797</v>
       </c>
       <c r="H94" t="n">
-        <v>133.275</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4096,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>132</v>
+        <v>134.1</v>
       </c>
       <c r="C95" t="n">
-        <v>132</v>
+        <v>135.2</v>
       </c>
       <c r="D95" t="n">
-        <v>132</v>
+        <v>135.2</v>
       </c>
       <c r="E95" t="n">
-        <v>132</v>
+        <v>134.1</v>
       </c>
       <c r="F95" t="n">
-        <v>595</v>
+        <v>4361</v>
       </c>
       <c r="G95" t="n">
-        <v>133.2933333333333</v>
+        <v>594.8001146187971</v>
       </c>
       <c r="H95" t="n">
-        <v>133.2766666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>132</v>
+        <v>134.2</v>
       </c>
       <c r="C96" t="n">
-        <v>132</v>
+        <v>136.2</v>
       </c>
       <c r="D96" t="n">
-        <v>132</v>
+        <v>136.2</v>
       </c>
       <c r="E96" t="n">
-        <v>132</v>
+        <v>134.2</v>
       </c>
       <c r="F96" t="n">
-        <v>594</v>
+        <v>6514.4269</v>
       </c>
       <c r="G96" t="n">
-        <v>133.1533333333333</v>
+        <v>7109.227014618798</v>
       </c>
       <c r="H96" t="n">
-        <v>133.3266666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>132</v>
+        <v>135.2</v>
       </c>
       <c r="C97" t="n">
-        <v>132</v>
+        <v>136.2</v>
       </c>
       <c r="D97" t="n">
-        <v>132</v>
+        <v>137.2</v>
       </c>
       <c r="E97" t="n">
-        <v>132</v>
+        <v>135.2</v>
       </c>
       <c r="F97" t="n">
-        <v>501.4283</v>
+        <v>17</v>
       </c>
       <c r="G97" t="n">
-        <v>133.08</v>
+        <v>7109.227014618798</v>
       </c>
       <c r="H97" t="n">
-        <v>133.3933333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>130.2</v>
+        <v>134.4</v>
       </c>
       <c r="C98" t="n">
-        <v>131.6</v>
+        <v>136</v>
       </c>
       <c r="D98" t="n">
-        <v>131.6</v>
+        <v>136</v>
       </c>
       <c r="E98" t="n">
-        <v>129.9</v>
+        <v>134.3</v>
       </c>
       <c r="F98" t="n">
-        <v>8802.956899999999</v>
+        <v>6986.9671</v>
       </c>
       <c r="G98" t="n">
-        <v>132.7866666666667</v>
+        <v>122.2599146187977</v>
       </c>
       <c r="H98" t="n">
-        <v>133.4533333333334</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>131.6</v>
+        <v>135</v>
       </c>
       <c r="C99" t="n">
-        <v>130.9</v>
+        <v>135</v>
       </c>
       <c r="D99" t="n">
-        <v>131.6</v>
+        <v>135</v>
       </c>
       <c r="E99" t="n">
-        <v>130.9</v>
+        <v>135</v>
       </c>
       <c r="F99" t="n">
-        <v>2180</v>
+        <v>97.7482</v>
       </c>
       <c r="G99" t="n">
-        <v>132.54</v>
+        <v>24.51171461879767</v>
       </c>
       <c r="H99" t="n">
-        <v>133.485</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C100" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="D100" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="E100" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F100" t="n">
-        <v>577.8736</v>
+        <v>518.7482</v>
       </c>
       <c r="G100" t="n">
-        <v>132.46</v>
+        <v>-494.2364853812023</v>
       </c>
       <c r="H100" t="n">
-        <v>133.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>131.5</v>
+        <v>134</v>
       </c>
       <c r="C101" t="n">
-        <v>131.5</v>
+        <v>134</v>
       </c>
       <c r="D101" t="n">
-        <v>131.5</v>
+        <v>134</v>
       </c>
       <c r="E101" t="n">
-        <v>131.5</v>
+        <v>134</v>
       </c>
       <c r="F101" t="n">
-        <v>226.7123</v>
+        <v>726.8549</v>
       </c>
       <c r="G101" t="n">
-        <v>132.32</v>
+        <v>232.6184146187977</v>
       </c>
       <c r="H101" t="n">
-        <v>133.6116666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C102" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D102" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E102" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F102" t="n">
-        <v>1308.4706</v>
+        <v>6166.7376</v>
       </c>
       <c r="G102" t="n">
-        <v>132.18</v>
+        <v>-5934.119185381202</v>
       </c>
       <c r="H102" t="n">
-        <v>133.6266666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>130.1</v>
+        <v>132.2</v>
       </c>
       <c r="C103" t="n">
-        <v>130.1</v>
+        <v>132.2</v>
       </c>
       <c r="D103" t="n">
-        <v>130.1</v>
+        <v>132.2</v>
       </c>
       <c r="E103" t="n">
-        <v>130</v>
+        <v>132.2</v>
       </c>
       <c r="F103" t="n">
-        <v>10248.7018</v>
+        <v>9852.197200000001</v>
       </c>
       <c r="G103" t="n">
-        <v>131.98</v>
+        <v>3918.078014618798</v>
       </c>
       <c r="H103" t="n">
-        <v>133.63</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>130.1</v>
+        <v>134</v>
       </c>
       <c r="C104" t="n">
-        <v>130.1</v>
+        <v>134</v>
       </c>
       <c r="D104" t="n">
-        <v>130.1</v>
+        <v>134</v>
       </c>
       <c r="E104" t="n">
-        <v>130.1</v>
+        <v>134</v>
       </c>
       <c r="F104" t="n">
-        <v>1444.2</v>
+        <v>574</v>
       </c>
       <c r="G104" t="n">
-        <v>131.8533333333334</v>
+        <v>4492.078014618798</v>
       </c>
       <c r="H104" t="n">
-        <v>133.63</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="C105" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="D105" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="E105" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="F105" t="n">
-        <v>991.6488000000001</v>
+        <v>533.3537</v>
       </c>
       <c r="G105" t="n">
-        <v>131.7133333333333</v>
+        <v>3958.724314618798</v>
       </c>
       <c r="H105" t="n">
-        <v>133.645</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="C106" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="D106" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="E106" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="F106" t="n">
-        <v>20473.1154</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
-        <v>131.58</v>
+        <v>3958.724314618798</v>
       </c>
       <c r="H106" t="n">
-        <v>133.6366666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4552,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="C107" t="n">
-        <v>131</v>
+        <v>133.2</v>
       </c>
       <c r="D107" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="E107" t="n">
-        <v>131</v>
+        <v>133.2</v>
       </c>
       <c r="F107" t="n">
-        <v>9.650600000000001</v>
+        <v>8</v>
       </c>
       <c r="G107" t="n">
-        <v>131.44</v>
+        <v>3950.724314618798</v>
       </c>
       <c r="H107" t="n">
-        <v>133.62</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4590,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>133</v>
+        <v>133.9</v>
       </c>
       <c r="C108" t="n">
-        <v>132</v>
+        <v>134.8</v>
       </c>
       <c r="D108" t="n">
-        <v>133</v>
+        <v>134.8</v>
       </c>
       <c r="E108" t="n">
-        <v>132</v>
+        <v>133.9</v>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G108" t="n">
-        <v>131.44</v>
+        <v>4750.724314618798</v>
       </c>
       <c r="H108" t="n">
-        <v>133.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>132</v>
+        <v>133.2</v>
       </c>
       <c r="C109" t="n">
-        <v>132</v>
+        <v>133.8</v>
       </c>
       <c r="D109" t="n">
-        <v>132</v>
+        <v>134.9</v>
       </c>
       <c r="E109" t="n">
-        <v>132</v>
+        <v>132.3</v>
       </c>
       <c r="F109" t="n">
-        <v>34.2555</v>
+        <v>24084.05</v>
       </c>
       <c r="G109" t="n">
-        <v>131.4066666666667</v>
+        <v>-19333.3256853812</v>
       </c>
       <c r="H109" t="n">
-        <v>133.4633333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>130</v>
+        <v>134.1</v>
       </c>
       <c r="C110" t="n">
-        <v>130</v>
+        <v>134.1</v>
       </c>
       <c r="D110" t="n">
-        <v>130</v>
+        <v>134.1</v>
       </c>
       <c r="E110" t="n">
-        <v>130</v>
+        <v>134.1</v>
       </c>
       <c r="F110" t="n">
-        <v>7665.9888</v>
+        <v>433</v>
       </c>
       <c r="G110" t="n">
-        <v>131.2733333333334</v>
+        <v>-18900.3256853812</v>
       </c>
       <c r="H110" t="n">
-        <v>133.36</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4704,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>131</v>
+        <v>133.1</v>
       </c>
       <c r="C111" t="n">
-        <v>131</v>
+        <v>133.1</v>
       </c>
       <c r="D111" t="n">
-        <v>131</v>
+        <v>133.1</v>
       </c>
       <c r="E111" t="n">
-        <v>131</v>
+        <v>133.1</v>
       </c>
       <c r="F111" t="n">
-        <v>28.9707</v>
+        <v>150.2671</v>
       </c>
       <c r="G111" t="n">
-        <v>131.2066666666667</v>
+        <v>-19050.5927853812</v>
       </c>
       <c r="H111" t="n">
-        <v>133.2733333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>129.7</v>
+        <v>133.9</v>
       </c>
       <c r="C112" t="n">
-        <v>129.7</v>
+        <v>136</v>
       </c>
       <c r="D112" t="n">
-        <v>129.7</v>
+        <v>136</v>
       </c>
       <c r="E112" t="n">
-        <v>129.7</v>
+        <v>133.9</v>
       </c>
       <c r="F112" t="n">
-        <v>49.3929</v>
+        <v>2500</v>
       </c>
       <c r="G112" t="n">
-        <v>131.0533333333333</v>
+        <v>-16550.5927853812</v>
       </c>
       <c r="H112" t="n">
-        <v>133.25</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>129.6</v>
+        <v>134.6</v>
       </c>
       <c r="C113" t="n">
-        <v>130.5</v>
+        <v>134.6</v>
       </c>
       <c r="D113" t="n">
-        <v>131.8</v>
+        <v>134.6</v>
       </c>
       <c r="E113" t="n">
-        <v>129.6</v>
+        <v>134.6</v>
       </c>
       <c r="F113" t="n">
-        <v>14162.1791</v>
+        <v>447</v>
       </c>
       <c r="G113" t="n">
-        <v>130.98</v>
+        <v>-16997.5927853812</v>
       </c>
       <c r="H113" t="n">
-        <v>133.235</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,36 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>130.2</v>
+        <v>134.6</v>
       </c>
       <c r="C114" t="n">
-        <v>130.2</v>
+        <v>134.1</v>
       </c>
       <c r="D114" t="n">
-        <v>130.2</v>
+        <v>134.6</v>
       </c>
       <c r="E114" t="n">
-        <v>130.2</v>
+        <v>134.1</v>
       </c>
       <c r="F114" t="n">
-        <v>11830</v>
+        <v>1302.8654</v>
       </c>
       <c r="G114" t="n">
-        <v>130.9333333333333</v>
+        <v>-18300.4581853812</v>
       </c>
       <c r="H114" t="n">
-        <v>133.1966666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>130.2</v>
+        <v>133.6</v>
       </c>
       <c r="C115" t="n">
-        <v>130.2</v>
+        <v>133.6</v>
       </c>
       <c r="D115" t="n">
-        <v>130.2</v>
+        <v>133.6</v>
       </c>
       <c r="E115" t="n">
-        <v>130.2</v>
+        <v>133.6</v>
       </c>
       <c r="F115" t="n">
-        <v>3830</v>
+        <v>2600</v>
       </c>
       <c r="G115" t="n">
-        <v>130.7533333333333</v>
+        <v>-20900.4581853812</v>
       </c>
       <c r="H115" t="n">
-        <v>133.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,36 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>130.2</v>
+        <v>132.1</v>
       </c>
       <c r="C116" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="D116" t="n">
-        <v>130.2</v>
+        <v>133.1</v>
       </c>
       <c r="E116" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F116" t="n">
-        <v>643.8045</v>
+        <v>37885.6159</v>
       </c>
       <c r="G116" t="n">
-        <v>130.6533333333333</v>
+        <v>-58786.0740853812</v>
       </c>
       <c r="H116" t="n">
-        <v>133.0316666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,36 +4458,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="C117" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="D117" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="E117" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="F117" t="n">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="G117" t="n">
-        <v>130.5866666666666</v>
+        <v>-58786.0740853812</v>
       </c>
       <c r="H117" t="n">
-        <v>132.9466666666667</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+        <v>133.1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>133.1</v>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,36 +4497,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="C118" t="n">
-        <v>128.5</v>
+        <v>132</v>
       </c>
       <c r="D118" t="n">
-        <v>129.5</v>
+        <v>134.1</v>
       </c>
       <c r="E118" t="n">
-        <v>128.5</v>
+        <v>132</v>
       </c>
       <c r="F118" t="n">
-        <v>4353.6424</v>
+        <v>2086.125</v>
       </c>
       <c r="G118" t="n">
-        <v>130.48</v>
+        <v>-60872.1990853812</v>
       </c>
       <c r="H118" t="n">
-        <v>132.8366666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,36 +4538,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>129.5</v>
+        <v>133.1</v>
       </c>
       <c r="C119" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="D119" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="E119" t="n">
-        <v>129.5</v>
+        <v>133.1</v>
       </c>
       <c r="F119" t="n">
-        <v>8961</v>
+        <v>968.6814000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>130.4733333333333</v>
+        <v>-59903.5176853812</v>
       </c>
       <c r="H119" t="n">
-        <v>132.8033333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,36 +4579,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C120" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D120" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E120" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F120" t="n">
-        <v>1151</v>
+        <v>2621</v>
       </c>
       <c r="G120" t="n">
-        <v>130.4066666666667</v>
+        <v>-62524.5176853812</v>
       </c>
       <c r="H120" t="n">
-        <v>132.7366666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,36 +4620,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="C121" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="D121" t="n">
-        <v>133</v>
+        <v>133.1</v>
       </c>
       <c r="E121" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="F121" t="n">
-        <v>7360.9245</v>
+        <v>2254</v>
       </c>
       <c r="G121" t="n">
-        <v>130.34</v>
+        <v>-60270.5176853812</v>
       </c>
       <c r="H121" t="n">
-        <v>132.6233333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,36 +4661,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C122" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D122" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E122" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F122" t="n">
-        <v>901.78</v>
+        <v>11081.8643</v>
       </c>
       <c r="G122" t="n">
-        <v>130.2733333333333</v>
+        <v>-71352.3819853812</v>
       </c>
       <c r="H122" t="n">
-        <v>132.54</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5160,36 +4702,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C123" t="n">
-        <v>130</v>
+        <v>132.5</v>
       </c>
       <c r="D123" t="n">
-        <v>130</v>
+        <v>132.5</v>
       </c>
       <c r="E123" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F123" t="n">
-        <v>7.6924</v>
+        <v>5781</v>
       </c>
       <c r="G123" t="n">
-        <v>130.14</v>
+        <v>-65571.3819853812</v>
       </c>
       <c r="H123" t="n">
-        <v>132.4233333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,36 +4743,41 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C124" t="n">
-        <v>130.6</v>
+        <v>132</v>
       </c>
       <c r="D124" t="n">
-        <v>130.6</v>
+        <v>132</v>
       </c>
       <c r="E124" t="n">
-        <v>129.1</v>
+        <v>132</v>
       </c>
       <c r="F124" t="n">
-        <v>19975.5284</v>
+        <v>595</v>
       </c>
       <c r="G124" t="n">
-        <v>130.0466666666667</v>
+        <v>-66166.3819853812</v>
       </c>
       <c r="H124" t="n">
-        <v>132.3133333333334</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,36 +4786,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="C125" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="D125" t="n">
-        <v>130.6</v>
+        <v>132</v>
       </c>
       <c r="E125" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="F125" t="n">
-        <v>21006.4733</v>
+        <v>594</v>
       </c>
       <c r="G125" t="n">
-        <v>130.0133333333333</v>
+        <v>-66166.3819853812</v>
       </c>
       <c r="H125" t="n">
-        <v>132.2016666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,36 +4827,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="C126" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="D126" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="E126" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="F126" t="n">
-        <v>600</v>
+        <v>501.4283</v>
       </c>
       <c r="G126" t="n">
-        <v>129.9133333333333</v>
+        <v>-66166.3819853812</v>
       </c>
       <c r="H126" t="n">
-        <v>132.1066666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,40 +4868,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>129.5</v>
+        <v>130.2</v>
       </c>
       <c r="C127" t="n">
-        <v>129.5</v>
+        <v>131.6</v>
       </c>
       <c r="D127" t="n">
-        <v>129.5</v>
+        <v>131.6</v>
       </c>
       <c r="E127" t="n">
-        <v>129.5</v>
+        <v>129.9</v>
       </c>
       <c r="F127" t="n">
-        <v>4800</v>
+        <v>8802.956899999999</v>
       </c>
       <c r="G127" t="n">
-        <v>129.9</v>
+        <v>-74969.33888538121</v>
       </c>
       <c r="H127" t="n">
-        <v>131.995</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L127" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5354,44 +4909,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>129.5</v>
+        <v>131.6</v>
       </c>
       <c r="C128" t="n">
-        <v>129.5</v>
+        <v>130.9</v>
       </c>
       <c r="D128" t="n">
-        <v>129.5</v>
+        <v>131.6</v>
       </c>
       <c r="E128" t="n">
-        <v>129.5</v>
+        <v>130.9</v>
       </c>
       <c r="F128" t="n">
-        <v>1000</v>
+        <v>2180</v>
       </c>
       <c r="G128" t="n">
-        <v>129.8333333333333</v>
+        <v>-77149.33888538121</v>
       </c>
       <c r="H128" t="n">
-        <v>131.8833333333334</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L128" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,42 +4950,41 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>128.5</v>
+        <v>132</v>
       </c>
       <c r="C129" t="n">
-        <v>128.5</v>
+        <v>132.9</v>
       </c>
       <c r="D129" t="n">
-        <v>128.5</v>
+        <v>132.9</v>
       </c>
       <c r="E129" t="n">
-        <v>128.5</v>
+        <v>131</v>
       </c>
       <c r="F129" t="n">
-        <v>18060.9778</v>
+        <v>577.8736</v>
       </c>
       <c r="G129" t="n">
-        <v>129.72</v>
+        <v>-76571.4652853812</v>
       </c>
       <c r="H129" t="n">
-        <v>131.7583333333334</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="K129" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,40 +4993,41 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>129.5</v>
+        <v>131.5</v>
       </c>
       <c r="C130" t="n">
-        <v>129.5</v>
+        <v>131.5</v>
       </c>
       <c r="D130" t="n">
-        <v>129.5</v>
+        <v>131.5</v>
       </c>
       <c r="E130" t="n">
-        <v>129.5</v>
+        <v>131.5</v>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>226.7123</v>
       </c>
       <c r="G130" t="n">
-        <v>129.6733333333333</v>
+        <v>-76798.1775853812</v>
       </c>
       <c r="H130" t="n">
-        <v>131.6666666666667</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>132.9</v>
       </c>
       <c r="K130" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="L130" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5486,44 +5036,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>129.5</v>
+        <v>131</v>
       </c>
       <c r="C131" t="n">
-        <v>129.5</v>
+        <v>131</v>
       </c>
       <c r="D131" t="n">
-        <v>129.5</v>
+        <v>131</v>
       </c>
       <c r="E131" t="n">
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="F131" t="n">
-        <v>1715</v>
+        <v>1308.4706</v>
       </c>
       <c r="G131" t="n">
-        <v>129.64</v>
+        <v>-78106.6481853812</v>
       </c>
       <c r="H131" t="n">
-        <v>131.6083333333334</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L131" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,44 +5077,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="C132" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="D132" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="E132" t="n">
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="F132" t="n">
-        <v>2000</v>
+        <v>10248.7018</v>
       </c>
       <c r="G132" t="n">
-        <v>129.6066666666667</v>
+        <v>-88355.3499853812</v>
       </c>
       <c r="H132" t="n">
-        <v>131.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L132" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,40 +5118,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="C133" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="D133" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="E133" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="F133" t="n">
-        <v>1315</v>
+        <v>1444.2</v>
       </c>
       <c r="G133" t="n">
-        <v>129.6733333333333</v>
+        <v>-88355.3499853812</v>
       </c>
       <c r="H133" t="n">
-        <v>131.4916666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L133" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,44 +5159,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C134" t="n">
-        <v>129.5</v>
+        <v>131</v>
       </c>
       <c r="D134" t="n">
-        <v>129.5</v>
+        <v>131</v>
       </c>
       <c r="E134" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F134" t="n">
-        <v>524</v>
+        <v>991.6488000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>129.64</v>
+        <v>-87363.7011853812</v>
       </c>
       <c r="H134" t="n">
-        <v>131.4466666666667</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L134" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,44 +5200,41 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C135" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D135" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E135" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F135" t="n">
-        <v>151.8712</v>
+        <v>20473.1154</v>
       </c>
       <c r="G135" t="n">
-        <v>129.64</v>
+        <v>-87363.7011853812</v>
       </c>
       <c r="H135" t="n">
-        <v>131.38</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="K135" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="L135" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M135" t="inlineStr">
+        <v>133.1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5712,44 +5243,41 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C136" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D136" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E136" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F136" t="n">
-        <v>7.041</v>
+        <v>9.650600000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>129.64</v>
+        <v>-87363.7011853812</v>
       </c>
       <c r="H136" t="n">
-        <v>131.315</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="K136" t="n">
-        <v>130</v>
-      </c>
-      <c r="L136" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M136" t="inlineStr">
+        <v>133.1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,44 +5286,41 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C137" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D137" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E137" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F137" t="n">
-        <v>3774.1598</v>
+        <v>200</v>
       </c>
       <c r="G137" t="n">
-        <v>129.64</v>
+        <v>-87163.7011853812</v>
       </c>
       <c r="H137" t="n">
-        <v>131.2500000000001</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="K137" t="n">
-        <v>130</v>
-      </c>
-      <c r="L137" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M137" t="inlineStr">
+        <v>133.1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,42 +5329,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>129.9</v>
+        <v>132</v>
       </c>
       <c r="C138" t="n">
-        <v>129.9</v>
+        <v>132</v>
       </c>
       <c r="D138" t="n">
-        <v>129.9</v>
+        <v>132</v>
       </c>
       <c r="E138" t="n">
-        <v>129.9</v>
+        <v>132</v>
       </c>
       <c r="F138" t="n">
-        <v>273</v>
+        <v>34.2555</v>
       </c>
       <c r="G138" t="n">
-        <v>129.6333333333334</v>
+        <v>-87163.7011853812</v>
       </c>
       <c r="H138" t="n">
-        <v>131.1950000000001</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M138" t="inlineStr">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,42 +5370,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="C139" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="D139" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="E139" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="F139" t="n">
-        <v>11209.5664</v>
+        <v>7665.9888</v>
       </c>
       <c r="G139" t="n">
-        <v>129.5866666666667</v>
+        <v>-94829.68998538121</v>
       </c>
       <c r="H139" t="n">
-        <v>131.1133333333334</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M139" t="inlineStr">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,42 +5411,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>129.9</v>
+        <v>131</v>
       </c>
       <c r="C140" t="n">
-        <v>129.9</v>
+        <v>131</v>
       </c>
       <c r="D140" t="n">
-        <v>129.9</v>
+        <v>131</v>
       </c>
       <c r="E140" t="n">
-        <v>129.9</v>
+        <v>131</v>
       </c>
       <c r="F140" t="n">
-        <v>3350.6497</v>
+        <v>28.9707</v>
       </c>
       <c r="G140" t="n">
-        <v>129.6133333333334</v>
+        <v>-94800.7192853812</v>
       </c>
       <c r="H140" t="n">
-        <v>131.0483333333333</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M140" t="inlineStr">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5936,42 +5452,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="C141" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="D141" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="E141" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="F141" t="n">
-        <v>99.708</v>
+        <v>49.3929</v>
       </c>
       <c r="G141" t="n">
-        <v>129.7133333333334</v>
+        <v>-94850.11218538121</v>
       </c>
       <c r="H141" t="n">
-        <v>130.9966666666667</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M141" t="inlineStr">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5980,42 +5493,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>131</v>
+        <v>129.6</v>
       </c>
       <c r="C142" t="n">
-        <v>131</v>
+        <v>130.5</v>
       </c>
       <c r="D142" t="n">
-        <v>131</v>
+        <v>131.8</v>
       </c>
       <c r="E142" t="n">
-        <v>131</v>
+        <v>129.6</v>
       </c>
       <c r="F142" t="n">
-        <v>59.9144</v>
+        <v>14162.1791</v>
       </c>
       <c r="G142" t="n">
-        <v>129.8133333333334</v>
+        <v>-80687.93308538121</v>
       </c>
       <c r="H142" t="n">
-        <v>130.9616666666667</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M142" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,42 +5534,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>132.6</v>
+        <v>130.2</v>
       </c>
       <c r="C143" t="n">
-        <v>132.6</v>
+        <v>130.2</v>
       </c>
       <c r="D143" t="n">
-        <v>132.6</v>
+        <v>130.2</v>
       </c>
       <c r="E143" t="n">
-        <v>132.6</v>
+        <v>130.2</v>
       </c>
       <c r="F143" t="n">
-        <v>4</v>
+        <v>11830</v>
       </c>
       <c r="G143" t="n">
-        <v>130.02</v>
+        <v>-92517.93308538121</v>
       </c>
       <c r="H143" t="n">
-        <v>130.905</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M143" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,42 +5575,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>132.6</v>
+        <v>130.2</v>
       </c>
       <c r="C144" t="n">
-        <v>132.6</v>
+        <v>130.2</v>
       </c>
       <c r="D144" t="n">
-        <v>132.6</v>
+        <v>130.2</v>
       </c>
       <c r="E144" t="n">
-        <v>132.6</v>
+        <v>130.2</v>
       </c>
       <c r="F144" t="n">
-        <v>24.483</v>
+        <v>3830</v>
       </c>
       <c r="G144" t="n">
-        <v>130.2933333333334</v>
+        <v>-92517.93308538121</v>
       </c>
       <c r="H144" t="n">
-        <v>130.8716666666667</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M144" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6112,42 +5616,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>129.6</v>
+        <v>130.2</v>
       </c>
       <c r="C145" t="n">
-        <v>130.5</v>
+        <v>130</v>
       </c>
       <c r="D145" t="n">
-        <v>131.5</v>
+        <v>130.2</v>
       </c>
       <c r="E145" t="n">
-        <v>129.6</v>
+        <v>130</v>
       </c>
       <c r="F145" t="n">
-        <v>4717.6925</v>
+        <v>643.8045</v>
       </c>
       <c r="G145" t="n">
-        <v>130.36</v>
+        <v>-93161.73758538121</v>
       </c>
       <c r="H145" t="n">
-        <v>130.8116666666667</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M145" t="inlineStr">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6159,39 +5660,36 @@
         <v>130</v>
       </c>
       <c r="C146" t="n">
-        <v>131.5</v>
+        <v>130</v>
       </c>
       <c r="D146" t="n">
-        <v>131.5</v>
+        <v>130</v>
       </c>
       <c r="E146" t="n">
-        <v>129.7</v>
+        <v>130</v>
       </c>
       <c r="F146" t="n">
-        <v>2848.7091</v>
+        <v>123</v>
       </c>
       <c r="G146" t="n">
-        <v>130.4933333333334</v>
+        <v>-93161.73758538121</v>
       </c>
       <c r="H146" t="n">
-        <v>130.7766666666667</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M146" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6200,42 +5698,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>129.9</v>
+        <v>129.5</v>
       </c>
       <c r="C147" t="n">
-        <v>129.9</v>
+        <v>128.5</v>
       </c>
       <c r="D147" t="n">
-        <v>129.9</v>
+        <v>129.5</v>
       </c>
       <c r="E147" t="n">
-        <v>129.9</v>
+        <v>128.5</v>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>4353.6424</v>
       </c>
       <c r="G147" t="n">
-        <v>130.52</v>
+        <v>-97515.37998538121</v>
       </c>
       <c r="H147" t="n">
-        <v>130.7233333333333</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M147" t="inlineStr">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6244,42 +5739,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>129.9</v>
+        <v>129.5</v>
       </c>
       <c r="C148" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="D148" t="n">
-        <v>130.9</v>
+        <v>132</v>
       </c>
       <c r="E148" t="n">
-        <v>129.9</v>
+        <v>129.5</v>
       </c>
       <c r="F148" t="n">
-        <v>1562.9999</v>
+        <v>8961</v>
       </c>
       <c r="G148" t="n">
-        <v>130.6133333333334</v>
+        <v>-88554.37998538121</v>
       </c>
       <c r="H148" t="n">
-        <v>130.6866666666666</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M148" t="inlineStr">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6288,42 +5780,1228 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>130</v>
+      </c>
+      <c r="C149" t="n">
+        <v>130</v>
+      </c>
+      <c r="D149" t="n">
+        <v>130</v>
+      </c>
+      <c r="E149" t="n">
+        <v>130</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1151</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>130</v>
+      </c>
+      <c r="C150" t="n">
+        <v>130</v>
+      </c>
+      <c r="D150" t="n">
+        <v>133</v>
+      </c>
+      <c r="E150" t="n">
+        <v>130</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7360.9245</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>130</v>
+      </c>
+      <c r="C151" t="n">
+        <v>130</v>
+      </c>
+      <c r="D151" t="n">
+        <v>130</v>
+      </c>
+      <c r="E151" t="n">
+        <v>130</v>
+      </c>
+      <c r="F151" t="n">
+        <v>901.78</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>130</v>
+      </c>
+      <c r="C152" t="n">
+        <v>130</v>
+      </c>
+      <c r="D152" t="n">
+        <v>130</v>
+      </c>
+      <c r="E152" t="n">
+        <v>130</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7.6924</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>130</v>
+      </c>
+      <c r="C153" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>19975.5284</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-68578.85158538121</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21006.4733</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-89585.32488538121</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>600</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-89585.32488538121</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-89585.32488538121</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-89585.32488538121</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18060.9778</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-107646.3026853812</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>200</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1715</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1315</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>129</v>
+      </c>
+      <c r="C163" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>129</v>
+      </c>
+      <c r="F163" t="n">
+        <v>524</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>130</v>
+      </c>
+      <c r="C164" t="n">
+        <v>130</v>
+      </c>
+      <c r="D164" t="n">
+        <v>130</v>
+      </c>
+      <c r="E164" t="n">
+        <v>130</v>
+      </c>
+      <c r="F164" t="n">
+        <v>151.8712</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>130</v>
+      </c>
+      <c r="C165" t="n">
+        <v>130</v>
+      </c>
+      <c r="D165" t="n">
+        <v>130</v>
+      </c>
+      <c r="E165" t="n">
+        <v>130</v>
+      </c>
+      <c r="F165" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>130</v>
+      </c>
+      <c r="C166" t="n">
+        <v>130</v>
+      </c>
+      <c r="D166" t="n">
+        <v>130</v>
+      </c>
+      <c r="E166" t="n">
+        <v>130</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3774.1598</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>273</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C168" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>11209.5664</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3350.6497</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>131</v>
+      </c>
+      <c r="C170" t="n">
+        <v>131</v>
+      </c>
+      <c r="D170" t="n">
+        <v>131</v>
+      </c>
+      <c r="E170" t="n">
+        <v>131</v>
+      </c>
+      <c r="F170" t="n">
+        <v>99.708</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-107467.7234853812</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>131</v>
+      </c>
+      <c r="C171" t="n">
+        <v>131</v>
+      </c>
+      <c r="D171" t="n">
+        <v>131</v>
+      </c>
+      <c r="E171" t="n">
+        <v>131</v>
+      </c>
+      <c r="F171" t="n">
+        <v>59.9144</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-107467.7234853812</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-107463.7234853812</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>24.483</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-107463.7234853812</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="C174" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4717.6925</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-112181.4159853812</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>130</v>
+      </c>
+      <c r="C175" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E175" t="n">
         <v>129.7</v>
       </c>
-      <c r="C149" t="n">
+      <c r="F175" t="n">
+        <v>2848.7091</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-109332.7068853812</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>200</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-109532.7068853812</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1562.9999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-107969.7069853812</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
         <v>129.7</v>
       </c>
-      <c r="D149" t="n">
+      <c r="C178" t="n">
         <v>129.7</v>
       </c>
-      <c r="E149" t="n">
+      <c r="D178" t="n">
         <v>129.7</v>
       </c>
-      <c r="F149" t="n">
+      <c r="E178" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="F178" t="n">
         <v>19449.518</v>
       </c>
-      <c r="G149" t="n">
-        <v>130.6266666666667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>130.6483333333333</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="M149" t="inlineStr">
+      <c r="G178" t="n">
+        <v>-127419.2249853812</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N149" t="n">
+      <c r="M178" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="D2" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E2" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="F2" t="n">
-        <v>464.41</v>
+        <v>162.5484</v>
       </c>
       <c r="G2" t="n">
-        <v>88867.51829975293</v>
+        <v>-20014.51938538121</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E3" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" t="n">
-        <v>110</v>
+        <v>45.0925</v>
       </c>
       <c r="G3" t="n">
-        <v>88977.51829975293</v>
+        <v>-20059.6118853812</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" t="n">
-        <v>133.3</v>
+        <v>132</v>
       </c>
       <c r="D4" t="n">
-        <v>139.9</v>
+        <v>133</v>
       </c>
       <c r="E4" t="n">
-        <v>131.2</v>
+        <v>132</v>
       </c>
       <c r="F4" t="n">
-        <v>6931.0324</v>
+        <v>288</v>
       </c>
       <c r="G4" t="n">
-        <v>82046.48589975294</v>
+        <v>-19771.6118853812</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="D5" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="E5" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="F5" t="n">
-        <v>593.9999</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>81452.48599975294</v>
+        <v>-19767.6118853812</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>133.5</v>
+        <v>132.8</v>
       </c>
       <c r="C6" t="n">
-        <v>133.5</v>
+        <v>130.7</v>
       </c>
       <c r="D6" t="n">
-        <v>133.5</v>
+        <v>132.8</v>
       </c>
       <c r="E6" t="n">
-        <v>133.5</v>
+        <v>130.7</v>
       </c>
       <c r="F6" t="n">
-        <v>421</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>81873.48599975294</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>134</v>
+        <v>130.7</v>
       </c>
       <c r="C7" t="n">
-        <v>133</v>
+        <v>130.7</v>
       </c>
       <c r="D7" t="n">
-        <v>134</v>
+        <v>130.7</v>
       </c>
       <c r="E7" t="n">
-        <v>133</v>
+        <v>130.7</v>
       </c>
       <c r="F7" t="n">
-        <v>498.4999</v>
+        <v>44.93</v>
       </c>
       <c r="G7" t="n">
-        <v>81374.98609975295</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>131.1</v>
+        <v>130.7</v>
       </c>
       <c r="C8" t="n">
-        <v>131.1</v>
+        <v>130.7</v>
       </c>
       <c r="D8" t="n">
-        <v>131.1</v>
+        <v>130.7</v>
       </c>
       <c r="E8" t="n">
-        <v>131.1</v>
+        <v>128</v>
       </c>
       <c r="F8" t="n">
-        <v>1332.8278</v>
+        <v>3442.8133</v>
       </c>
       <c r="G8" t="n">
-        <v>80042.15829975295</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135</v>
+        <v>130.7</v>
       </c>
       <c r="C9" t="n">
-        <v>138.8</v>
+        <v>130.7</v>
       </c>
       <c r="D9" t="n">
-        <v>138.8</v>
+        <v>130.7</v>
       </c>
       <c r="E9" t="n">
-        <v>135</v>
+        <v>130.7</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>521.0939</v>
       </c>
       <c r="G9" t="n">
-        <v>80053.15829975295</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>131</v>
+        <v>130.7</v>
       </c>
       <c r="C10" t="n">
-        <v>131.1</v>
+        <v>130.7</v>
       </c>
       <c r="D10" t="n">
-        <v>137.9</v>
+        <v>131.7</v>
       </c>
       <c r="E10" t="n">
-        <v>130.1</v>
+        <v>130.7</v>
       </c>
       <c r="F10" t="n">
-        <v>3969.337485134155</v>
+        <v>1814.8233</v>
       </c>
       <c r="G10" t="n">
-        <v>76083.8208146188</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="C11" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="D11" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="E11" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="F11" t="n">
-        <v>293</v>
+        <v>656.3208</v>
       </c>
       <c r="G11" t="n">
-        <v>76083.8208146188</v>
+        <v>-19119.2910853812</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D12" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E12" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F12" t="n">
-        <v>2396.3375</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>73687.4833146188</v>
+        <v>-19102.2910853812</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="C13" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="D13" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="E13" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="F13" t="n">
-        <v>220.6528</v>
+        <v>61.125</v>
       </c>
       <c r="G13" t="n">
-        <v>73908.1361146188</v>
+        <v>-19163.4160853812</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -856,19 +873,19 @@
         <v>131</v>
       </c>
       <c r="C14" t="n">
-        <v>132</v>
+        <v>136.8</v>
       </c>
       <c r="D14" t="n">
-        <v>132</v>
+        <v>136.8</v>
       </c>
       <c r="E14" t="n">
         <v>131</v>
       </c>
       <c r="F14" t="n">
-        <v>116.6388</v>
+        <v>1200</v>
       </c>
       <c r="G14" t="n">
-        <v>74024.7749146188</v>
+        <v>-17963.4160853812</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
         <v>131</v>
       </c>
       <c r="D15" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E15" t="n">
         <v>131</v>
       </c>
       <c r="F15" t="n">
-        <v>43.3505</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>73981.4244146188</v>
+        <v>-17971.4160853812</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D16" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E16" t="n">
         <v>131</v>
       </c>
       <c r="F16" t="n">
-        <v>53.9893</v>
+        <v>1887.3935</v>
       </c>
       <c r="G16" t="n">
-        <v>73981.4244146188</v>
+        <v>-16084.0225853812</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" t="n">
-        <v>130</v>
+        <v>132.8</v>
       </c>
       <c r="D17" t="n">
-        <v>131</v>
+        <v>132.8</v>
       </c>
       <c r="E17" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F17" t="n">
-        <v>11363.5304</v>
+        <v>400</v>
       </c>
       <c r="G17" t="n">
-        <v>62617.8940146188</v>
+        <v>-16484.0225853812</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,13 +1007,14 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" t="n">
         <v>131</v>
@@ -1002,13 +1023,13 @@
         <v>131</v>
       </c>
       <c r="E18" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F18" t="n">
-        <v>510.7848</v>
+        <v>9.99</v>
       </c>
       <c r="G18" t="n">
-        <v>63128.6788146188</v>
+        <v>-16494.0125853812</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C19" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D19" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E19" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" t="n">
-        <v>8000</v>
+        <v>458</v>
       </c>
       <c r="G19" t="n">
-        <v>55128.6788146188</v>
+        <v>-16036.0125853812</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C20" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D20" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E20" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F20" t="n">
-        <v>16875.9897</v>
+        <v>159</v>
       </c>
       <c r="G20" t="n">
-        <v>72004.6685146188</v>
+        <v>-16195.0125853812</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C21" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D21" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" t="n">
-        <v>56851.1516</v>
+        <v>837.6825</v>
       </c>
       <c r="G21" t="n">
-        <v>15153.5169146188</v>
+        <v>-16195.0125853812</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1136,25 +1161,25 @@
         <v>129</v>
       </c>
       <c r="C22" t="n">
-        <v>129</v>
+        <v>131.9</v>
       </c>
       <c r="D22" t="n">
-        <v>129</v>
+        <v>131.9</v>
       </c>
       <c r="E22" t="n">
         <v>129</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>6138.743</v>
       </c>
       <c r="G22" t="n">
-        <v>15153.5169146188</v>
+        <v>-10056.2695853812</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" t="n">
-        <v>1836.0756</v>
+        <v>60</v>
       </c>
       <c r="G23" t="n">
-        <v>13317.4413146188</v>
+        <v>-10116.2695853812</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C24" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D24" t="n">
-        <v>127</v>
+        <v>130.1</v>
       </c>
       <c r="E24" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" t="n">
-        <v>123.5768</v>
+        <v>447.7825</v>
       </c>
       <c r="G24" t="n">
-        <v>13193.8645146188</v>
+        <v>-10564.0520853812</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1250,10 +1278,10 @@
         <v>128</v>
       </c>
       <c r="F25" t="n">
-        <v>5600</v>
+        <v>1463.6569</v>
       </c>
       <c r="G25" t="n">
-        <v>18793.8645146188</v>
+        <v>-10564.0520853812</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1276,19 +1305,19 @@
         <v>128</v>
       </c>
       <c r="C26" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D26" t="n">
-        <v>128</v>
+        <v>130.1</v>
       </c>
       <c r="E26" t="n">
         <v>128</v>
       </c>
       <c r="F26" t="n">
-        <v>9400</v>
+        <v>2941</v>
       </c>
       <c r="G26" t="n">
-        <v>18793.8645146188</v>
+        <v>-7623.052085381201</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D27" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E27" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F27" t="n">
-        <v>480</v>
+        <v>840.329</v>
       </c>
       <c r="G27" t="n">
-        <v>18793.8645146188</v>
+        <v>-6782.723085381202</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>129.6</v>
+        <v>128</v>
       </c>
       <c r="C28" t="n">
-        <v>126</v>
+        <v>126.8</v>
       </c>
       <c r="D28" t="n">
-        <v>129.6</v>
+        <v>128</v>
       </c>
       <c r="E28" t="n">
-        <v>126</v>
+        <v>126.8</v>
       </c>
       <c r="F28" t="n">
-        <v>34310.6013</v>
+        <v>3231.3429</v>
       </c>
       <c r="G28" t="n">
-        <v>-15516.7367853812</v>
+        <v>-10014.0659853812</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>126</v>
+        <v>129.1</v>
       </c>
       <c r="C29" t="n">
-        <v>126</v>
+        <v>130.1</v>
       </c>
       <c r="D29" t="n">
-        <v>126</v>
+        <v>130.1</v>
       </c>
       <c r="E29" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F29" t="n">
-        <v>5616</v>
+        <v>2627</v>
       </c>
       <c r="G29" t="n">
-        <v>-15516.7367853812</v>
+        <v>-7387.065985381201</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>126</v>
+        <v>127.2</v>
       </c>
       <c r="C30" t="n">
-        <v>129</v>
+        <v>129.9</v>
       </c>
       <c r="D30" t="n">
-        <v>129</v>
+        <v>129.9</v>
       </c>
       <c r="E30" t="n">
-        <v>126</v>
+        <v>126.2</v>
       </c>
       <c r="F30" t="n">
-        <v>1653</v>
+        <v>5315.2043</v>
       </c>
       <c r="G30" t="n">
-        <v>-13863.7367853812</v>
+        <v>-12702.2702853812</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>129</v>
+        <v>130.1</v>
       </c>
       <c r="C31" t="n">
-        <v>129.3</v>
+        <v>130.1</v>
       </c>
       <c r="D31" t="n">
-        <v>129.3</v>
+        <v>130.1</v>
       </c>
       <c r="E31" t="n">
-        <v>129</v>
+        <v>130.1</v>
       </c>
       <c r="F31" t="n">
-        <v>20726.087</v>
+        <v>6616.9889</v>
       </c>
       <c r="G31" t="n">
-        <v>6862.350214618797</v>
+        <v>-6085.2813853812</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="C32" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="D32" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="E32" t="n">
-        <v>129.5</v>
+        <v>130.1</v>
       </c>
       <c r="F32" t="n">
-        <v>21</v>
+        <v>5749.7249</v>
       </c>
       <c r="G32" t="n">
-        <v>6883.350214618797</v>
+        <v>-6085.2813853812</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>129.4</v>
+        <v>131.5</v>
       </c>
       <c r="C33" t="n">
-        <v>129.4</v>
+        <v>131.5</v>
       </c>
       <c r="D33" t="n">
-        <v>129.4</v>
+        <v>131.5</v>
       </c>
       <c r="E33" t="n">
-        <v>129.4</v>
+        <v>131.5</v>
       </c>
       <c r="F33" t="n">
-        <v>452</v>
+        <v>14196.3491</v>
       </c>
       <c r="G33" t="n">
-        <v>6431.350214618797</v>
+        <v>8111.067714618799</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C34" t="n">
-        <v>129.4</v>
+        <v>132</v>
       </c>
       <c r="D34" t="n">
-        <v>129.4</v>
+        <v>132</v>
       </c>
       <c r="E34" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F34" t="n">
-        <v>1029.2019</v>
+        <v>4.888</v>
       </c>
       <c r="G34" t="n">
-        <v>6431.350214618797</v>
+        <v>8115.955714618799</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>129.4</v>
+        <v>132</v>
       </c>
       <c r="C35" t="n">
-        <v>129.4</v>
+        <v>137.2</v>
       </c>
       <c r="D35" t="n">
-        <v>129.4</v>
+        <v>137.2</v>
       </c>
       <c r="E35" t="n">
-        <v>129.4</v>
+        <v>129.2</v>
       </c>
       <c r="F35" t="n">
-        <v>360</v>
+        <v>7000</v>
       </c>
       <c r="G35" t="n">
-        <v>6431.350214618797</v>
+        <v>15115.9557146188</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>129.4</v>
+        <v>131.3</v>
       </c>
       <c r="C36" t="n">
-        <v>129.4</v>
+        <v>136.2</v>
       </c>
       <c r="D36" t="n">
-        <v>129.4</v>
+        <v>136.2</v>
       </c>
       <c r="E36" t="n">
-        <v>129.4</v>
+        <v>131.3</v>
       </c>
       <c r="F36" t="n">
-        <v>216</v>
+        <v>290.65</v>
       </c>
       <c r="G36" t="n">
-        <v>6431.350214618797</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>129.3</v>
+        <v>132</v>
       </c>
       <c r="C37" t="n">
-        <v>129.3</v>
+        <v>136.2</v>
       </c>
       <c r="D37" t="n">
-        <v>129.5</v>
+        <v>136.2</v>
       </c>
       <c r="E37" t="n">
-        <v>129.3</v>
+        <v>132</v>
       </c>
       <c r="F37" t="n">
-        <v>26567.25</v>
+        <v>1831.7029</v>
       </c>
       <c r="G37" t="n">
-        <v>-20135.8997853812</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="C38" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="D38" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="E38" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="F38" t="n">
-        <v>1298.1911</v>
+        <v>3.8573</v>
       </c>
       <c r="G38" t="n">
-        <v>-18837.7086853812</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" t="n">
-        <v>131</v>
+        <v>131.1</v>
       </c>
       <c r="D39" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E39" t="n">
-        <v>131</v>
+        <v>131.1</v>
       </c>
       <c r="F39" t="n">
-        <v>76</v>
+        <v>799.9434</v>
       </c>
       <c r="G39" t="n">
-        <v>-18761.7086853812</v>
+        <v>14025.3623146188</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="C40" t="n">
-        <v>131</v>
+        <v>131.4</v>
       </c>
       <c r="D40" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="E40" t="n">
-        <v>131</v>
+        <v>131.4</v>
       </c>
       <c r="F40" t="n">
-        <v>76.3359</v>
+        <v>7196.7376</v>
       </c>
       <c r="G40" t="n">
-        <v>-18761.7086853812</v>
+        <v>21222.0999146188</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>131</v>
+        <v>132.5</v>
       </c>
       <c r="C41" t="n">
-        <v>131</v>
+        <v>132.5</v>
       </c>
       <c r="D41" t="n">
-        <v>131</v>
+        <v>132.5</v>
       </c>
       <c r="E41" t="n">
-        <v>131</v>
+        <v>132.5</v>
       </c>
       <c r="F41" t="n">
-        <v>76.3359</v>
+        <v>1030</v>
       </c>
       <c r="G41" t="n">
-        <v>-18761.7086853812</v>
+        <v>22252.0999146188</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>131</v>
+        <v>135.1</v>
       </c>
       <c r="C42" t="n">
-        <v>131.9</v>
+        <v>135</v>
       </c>
       <c r="D42" t="n">
-        <v>131.9</v>
+        <v>135.1</v>
       </c>
       <c r="E42" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F42" t="n">
-        <v>207.6409</v>
+        <v>13.9718</v>
       </c>
       <c r="G42" t="n">
-        <v>-18554.0677853812</v>
+        <v>22266.0717146188</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>131.8</v>
+        <v>135.1</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7</v>
+        <v>135.1</v>
       </c>
       <c r="D43" t="n">
-        <v>132</v>
+        <v>135.1</v>
       </c>
       <c r="E43" t="n">
-        <v>131.7</v>
+        <v>135.1</v>
       </c>
       <c r="F43" t="n">
-        <v>1623</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n">
-        <v>-20177.0677853812</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>132</v>
+        <v>135.1</v>
       </c>
       <c r="C44" t="n">
-        <v>132</v>
+        <v>135.1</v>
       </c>
       <c r="D44" t="n">
-        <v>132</v>
+        <v>135.1</v>
       </c>
       <c r="E44" t="n">
-        <v>132</v>
+        <v>135.1</v>
       </c>
       <c r="F44" t="n">
-        <v>162.5484</v>
+        <v>668.5683</v>
       </c>
       <c r="G44" t="n">
-        <v>-20014.51938538121</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>131</v>
+        <v>135.1</v>
       </c>
       <c r="C45" t="n">
-        <v>131</v>
+        <v>135.1</v>
       </c>
       <c r="D45" t="n">
-        <v>131</v>
+        <v>135.1</v>
       </c>
       <c r="E45" t="n">
-        <v>131</v>
+        <v>135.1</v>
       </c>
       <c r="F45" t="n">
-        <v>45.0925</v>
+        <v>604.9153</v>
       </c>
       <c r="G45" t="n">
-        <v>-20059.6118853812</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>133</v>
+        <v>135.1</v>
       </c>
       <c r="C46" t="n">
         <v>132</v>
       </c>
       <c r="D46" t="n">
-        <v>133</v>
+        <v>136.1</v>
       </c>
       <c r="E46" t="n">
         <v>132</v>
       </c>
       <c r="F46" t="n">
-        <v>288</v>
+        <v>18865.8563</v>
       </c>
       <c r="G46" t="n">
-        <v>-19771.6118853812</v>
+        <v>3406.215414618797</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="C47" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="D47" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="E47" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>508.8354</v>
       </c>
       <c r="G47" t="n">
-        <v>-19767.6118853812</v>
+        <v>3915.050814618797</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>132.8</v>
+        <v>135</v>
       </c>
       <c r="C48" t="n">
-        <v>130.7</v>
+        <v>136.8</v>
       </c>
       <c r="D48" t="n">
-        <v>132.8</v>
+        <v>136.8</v>
       </c>
       <c r="E48" t="n">
-        <v>130.7</v>
+        <v>135</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>1098</v>
       </c>
       <c r="G48" t="n">
-        <v>-19775.6118853812</v>
+        <v>5013.050814618797</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>130.7</v>
+        <v>135</v>
       </c>
       <c r="C49" t="n">
-        <v>130.7</v>
+        <v>135</v>
       </c>
       <c r="D49" t="n">
-        <v>130.7</v>
+        <v>135</v>
       </c>
       <c r="E49" t="n">
-        <v>130.7</v>
+        <v>135</v>
       </c>
       <c r="F49" t="n">
-        <v>44.93</v>
+        <v>151.2507</v>
       </c>
       <c r="G49" t="n">
-        <v>-19775.6118853812</v>
+        <v>4861.800114618797</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>130.7</v>
+        <v>136</v>
       </c>
       <c r="C50" t="n">
-        <v>130.7</v>
+        <v>137</v>
       </c>
       <c r="D50" t="n">
-        <v>130.7</v>
+        <v>137</v>
       </c>
       <c r="E50" t="n">
-        <v>128</v>
+        <v>134.2</v>
       </c>
       <c r="F50" t="n">
-        <v>3442.8133</v>
+        <v>757</v>
       </c>
       <c r="G50" t="n">
-        <v>-19775.6118853812</v>
+        <v>5618.800114618797</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>130.7</v>
+        <v>137.2</v>
       </c>
       <c r="C51" t="n">
-        <v>130.7</v>
+        <v>137.2</v>
       </c>
       <c r="D51" t="n">
-        <v>130.7</v>
+        <v>137.2</v>
       </c>
       <c r="E51" t="n">
-        <v>130.7</v>
+        <v>137.2</v>
       </c>
       <c r="F51" t="n">
-        <v>521.0939</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>-19775.6118853812</v>
+        <v>5624.800114618797</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>130.7</v>
+        <v>135</v>
       </c>
       <c r="C52" t="n">
-        <v>130.7</v>
+        <v>136.2</v>
       </c>
       <c r="D52" t="n">
-        <v>131.7</v>
+        <v>136.2</v>
       </c>
       <c r="E52" t="n">
-        <v>130.7</v>
+        <v>135</v>
       </c>
       <c r="F52" t="n">
-        <v>1814.8233</v>
+        <v>669</v>
       </c>
       <c r="G52" t="n">
-        <v>-19775.6118853812</v>
+        <v>4955.800114618797</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>131</v>
+        <v>134.1</v>
       </c>
       <c r="C53" t="n">
-        <v>131</v>
+        <v>135.2</v>
       </c>
       <c r="D53" t="n">
-        <v>131</v>
+        <v>135.2</v>
       </c>
       <c r="E53" t="n">
-        <v>131</v>
+        <v>134.1</v>
       </c>
       <c r="F53" t="n">
-        <v>656.3208</v>
+        <v>4361</v>
       </c>
       <c r="G53" t="n">
-        <v>-19119.2910853812</v>
+        <v>594.8001146187971</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>132</v>
+        <v>134.2</v>
       </c>
       <c r="C54" t="n">
-        <v>132</v>
+        <v>136.2</v>
       </c>
       <c r="D54" t="n">
-        <v>132</v>
+        <v>136.2</v>
       </c>
       <c r="E54" t="n">
-        <v>132</v>
+        <v>134.2</v>
       </c>
       <c r="F54" t="n">
-        <v>17</v>
+        <v>6514.4269</v>
       </c>
       <c r="G54" t="n">
-        <v>-19102.2910853812</v>
+        <v>7109.227014618798</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>129.7</v>
+        <v>135.2</v>
       </c>
       <c r="C55" t="n">
-        <v>129.7</v>
+        <v>136.2</v>
       </c>
       <c r="D55" t="n">
-        <v>129.7</v>
+        <v>137.2</v>
       </c>
       <c r="E55" t="n">
-        <v>129.7</v>
+        <v>135.2</v>
       </c>
       <c r="F55" t="n">
-        <v>61.125</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>-19163.4160853812</v>
+        <v>7109.227014618798</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>131</v>
+        <v>134.4</v>
       </c>
       <c r="C56" t="n">
-        <v>136.8</v>
+        <v>136</v>
       </c>
       <c r="D56" t="n">
-        <v>136.8</v>
+        <v>136</v>
       </c>
       <c r="E56" t="n">
-        <v>131</v>
+        <v>134.3</v>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>6986.9671</v>
       </c>
       <c r="G56" t="n">
-        <v>-17963.4160853812</v>
+        <v>122.2599146187977</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C57" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D57" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E57" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>97.7482</v>
       </c>
       <c r="G57" t="n">
-        <v>-17971.4160853812</v>
+        <v>24.51171461879767</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C58" t="n">
         <v>133</v>
       </c>
       <c r="D58" t="n">
+        <v>134</v>
+      </c>
+      <c r="E58" t="n">
         <v>133</v>
       </c>
-      <c r="E58" t="n">
-        <v>131</v>
-      </c>
       <c r="F58" t="n">
-        <v>1887.3935</v>
+        <v>518.7482</v>
       </c>
       <c r="G58" t="n">
-        <v>-16084.0225853812</v>
+        <v>-494.2364853812023</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C59" t="n">
-        <v>132.8</v>
+        <v>134</v>
       </c>
       <c r="D59" t="n">
-        <v>132.8</v>
+        <v>134</v>
       </c>
       <c r="E59" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F59" t="n">
-        <v>400</v>
+        <v>726.8549</v>
       </c>
       <c r="G59" t="n">
-        <v>-16484.0225853812</v>
+        <v>232.6184146187977</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,34 +2519,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D60" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E60" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F60" t="n">
-        <v>9.99</v>
+        <v>6166.7376</v>
       </c>
       <c r="G60" t="n">
-        <v>-16494.0125853812</v>
+        <v>-5934.119185381202</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,34 +2555,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>132</v>
+        <v>132.2</v>
       </c>
       <c r="C61" t="n">
-        <v>132</v>
+        <v>132.2</v>
       </c>
       <c r="D61" t="n">
-        <v>132</v>
+        <v>132.2</v>
       </c>
       <c r="E61" t="n">
-        <v>132</v>
+        <v>132.2</v>
       </c>
       <c r="F61" t="n">
-        <v>458</v>
+        <v>9852.197200000001</v>
       </c>
       <c r="G61" t="n">
-        <v>-16036.0125853812</v>
+        <v>3918.078014618798</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C62" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D62" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E62" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F62" t="n">
-        <v>159</v>
+        <v>574</v>
       </c>
       <c r="G62" t="n">
-        <v>-16195.0125853812</v>
+        <v>4492.078014618798</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="C63" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="D63" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="E63" t="n">
-        <v>131</v>
+        <v>133.9</v>
       </c>
       <c r="F63" t="n">
-        <v>837.6825</v>
+        <v>533.3537</v>
       </c>
       <c r="G63" t="n">
-        <v>-16195.0125853812</v>
+        <v>3958.724314618798</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>129</v>
+        <v>133.9</v>
       </c>
       <c r="C64" t="n">
-        <v>131.9</v>
+        <v>133.9</v>
       </c>
       <c r="D64" t="n">
-        <v>131.9</v>
+        <v>133.9</v>
       </c>
       <c r="E64" t="n">
-        <v>129</v>
+        <v>133.9</v>
       </c>
       <c r="F64" t="n">
-        <v>6138.743</v>
+        <v>200</v>
       </c>
       <c r="G64" t="n">
-        <v>-10056.2695853812</v>
+        <v>3958.724314618798</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>129</v>
+        <v>133.9</v>
       </c>
       <c r="C65" t="n">
-        <v>129</v>
+        <v>133.2</v>
       </c>
       <c r="D65" t="n">
-        <v>129</v>
+        <v>133.9</v>
       </c>
       <c r="E65" t="n">
-        <v>129</v>
+        <v>133.2</v>
       </c>
       <c r="F65" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G65" t="n">
-        <v>-10116.2695853812</v>
+        <v>3950.724314618798</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,34 +2735,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>129</v>
+        <v>133.9</v>
       </c>
       <c r="C66" t="n">
-        <v>128</v>
+        <v>134.8</v>
       </c>
       <c r="D66" t="n">
-        <v>130.1</v>
+        <v>134.8</v>
       </c>
       <c r="E66" t="n">
-        <v>128</v>
+        <v>133.9</v>
       </c>
       <c r="F66" t="n">
-        <v>447.7825</v>
+        <v>800</v>
       </c>
       <c r="G66" t="n">
-        <v>-10564.0520853812</v>
+        <v>4750.724314618798</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>128</v>
+        <v>133.2</v>
       </c>
       <c r="C67" t="n">
-        <v>128</v>
+        <v>133.8</v>
       </c>
       <c r="D67" t="n">
-        <v>128</v>
+        <v>134.9</v>
       </c>
       <c r="E67" t="n">
-        <v>128</v>
+        <v>132.3</v>
       </c>
       <c r="F67" t="n">
-        <v>1463.6569</v>
+        <v>24084.05</v>
       </c>
       <c r="G67" t="n">
-        <v>-10564.0520853812</v>
+        <v>-19333.3256853812</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>128</v>
+        <v>134.1</v>
       </c>
       <c r="C68" t="n">
-        <v>129</v>
+        <v>134.1</v>
       </c>
       <c r="D68" t="n">
-        <v>130.1</v>
+        <v>134.1</v>
       </c>
       <c r="E68" t="n">
-        <v>128</v>
+        <v>134.1</v>
       </c>
       <c r="F68" t="n">
-        <v>2941</v>
+        <v>433</v>
       </c>
       <c r="G68" t="n">
-        <v>-7623.052085381201</v>
+        <v>-18900.3256853812</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>129</v>
+        <v>133.1</v>
       </c>
       <c r="C69" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="D69" t="n">
-        <v>130</v>
+        <v>133.1</v>
       </c>
       <c r="E69" t="n">
-        <v>129</v>
+        <v>133.1</v>
       </c>
       <c r="F69" t="n">
-        <v>840.329</v>
+        <v>150.2671</v>
       </c>
       <c r="G69" t="n">
-        <v>-6782.723085381202</v>
+        <v>-19050.5927853812</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>128</v>
+        <v>133.9</v>
       </c>
       <c r="C70" t="n">
-        <v>126.8</v>
+        <v>136</v>
       </c>
       <c r="D70" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E70" t="n">
-        <v>126.8</v>
+        <v>133.9</v>
       </c>
       <c r="F70" t="n">
-        <v>3231.3429</v>
+        <v>2500</v>
       </c>
       <c r="G70" t="n">
-        <v>-10014.0659853812</v>
+        <v>-16550.5927853812</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>129.1</v>
+        <v>134.6</v>
       </c>
       <c r="C71" t="n">
-        <v>130.1</v>
+        <v>134.6</v>
       </c>
       <c r="D71" t="n">
-        <v>130.1</v>
+        <v>134.6</v>
       </c>
       <c r="E71" t="n">
-        <v>129</v>
+        <v>134.6</v>
       </c>
       <c r="F71" t="n">
-        <v>2627</v>
+        <v>447</v>
       </c>
       <c r="G71" t="n">
-        <v>-7387.065985381201</v>
+        <v>-16997.5927853812</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>127.2</v>
+        <v>134.6</v>
       </c>
       <c r="C72" t="n">
-        <v>129.9</v>
+        <v>134.1</v>
       </c>
       <c r="D72" t="n">
-        <v>129.9</v>
+        <v>134.6</v>
       </c>
       <c r="E72" t="n">
-        <v>126.2</v>
+        <v>134.1</v>
       </c>
       <c r="F72" t="n">
-        <v>5315.2043</v>
+        <v>1302.8654</v>
       </c>
       <c r="G72" t="n">
-        <v>-12702.2702853812</v>
+        <v>-18300.4581853812</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>130.1</v>
+        <v>133.6</v>
       </c>
       <c r="C73" t="n">
-        <v>130.1</v>
+        <v>133.6</v>
       </c>
       <c r="D73" t="n">
-        <v>130.1</v>
+        <v>133.6</v>
       </c>
       <c r="E73" t="n">
-        <v>130.1</v>
+        <v>133.6</v>
       </c>
       <c r="F73" t="n">
-        <v>6616.9889</v>
+        <v>2600</v>
       </c>
       <c r="G73" t="n">
-        <v>-6085.2813853812</v>
+        <v>-20900.4581853812</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>130.1</v>
+        <v>132.1</v>
       </c>
       <c r="C74" t="n">
-        <v>130.1</v>
+        <v>133.1</v>
       </c>
       <c r="D74" t="n">
-        <v>130.1</v>
+        <v>133.1</v>
       </c>
       <c r="E74" t="n">
-        <v>130.1</v>
+        <v>128</v>
       </c>
       <c r="F74" t="n">
-        <v>5749.7249</v>
+        <v>37885.6159</v>
       </c>
       <c r="G74" t="n">
-        <v>-6085.2813853812</v>
+        <v>-58786.0740853812</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>131.5</v>
+        <v>133.1</v>
       </c>
       <c r="C75" t="n">
-        <v>131.5</v>
+        <v>133.1</v>
       </c>
       <c r="D75" t="n">
-        <v>131.5</v>
+        <v>133.1</v>
       </c>
       <c r="E75" t="n">
-        <v>131.5</v>
+        <v>133.1</v>
       </c>
       <c r="F75" t="n">
-        <v>14196.3491</v>
+        <v>312</v>
       </c>
       <c r="G75" t="n">
-        <v>8111.067714618799</v>
+        <v>-58786.0740853812</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3029,16 +3108,16 @@
         <v>132</v>
       </c>
       <c r="D76" t="n">
-        <v>132</v>
+        <v>134.1</v>
       </c>
       <c r="E76" t="n">
         <v>132</v>
       </c>
       <c r="F76" t="n">
-        <v>4.888</v>
+        <v>2086.125</v>
       </c>
       <c r="G76" t="n">
-        <v>8115.955714618799</v>
+        <v>-60872.1990853812</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="C77" t="n">
-        <v>137.2</v>
+        <v>133.1</v>
       </c>
       <c r="D77" t="n">
-        <v>137.2</v>
+        <v>133.1</v>
       </c>
       <c r="E77" t="n">
-        <v>129.2</v>
+        <v>133.1</v>
       </c>
       <c r="F77" t="n">
-        <v>7000</v>
+        <v>968.6814000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>15115.9557146188</v>
+        <v>-59903.5176853812</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>131.3</v>
+        <v>133</v>
       </c>
       <c r="C78" t="n">
-        <v>136.2</v>
+        <v>133</v>
       </c>
       <c r="D78" t="n">
-        <v>136.2</v>
+        <v>133</v>
       </c>
       <c r="E78" t="n">
-        <v>131.3</v>
+        <v>133</v>
       </c>
       <c r="F78" t="n">
-        <v>290.65</v>
+        <v>2621</v>
       </c>
       <c r="G78" t="n">
-        <v>14825.3057146188</v>
+        <v>-62524.5176853812</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="C79" t="n">
-        <v>136.2</v>
+        <v>133.1</v>
       </c>
       <c r="D79" t="n">
-        <v>136.2</v>
+        <v>133.1</v>
       </c>
       <c r="E79" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="F79" t="n">
-        <v>1831.7029</v>
+        <v>2254</v>
       </c>
       <c r="G79" t="n">
-        <v>14825.3057146188</v>
+        <v>-60270.5176853812</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>136.2</v>
+        <v>132</v>
       </c>
       <c r="C80" t="n">
-        <v>136.2</v>
+        <v>132</v>
       </c>
       <c r="D80" t="n">
-        <v>136.2</v>
+        <v>132</v>
       </c>
       <c r="E80" t="n">
-        <v>136.2</v>
+        <v>132</v>
       </c>
       <c r="F80" t="n">
-        <v>3.8573</v>
+        <v>11081.8643</v>
       </c>
       <c r="G80" t="n">
-        <v>14825.3057146188</v>
+        <v>-71352.3819853812</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3201,19 +3285,19 @@
         <v>132</v>
       </c>
       <c r="C81" t="n">
-        <v>131.1</v>
+        <v>132.5</v>
       </c>
       <c r="D81" t="n">
-        <v>132</v>
+        <v>132.5</v>
       </c>
       <c r="E81" t="n">
-        <v>131.1</v>
+        <v>132</v>
       </c>
       <c r="F81" t="n">
-        <v>799.9434</v>
+        <v>5781</v>
       </c>
       <c r="G81" t="n">
-        <v>14025.3623146188</v>
+        <v>-65571.3819853812</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="C82" t="n">
-        <v>131.4</v>
+        <v>132</v>
       </c>
       <c r="D82" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="E82" t="n">
-        <v>131.4</v>
+        <v>132</v>
       </c>
       <c r="F82" t="n">
-        <v>7196.7376</v>
+        <v>595</v>
       </c>
       <c r="G82" t="n">
-        <v>21222.0999146188</v>
+        <v>-66166.3819853812</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="C83" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="D83" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="E83" t="n">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="F83" t="n">
-        <v>1030</v>
+        <v>594</v>
       </c>
       <c r="G83" t="n">
-        <v>22252.0999146188</v>
+        <v>-66166.3819853812</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>135.1</v>
+        <v>132</v>
       </c>
       <c r="C84" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D84" t="n">
-        <v>135.1</v>
+        <v>132</v>
       </c>
       <c r="E84" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F84" t="n">
-        <v>13.9718</v>
+        <v>501.4283</v>
       </c>
       <c r="G84" t="n">
-        <v>22266.0717146188</v>
+        <v>-66166.3819853812</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>135.1</v>
+        <v>130.2</v>
       </c>
       <c r="C85" t="n">
-        <v>135.1</v>
+        <v>131.6</v>
       </c>
       <c r="D85" t="n">
-        <v>135.1</v>
+        <v>131.6</v>
       </c>
       <c r="E85" t="n">
-        <v>135.1</v>
+        <v>129.9</v>
       </c>
       <c r="F85" t="n">
-        <v>6</v>
+        <v>8802.956899999999</v>
       </c>
       <c r="G85" t="n">
-        <v>22272.0717146188</v>
+        <v>-74969.33888538121</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>135.1</v>
+        <v>131.6</v>
       </c>
       <c r="C86" t="n">
-        <v>135.1</v>
+        <v>130.9</v>
       </c>
       <c r="D86" t="n">
-        <v>135.1</v>
+        <v>131.6</v>
       </c>
       <c r="E86" t="n">
-        <v>135.1</v>
+        <v>130.9</v>
       </c>
       <c r="F86" t="n">
-        <v>668.5683</v>
+        <v>2180</v>
       </c>
       <c r="G86" t="n">
-        <v>22272.0717146188</v>
+        <v>-77149.33888538121</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>135.1</v>
+        <v>132</v>
       </c>
       <c r="C87" t="n">
-        <v>135.1</v>
+        <v>132.9</v>
       </c>
       <c r="D87" t="n">
-        <v>135.1</v>
+        <v>132.9</v>
       </c>
       <c r="E87" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="F87" t="n">
-        <v>604.9153</v>
+        <v>577.8736</v>
       </c>
       <c r="G87" t="n">
-        <v>22272.0717146188</v>
+        <v>-76571.4652853812</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>135.1</v>
+        <v>131.5</v>
       </c>
       <c r="C88" t="n">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="D88" t="n">
-        <v>136.1</v>
+        <v>131.5</v>
       </c>
       <c r="E88" t="n">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="F88" t="n">
-        <v>18865.8563</v>
+        <v>226.7123</v>
       </c>
       <c r="G88" t="n">
-        <v>3406.215414618797</v>
+        <v>-76798.1775853812</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C89" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D89" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E89" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F89" t="n">
-        <v>508.8354</v>
+        <v>1308.4706</v>
       </c>
       <c r="G89" t="n">
-        <v>3915.050814618797</v>
+        <v>-78106.6481853812</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,308 +3599,365 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>135</v>
+        <v>130.1</v>
       </c>
       <c r="C90" t="n">
-        <v>136.8</v>
+        <v>130.1</v>
       </c>
       <c r="D90" t="n">
-        <v>136.8</v>
+        <v>130.1</v>
       </c>
       <c r="E90" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F90" t="n">
-        <v>1098</v>
+        <v>10248.7018</v>
       </c>
       <c r="G90" t="n">
-        <v>5013.050814618797</v>
+        <v>-88355.3499853812</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>131</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>135</v>
+        <v>130.1</v>
       </c>
       <c r="C91" t="n">
-        <v>135</v>
+        <v>130.1</v>
       </c>
       <c r="D91" t="n">
-        <v>135</v>
+        <v>130.1</v>
       </c>
       <c r="E91" t="n">
-        <v>135</v>
+        <v>130.1</v>
       </c>
       <c r="F91" t="n">
-        <v>151.2507</v>
+        <v>1444.2</v>
       </c>
       <c r="G91" t="n">
-        <v>4861.800114618797</v>
+        <v>-88355.3499853812</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>130.1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C92" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D92" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E92" t="n">
-        <v>134.2</v>
+        <v>131</v>
       </c>
       <c r="F92" t="n">
-        <v>757</v>
+        <v>991.6488000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>5618.800114618797</v>
+        <v>-87363.7011853812</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>130.1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>137.2</v>
+        <v>131</v>
       </c>
       <c r="C93" t="n">
-        <v>137.2</v>
+        <v>131</v>
       </c>
       <c r="D93" t="n">
-        <v>137.2</v>
+        <v>131</v>
       </c>
       <c r="E93" t="n">
-        <v>137.2</v>
+        <v>131</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>20473.1154</v>
       </c>
       <c r="G93" t="n">
-        <v>5624.800114618797</v>
+        <v>-87363.7011853812</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>131</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C94" t="n">
-        <v>136.2</v>
+        <v>131</v>
       </c>
       <c r="D94" t="n">
-        <v>136.2</v>
+        <v>131</v>
       </c>
       <c r="E94" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F94" t="n">
-        <v>669</v>
+        <v>9.650600000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>4955.800114618797</v>
+        <v>-87363.7011853812</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>131</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>134.1</v>
+        <v>133</v>
       </c>
       <c r="C95" t="n">
-        <v>135.2</v>
+        <v>132</v>
       </c>
       <c r="D95" t="n">
-        <v>135.2</v>
+        <v>133</v>
       </c>
       <c r="E95" t="n">
-        <v>134.1</v>
+        <v>132</v>
       </c>
       <c r="F95" t="n">
-        <v>4361</v>
+        <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>594.8001146187971</v>
+        <v>-87163.7011853812</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>131</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>134.2</v>
+        <v>132</v>
       </c>
       <c r="C96" t="n">
-        <v>136.2</v>
+        <v>132</v>
       </c>
       <c r="D96" t="n">
-        <v>136.2</v>
+        <v>132</v>
       </c>
       <c r="E96" t="n">
-        <v>134.2</v>
+        <v>132</v>
       </c>
       <c r="F96" t="n">
-        <v>6514.4269</v>
+        <v>34.2555</v>
       </c>
       <c r="G96" t="n">
-        <v>7109.227014618798</v>
+        <v>-87163.7011853812</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>132</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>135.2</v>
+        <v>130</v>
       </c>
       <c r="C97" t="n">
-        <v>136.2</v>
+        <v>130</v>
       </c>
       <c r="D97" t="n">
-        <v>137.2</v>
+        <v>130</v>
       </c>
       <c r="E97" t="n">
-        <v>135.2</v>
+        <v>130</v>
       </c>
       <c r="F97" t="n">
-        <v>17</v>
+        <v>7665.9888</v>
       </c>
       <c r="G97" t="n">
-        <v>7109.227014618798</v>
+        <v>-94829.68998538121</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>132</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>134.4</v>
+        <v>131</v>
       </c>
       <c r="C98" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D98" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E98" t="n">
-        <v>134.3</v>
+        <v>131</v>
       </c>
       <c r="F98" t="n">
-        <v>6986.9671</v>
+        <v>28.9707</v>
       </c>
       <c r="G98" t="n">
-        <v>122.2599146187977</v>
+        <v>-94800.7192853812</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,32 +3967,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>135</v>
+        <v>129.7</v>
       </c>
       <c r="C99" t="n">
-        <v>135</v>
+        <v>129.7</v>
       </c>
       <c r="D99" t="n">
-        <v>135</v>
+        <v>129.7</v>
       </c>
       <c r="E99" t="n">
-        <v>135</v>
+        <v>129.7</v>
       </c>
       <c r="F99" t="n">
-        <v>97.7482</v>
+        <v>49.3929</v>
       </c>
       <c r="G99" t="n">
-        <v>24.51171461879767</v>
+        <v>-94850.11218538121</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,242 +4007,289 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>134</v>
+        <v>129.6</v>
       </c>
       <c r="C100" t="n">
-        <v>133</v>
+        <v>130.5</v>
       </c>
       <c r="D100" t="n">
-        <v>134</v>
+        <v>131.8</v>
       </c>
       <c r="E100" t="n">
-        <v>133</v>
+        <v>129.6</v>
       </c>
       <c r="F100" t="n">
-        <v>518.7482</v>
+        <v>14162.1791</v>
       </c>
       <c r="G100" t="n">
-        <v>-494.2364853812023</v>
+        <v>-80687.93308538121</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>129.7</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>134</v>
+        <v>130.2</v>
       </c>
       <c r="C101" t="n">
-        <v>134</v>
+        <v>130.2</v>
       </c>
       <c r="D101" t="n">
-        <v>134</v>
+        <v>130.2</v>
       </c>
       <c r="E101" t="n">
-        <v>134</v>
+        <v>130.2</v>
       </c>
       <c r="F101" t="n">
-        <v>726.8549</v>
+        <v>11830</v>
       </c>
       <c r="G101" t="n">
-        <v>232.6184146187977</v>
+        <v>-92517.93308538121</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>130.5</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>132</v>
+        <v>130.2</v>
       </c>
       <c r="C102" t="n">
-        <v>132</v>
+        <v>130.2</v>
       </c>
       <c r="D102" t="n">
-        <v>132</v>
+        <v>130.2</v>
       </c>
       <c r="E102" t="n">
-        <v>132</v>
+        <v>130.2</v>
       </c>
       <c r="F102" t="n">
-        <v>6166.7376</v>
+        <v>3830</v>
       </c>
       <c r="G102" t="n">
-        <v>-5934.119185381202</v>
+        <v>-92517.93308538121</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>130.2</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>132.2</v>
+        <v>130.2</v>
       </c>
       <c r="C103" t="n">
-        <v>132.2</v>
+        <v>130</v>
       </c>
       <c r="D103" t="n">
-        <v>132.2</v>
+        <v>130.2</v>
       </c>
       <c r="E103" t="n">
-        <v>132.2</v>
+        <v>130</v>
       </c>
       <c r="F103" t="n">
-        <v>9852.197200000001</v>
+        <v>643.8045</v>
       </c>
       <c r="G103" t="n">
-        <v>3918.078014618798</v>
+        <v>-93161.73758538121</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>130.2</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C104" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D104" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E104" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F104" t="n">
-        <v>574</v>
+        <v>123</v>
       </c>
       <c r="G104" t="n">
-        <v>4492.078014618798</v>
+        <v>-93161.73758538121</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>130</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>133.9</v>
+        <v>129.5</v>
       </c>
       <c r="C105" t="n">
-        <v>133.9</v>
+        <v>128.5</v>
       </c>
       <c r="D105" t="n">
-        <v>133.9</v>
+        <v>129.5</v>
       </c>
       <c r="E105" t="n">
-        <v>133.9</v>
+        <v>128.5</v>
       </c>
       <c r="F105" t="n">
-        <v>533.3537</v>
+        <v>4353.6424</v>
       </c>
       <c r="G105" t="n">
-        <v>3958.724314618798</v>
+        <v>-97515.37998538121</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>130</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>133.9</v>
+        <v>129.5</v>
       </c>
       <c r="C106" t="n">
-        <v>133.9</v>
+        <v>130</v>
       </c>
       <c r="D106" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="E106" t="n">
-        <v>133.9</v>
+        <v>129.5</v>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>8961</v>
       </c>
       <c r="G106" t="n">
-        <v>3958.724314618798</v>
+        <v>-88554.37998538121</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,67 +4299,79 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>133.9</v>
+        <v>130</v>
       </c>
       <c r="C107" t="n">
-        <v>133.2</v>
+        <v>130</v>
       </c>
       <c r="D107" t="n">
-        <v>133.9</v>
+        <v>130</v>
       </c>
       <c r="E107" t="n">
-        <v>133.2</v>
+        <v>130</v>
       </c>
       <c r="F107" t="n">
-        <v>8</v>
+        <v>1151</v>
       </c>
       <c r="G107" t="n">
-        <v>3950.724314618798</v>
+        <v>-88554.37998538121</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>130</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>133.9</v>
+        <v>130</v>
       </c>
       <c r="C108" t="n">
-        <v>134.8</v>
+        <v>130</v>
       </c>
       <c r="D108" t="n">
-        <v>134.8</v>
+        <v>133</v>
       </c>
       <c r="E108" t="n">
-        <v>133.9</v>
+        <v>130</v>
       </c>
       <c r="F108" t="n">
-        <v>800</v>
+        <v>7360.9245</v>
       </c>
       <c r="G108" t="n">
-        <v>4750.724314618798</v>
+        <v>-88554.37998538121</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,172 +4381,205 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>133.2</v>
+        <v>130</v>
       </c>
       <c r="C109" t="n">
-        <v>133.8</v>
+        <v>130</v>
       </c>
       <c r="D109" t="n">
-        <v>134.9</v>
+        <v>130</v>
       </c>
       <c r="E109" t="n">
-        <v>132.3</v>
+        <v>130</v>
       </c>
       <c r="F109" t="n">
-        <v>24084.05</v>
+        <v>901.78</v>
       </c>
       <c r="G109" t="n">
-        <v>-19333.3256853812</v>
+        <v>-88554.37998538121</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>130</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>134.1</v>
+        <v>130</v>
       </c>
       <c r="C110" t="n">
-        <v>134.1</v>
+        <v>130</v>
       </c>
       <c r="D110" t="n">
-        <v>134.1</v>
+        <v>130</v>
       </c>
       <c r="E110" t="n">
-        <v>134.1</v>
+        <v>130</v>
       </c>
       <c r="F110" t="n">
-        <v>433</v>
+        <v>7.6924</v>
       </c>
       <c r="G110" t="n">
-        <v>-18900.3256853812</v>
+        <v>-88554.37998538121</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>130</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>133.1</v>
+        <v>130</v>
       </c>
       <c r="C111" t="n">
-        <v>133.1</v>
+        <v>130.6</v>
       </c>
       <c r="D111" t="n">
-        <v>133.1</v>
+        <v>130.6</v>
       </c>
       <c r="E111" t="n">
-        <v>133.1</v>
+        <v>129.1</v>
       </c>
       <c r="F111" t="n">
-        <v>150.2671</v>
+        <v>19975.5284</v>
       </c>
       <c r="G111" t="n">
-        <v>-19050.5927853812</v>
+        <v>-68578.85158538121</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>130</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>133.9</v>
+        <v>129.5</v>
       </c>
       <c r="C112" t="n">
-        <v>136</v>
+        <v>129.5</v>
       </c>
       <c r="D112" t="n">
-        <v>136</v>
+        <v>130.6</v>
       </c>
       <c r="E112" t="n">
-        <v>133.9</v>
+        <v>129.5</v>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>21006.4733</v>
       </c>
       <c r="G112" t="n">
-        <v>-16550.5927853812</v>
+        <v>-89585.32488538121</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>130.6</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>134.6</v>
+        <v>129.5</v>
       </c>
       <c r="C113" t="n">
-        <v>134.6</v>
+        <v>129.5</v>
       </c>
       <c r="D113" t="n">
-        <v>134.6</v>
+        <v>129.5</v>
       </c>
       <c r="E113" t="n">
-        <v>134.6</v>
+        <v>129.5</v>
       </c>
       <c r="F113" t="n">
-        <v>447</v>
+        <v>600</v>
       </c>
       <c r="G113" t="n">
-        <v>-16997.5927853812</v>
+        <v>-89585.32488538121</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,137 +4589,163 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>134.6</v>
+        <v>129.5</v>
       </c>
       <c r="C114" t="n">
-        <v>134.1</v>
+        <v>129.5</v>
       </c>
       <c r="D114" t="n">
-        <v>134.6</v>
+        <v>129.5</v>
       </c>
       <c r="E114" t="n">
-        <v>134.1</v>
+        <v>129.5</v>
       </c>
       <c r="F114" t="n">
-        <v>1302.8654</v>
+        <v>4800</v>
       </c>
       <c r="G114" t="n">
-        <v>-18300.4581853812</v>
+        <v>-89585.32488538121</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>129.5</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>133.6</v>
+        <v>129.5</v>
       </c>
       <c r="C115" t="n">
-        <v>133.6</v>
+        <v>129.5</v>
       </c>
       <c r="D115" t="n">
-        <v>133.6</v>
+        <v>129.5</v>
       </c>
       <c r="E115" t="n">
-        <v>133.6</v>
+        <v>129.5</v>
       </c>
       <c r="F115" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="n">
-        <v>-20900.4581853812</v>
+        <v>-89585.32488538121</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>129.5</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>132.1</v>
+        <v>128.5</v>
       </c>
       <c r="C116" t="n">
-        <v>133.1</v>
+        <v>128.5</v>
       </c>
       <c r="D116" t="n">
-        <v>133.1</v>
+        <v>128.5</v>
       </c>
       <c r="E116" t="n">
-        <v>128</v>
+        <v>128.5</v>
       </c>
       <c r="F116" t="n">
-        <v>37885.6159</v>
+        <v>18060.9778</v>
       </c>
       <c r="G116" t="n">
-        <v>-58786.0740853812</v>
+        <v>-107646.3026853812</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>129.5</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="C117" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="D117" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="E117" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="F117" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="G117" t="n">
-        <v>-58786.0740853812</v>
+        <v>-107446.3026853812</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4482,89 +4754,93 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="K117" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
+        <v>128.5</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>132</v>
+        <v>129.5</v>
       </c>
       <c r="C118" t="n">
-        <v>132</v>
+        <v>129.5</v>
       </c>
       <c r="D118" t="n">
-        <v>134.1</v>
+        <v>129.5</v>
       </c>
       <c r="E118" t="n">
-        <v>132</v>
+        <v>129.5</v>
       </c>
       <c r="F118" t="n">
-        <v>2086.125</v>
+        <v>1715</v>
       </c>
       <c r="G118" t="n">
-        <v>-60872.1990853812</v>
+        <v>-107446.3026853812</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J118" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="C119" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="D119" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="E119" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="F119" t="n">
-        <v>968.6814000000001</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="n">
-        <v>-59903.5176853812</v>
+        <v>-107446.3026853812</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J119" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4573,39 +4849,40 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>133</v>
+        <v>129.5</v>
       </c>
       <c r="C120" t="n">
-        <v>133</v>
+        <v>129.5</v>
       </c>
       <c r="D120" t="n">
-        <v>133</v>
+        <v>129.5</v>
       </c>
       <c r="E120" t="n">
-        <v>133</v>
+        <v>129.5</v>
       </c>
       <c r="F120" t="n">
-        <v>2621</v>
+        <v>1315</v>
       </c>
       <c r="G120" t="n">
-        <v>-62524.5176853812</v>
+        <v>-107446.3026853812</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J120" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4614,39 +4891,40 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>133.1</v>
+        <v>129</v>
       </c>
       <c r="C121" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="D121" t="n">
-        <v>133.1</v>
+        <v>129.5</v>
       </c>
       <c r="E121" t="n">
-        <v>133.1</v>
+        <v>129</v>
       </c>
       <c r="F121" t="n">
-        <v>2254</v>
+        <v>524</v>
       </c>
       <c r="G121" t="n">
-        <v>-60270.5176853812</v>
+        <v>-107446.3026853812</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J121" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,39 +4933,40 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C122" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D122" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E122" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F122" t="n">
-        <v>11081.8643</v>
+        <v>151.8712</v>
       </c>
       <c r="G122" t="n">
-        <v>-71352.3819853812</v>
+        <v>-107294.4314853812</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J122" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,39 +4975,40 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C123" t="n">
-        <v>132.5</v>
+        <v>130</v>
       </c>
       <c r="D123" t="n">
-        <v>132.5</v>
+        <v>130</v>
       </c>
       <c r="E123" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F123" t="n">
-        <v>5781</v>
+        <v>7.041</v>
       </c>
       <c r="G123" t="n">
-        <v>-65571.3819853812</v>
+        <v>-107294.4314853812</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J123" t="n">
+        <v>130</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4737,28 +5017,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C124" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D124" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E124" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F124" t="n">
-        <v>595</v>
+        <v>3774.1598</v>
       </c>
       <c r="G124" t="n">
-        <v>-66166.3819853812</v>
+        <v>-107294.4314853812</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -4767,11 +5048,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="K124" t="n">
-        <v>133.1</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4780,39 +5059,40 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>132</v>
+        <v>129.9</v>
       </c>
       <c r="C125" t="n">
-        <v>132</v>
+        <v>129.9</v>
       </c>
       <c r="D125" t="n">
-        <v>132</v>
+        <v>129.9</v>
       </c>
       <c r="E125" t="n">
-        <v>132</v>
+        <v>129.9</v>
       </c>
       <c r="F125" t="n">
-        <v>594</v>
+        <v>273</v>
       </c>
       <c r="G125" t="n">
-        <v>-66166.3819853812</v>
+        <v>-107567.4314853812</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J125" t="n">
+        <v>130</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,39 +5101,40 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>132</v>
+        <v>129.9</v>
       </c>
       <c r="C126" t="n">
-        <v>132</v>
+        <v>129.9</v>
       </c>
       <c r="D126" t="n">
-        <v>132</v>
+        <v>129.9</v>
       </c>
       <c r="E126" t="n">
-        <v>132</v>
+        <v>129.9</v>
       </c>
       <c r="F126" t="n">
-        <v>501.4283</v>
+        <v>11209.5664</v>
       </c>
       <c r="G126" t="n">
-        <v>-66166.3819853812</v>
+        <v>-107567.4314853812</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J126" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,39 +5143,40 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>130.2</v>
+        <v>129.9</v>
       </c>
       <c r="C127" t="n">
-        <v>131.6</v>
+        <v>129.9</v>
       </c>
       <c r="D127" t="n">
-        <v>131.6</v>
+        <v>129.9</v>
       </c>
       <c r="E127" t="n">
         <v>129.9</v>
       </c>
       <c r="F127" t="n">
-        <v>8802.956899999999</v>
+        <v>3350.6497</v>
       </c>
       <c r="G127" t="n">
-        <v>-74969.33888538121</v>
+        <v>-107567.4314853812</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J127" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4903,39 +5185,40 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>131.6</v>
+        <v>131</v>
       </c>
       <c r="C128" t="n">
-        <v>130.9</v>
+        <v>131</v>
       </c>
       <c r="D128" t="n">
-        <v>131.6</v>
+        <v>131</v>
       </c>
       <c r="E128" t="n">
-        <v>130.9</v>
+        <v>131</v>
       </c>
       <c r="F128" t="n">
-        <v>2180</v>
+        <v>99.708</v>
       </c>
       <c r="G128" t="n">
-        <v>-77149.33888538121</v>
+        <v>-107467.7234853812</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J128" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,28 +5227,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="D129" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="E129" t="n">
         <v>131</v>
       </c>
       <c r="F129" t="n">
-        <v>577.8736</v>
+        <v>59.9144</v>
       </c>
       <c r="G129" t="n">
-        <v>-76571.4652853812</v>
+        <v>-107467.7234853812</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
@@ -4974,11 +5258,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="K129" t="n">
-        <v>133.1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4987,41 +5269,38 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>131.5</v>
+        <v>132.6</v>
       </c>
       <c r="C130" t="n">
-        <v>131.5</v>
+        <v>132.6</v>
       </c>
       <c r="D130" t="n">
-        <v>131.5</v>
+        <v>132.6</v>
       </c>
       <c r="E130" t="n">
-        <v>131.5</v>
+        <v>132.6</v>
       </c>
       <c r="F130" t="n">
-        <v>226.7123</v>
+        <v>4</v>
       </c>
       <c r="G130" t="n">
-        <v>-76798.1775853812</v>
+        <v>-107463.7234853812</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="K130" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5030,28 +5309,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>131</v>
+        <v>132.6</v>
       </c>
       <c r="C131" t="n">
-        <v>131</v>
+        <v>132.6</v>
       </c>
       <c r="D131" t="n">
-        <v>131</v>
+        <v>132.6</v>
       </c>
       <c r="E131" t="n">
-        <v>130</v>
+        <v>132.6</v>
       </c>
       <c r="F131" t="n">
-        <v>1308.4706</v>
+        <v>24.483</v>
       </c>
       <c r="G131" t="n">
-        <v>-78106.6481853812</v>
+        <v>-107463.7234853812</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5060,9 +5340,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5071,28 +5349,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>130.1</v>
+        <v>129.6</v>
       </c>
       <c r="C132" t="n">
-        <v>130.1</v>
+        <v>130.5</v>
       </c>
       <c r="D132" t="n">
-        <v>130.1</v>
+        <v>131.5</v>
       </c>
       <c r="E132" t="n">
-        <v>130</v>
+        <v>129.6</v>
       </c>
       <c r="F132" t="n">
-        <v>10248.7018</v>
+        <v>4717.6925</v>
       </c>
       <c r="G132" t="n">
-        <v>-88355.3499853812</v>
+        <v>-112181.4159853812</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5101,9 +5380,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,28 +5389,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>130.1</v>
+        <v>130</v>
       </c>
       <c r="C133" t="n">
-        <v>130.1</v>
+        <v>131.5</v>
       </c>
       <c r="D133" t="n">
-        <v>130.1</v>
+        <v>131.5</v>
       </c>
       <c r="E133" t="n">
-        <v>130.1</v>
+        <v>129.7</v>
       </c>
       <c r="F133" t="n">
-        <v>1444.2</v>
+        <v>2848.7091</v>
       </c>
       <c r="G133" t="n">
-        <v>-88355.3499853812</v>
+        <v>-109332.7068853812</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5142,9 +5420,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,39 +5429,40 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>131</v>
+        <v>129.9</v>
       </c>
       <c r="C134" t="n">
-        <v>131</v>
+        <v>129.9</v>
       </c>
       <c r="D134" t="n">
-        <v>131</v>
+        <v>129.9</v>
       </c>
       <c r="E134" t="n">
-        <v>131</v>
+        <v>129.9</v>
       </c>
       <c r="F134" t="n">
-        <v>991.6488000000001</v>
+        <v>200</v>
       </c>
       <c r="G134" t="n">
-        <v>-87363.7011853812</v>
+        <v>-109532.7068853812</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>133.1</v>
-      </c>
+      <c r="J134" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5194,28 +5471,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>131</v>
+        <v>129.9</v>
       </c>
       <c r="C135" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="D135" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="E135" t="n">
-        <v>131</v>
+        <v>129.9</v>
       </c>
       <c r="F135" t="n">
-        <v>20473.1154</v>
+        <v>1562.9999</v>
       </c>
       <c r="G135" t="n">
-        <v>-87363.7011853812</v>
+        <v>-107969.7069853812</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -5224,11 +5502,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>131</v>
-      </c>
-      <c r="K135" t="n">
-        <v>133.1</v>
-      </c>
+        <v>129.9</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5237,28 +5513,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="C136" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="D136" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="E136" t="n">
-        <v>131</v>
+        <v>129.7</v>
       </c>
       <c r="F136" t="n">
-        <v>9.650600000000001</v>
+        <v>19449.518</v>
       </c>
       <c r="G136" t="n">
-        <v>-87363.7011853812</v>
+        <v>-127419.2249853812</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -5267,11 +5544,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>131</v>
-      </c>
-      <c r="K136" t="n">
-        <v>133.1</v>
-      </c>
+        <v>130.9</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5280,1730 +5555,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>133</v>
-      </c>
-      <c r="C137" t="n">
-        <v>132</v>
-      </c>
-      <c r="D137" t="n">
-        <v>133</v>
-      </c>
-      <c r="E137" t="n">
-        <v>132</v>
-      </c>
-      <c r="F137" t="n">
-        <v>200</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-87163.7011853812</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>131</v>
-      </c>
-      <c r="K137" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>132</v>
-      </c>
-      <c r="C138" t="n">
-        <v>132</v>
-      </c>
-      <c r="D138" t="n">
-        <v>132</v>
-      </c>
-      <c r="E138" t="n">
-        <v>132</v>
-      </c>
-      <c r="F138" t="n">
-        <v>34.2555</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-87163.7011853812</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>130</v>
-      </c>
-      <c r="C139" t="n">
-        <v>130</v>
-      </c>
-      <c r="D139" t="n">
-        <v>130</v>
-      </c>
-      <c r="E139" t="n">
-        <v>130</v>
-      </c>
-      <c r="F139" t="n">
-        <v>7665.9888</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-94829.68998538121</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>131</v>
-      </c>
-      <c r="C140" t="n">
-        <v>131</v>
-      </c>
-      <c r="D140" t="n">
-        <v>131</v>
-      </c>
-      <c r="E140" t="n">
-        <v>131</v>
-      </c>
-      <c r="F140" t="n">
-        <v>28.9707</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-94800.7192853812</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="D141" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>49.3929</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-94850.11218538121</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>14162.1791</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-80687.93308538121</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>11830</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-92517.93308538121</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3830</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-92517.93308538121</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>130</v>
-      </c>
-      <c r="D145" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>130</v>
-      </c>
-      <c r="F145" t="n">
-        <v>643.8045</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-93161.73758538121</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>130</v>
-      </c>
-      <c r="C146" t="n">
-        <v>130</v>
-      </c>
-      <c r="D146" t="n">
-        <v>130</v>
-      </c>
-      <c r="E146" t="n">
-        <v>130</v>
-      </c>
-      <c r="F146" t="n">
-        <v>123</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-93161.73758538121</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4353.6424</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-97515.37998538121</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>130</v>
-      </c>
-      <c r="D148" t="n">
-        <v>132</v>
-      </c>
-      <c r="E148" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>8961</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-88554.37998538121</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>130</v>
-      </c>
-      <c r="C149" t="n">
-        <v>130</v>
-      </c>
-      <c r="D149" t="n">
-        <v>130</v>
-      </c>
-      <c r="E149" t="n">
-        <v>130</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1151</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-88554.37998538121</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>130</v>
-      </c>
-      <c r="C150" t="n">
-        <v>130</v>
-      </c>
-      <c r="D150" t="n">
-        <v>133</v>
-      </c>
-      <c r="E150" t="n">
-        <v>130</v>
-      </c>
-      <c r="F150" t="n">
-        <v>7360.9245</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-88554.37998538121</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>130</v>
-      </c>
-      <c r="C151" t="n">
-        <v>130</v>
-      </c>
-      <c r="D151" t="n">
-        <v>130</v>
-      </c>
-      <c r="E151" t="n">
-        <v>130</v>
-      </c>
-      <c r="F151" t="n">
-        <v>901.78</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-88554.37998538121</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>130</v>
-      </c>
-      <c r="C152" t="n">
-        <v>130</v>
-      </c>
-      <c r="D152" t="n">
-        <v>130</v>
-      </c>
-      <c r="E152" t="n">
-        <v>130</v>
-      </c>
-      <c r="F152" t="n">
-        <v>7.6924</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-88554.37998538121</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>130</v>
-      </c>
-      <c r="C153" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="D153" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="E153" t="n">
-        <v>129.1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>19975.5284</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-68578.85158538121</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C154" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D154" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="E154" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F154" t="n">
-        <v>21006.4733</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-89585.32488538121</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C155" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D155" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E155" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>600</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-89585.32488538121</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C156" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-89585.32488538121</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-89585.32488538121</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>18060.9778</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-107646.3026853812</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>200</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-107446.3026853812</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D160" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1715</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-107446.3026853812</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C161" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D161" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E161" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-107446.3026853812</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1315</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-107446.3026853812</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>129</v>
-      </c>
-      <c r="C163" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>129</v>
-      </c>
-      <c r="F163" t="n">
-        <v>524</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-107446.3026853812</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>130</v>
-      </c>
-      <c r="C164" t="n">
-        <v>130</v>
-      </c>
-      <c r="D164" t="n">
-        <v>130</v>
-      </c>
-      <c r="E164" t="n">
-        <v>130</v>
-      </c>
-      <c r="F164" t="n">
-        <v>151.8712</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-107294.4314853812</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>130</v>
-      </c>
-      <c r="C165" t="n">
-        <v>130</v>
-      </c>
-      <c r="D165" t="n">
-        <v>130</v>
-      </c>
-      <c r="E165" t="n">
-        <v>130</v>
-      </c>
-      <c r="F165" t="n">
-        <v>7.041</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-107294.4314853812</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>130</v>
-      </c>
-      <c r="C166" t="n">
-        <v>130</v>
-      </c>
-      <c r="D166" t="n">
-        <v>130</v>
-      </c>
-      <c r="E166" t="n">
-        <v>130</v>
-      </c>
-      <c r="F166" t="n">
-        <v>3774.1598</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-107294.4314853812</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C167" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="E167" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F167" t="n">
-        <v>273</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-107567.4314853812</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C168" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="D168" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="E168" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F168" t="n">
-        <v>11209.5664</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-107567.4314853812</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C169" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="E169" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3350.6497</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-107567.4314853812</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>131</v>
-      </c>
-      <c r="C170" t="n">
-        <v>131</v>
-      </c>
-      <c r="D170" t="n">
-        <v>131</v>
-      </c>
-      <c r="E170" t="n">
-        <v>131</v>
-      </c>
-      <c r="F170" t="n">
-        <v>99.708</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-107467.7234853812</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>131</v>
-      </c>
-      <c r="C171" t="n">
-        <v>131</v>
-      </c>
-      <c r="D171" t="n">
-        <v>131</v>
-      </c>
-      <c r="E171" t="n">
-        <v>131</v>
-      </c>
-      <c r="F171" t="n">
-        <v>59.9144</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-107467.7234853812</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="C172" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="D172" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="E172" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="F172" t="n">
-        <v>4</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-107463.7234853812</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="C173" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="D173" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="E173" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="F173" t="n">
-        <v>24.483</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-107463.7234853812</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="C174" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="E174" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4717.6925</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-112181.4159853812</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>130</v>
-      </c>
-      <c r="C175" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2848.7091</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-109332.7068853812</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C176" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="D176" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="E176" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F176" t="n">
-        <v>200</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-109532.7068853812</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C177" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="D177" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="E177" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1562.9999</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-107969.7069853812</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="C178" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="D178" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="F178" t="n">
-        <v>19449.518</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-127419.2249853812</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="n">
-        <v>132</v>
+        <v>131.7</v>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>131.7</v>
       </c>
       <c r="E2" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="n">
-        <v>162.5484</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>-20014.51938538121</v>
+        <v>102762.8888997529</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>131</v>
+        <v>131.7</v>
       </c>
       <c r="C3" t="n">
-        <v>131</v>
+        <v>132.8</v>
       </c>
       <c r="D3" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E3" t="n">
-        <v>131</v>
+        <v>131.7</v>
       </c>
       <c r="F3" t="n">
-        <v>45.0925</v>
+        <v>301</v>
       </c>
       <c r="G3" t="n">
-        <v>-20059.6118853812</v>
+        <v>103063.8888997529</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" t="n">
-        <v>288</v>
+        <v>69.0395</v>
       </c>
       <c r="G4" t="n">
-        <v>-19771.6118853812</v>
+        <v>102994.8493997529</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>132.9</v>
+        <v>132.8</v>
       </c>
       <c r="C5" t="n">
-        <v>132.9</v>
+        <v>132.8</v>
       </c>
       <c r="D5" t="n">
-        <v>132.9</v>
+        <v>132.8</v>
       </c>
       <c r="E5" t="n">
-        <v>132.9</v>
+        <v>132.8</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>-19767.6118853812</v>
+        <v>102998.8493997529</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>132.8</v>
+        <v>134.9</v>
       </c>
       <c r="C6" t="n">
-        <v>130.7</v>
+        <v>134.9</v>
       </c>
       <c r="D6" t="n">
-        <v>132.8</v>
+        <v>134.9</v>
       </c>
       <c r="E6" t="n">
-        <v>130.7</v>
+        <v>134.9</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>-19775.6118853812</v>
+        <v>103002.8493997529</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>130.7</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
-        <v>130.7</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
-        <v>130.7</v>
+        <v>132</v>
       </c>
       <c r="E7" t="n">
-        <v>130.7</v>
+        <v>132</v>
       </c>
       <c r="F7" t="n">
-        <v>44.93</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>-19775.6118853812</v>
+        <v>102987.8493997529</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="C8" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="D8" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="E8" t="n">
-        <v>128</v>
+        <v>130.1</v>
       </c>
       <c r="F8" t="n">
-        <v>3442.8133</v>
+        <v>713.9999</v>
       </c>
       <c r="G8" t="n">
-        <v>-19775.6118853812</v>
+        <v>102273.8494997529</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="C9" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="D9" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="E9" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="F9" t="n">
-        <v>521.0939</v>
+        <v>1311.83</v>
       </c>
       <c r="G9" t="n">
-        <v>-19775.6118853812</v>
+        <v>102273.8494997529</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="C10" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="D10" t="n">
-        <v>131.7</v>
+        <v>130.1</v>
       </c>
       <c r="E10" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1814.8233</v>
+        <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>-19775.6118853812</v>
+        <v>102273.8494997529</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D11" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E11" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" t="n">
-        <v>656.3208</v>
+        <v>103.6793</v>
       </c>
       <c r="G11" t="n">
-        <v>-19119.2910853812</v>
+        <v>102377.528799753</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="C12" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="D12" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
       <c r="E12" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>7495.3261</v>
       </c>
       <c r="G12" t="n">
-        <v>-19102.2910853812</v>
+        <v>94882.20269975295</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129.7</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
-        <v>129.7</v>
+        <v>138</v>
       </c>
       <c r="D13" t="n">
-        <v>129.7</v>
+        <v>138</v>
       </c>
       <c r="E13" t="n">
-        <v>129.7</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
-        <v>61.125</v>
+        <v>4402.01</v>
       </c>
       <c r="G13" t="n">
-        <v>-19163.4160853812</v>
+        <v>99284.21269975294</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C14" t="n">
-        <v>136.8</v>
+        <v>134</v>
       </c>
       <c r="D14" t="n">
-        <v>136.8</v>
+        <v>139</v>
       </c>
       <c r="E14" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" t="n">
-        <v>1200</v>
+        <v>2450.8834</v>
       </c>
       <c r="G14" t="n">
-        <v>-17963.4160853812</v>
+        <v>96833.32929975294</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" t="n">
         <v>131</v>
       </c>
       <c r="D15" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" t="n">
         <v>131</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>1306.55</v>
       </c>
       <c r="G15" t="n">
-        <v>-17971.4160853812</v>
+        <v>95526.77929975293</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,10 +942,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D16" t="n">
         <v>133</v>
@@ -954,10 +954,10 @@
         <v>131</v>
       </c>
       <c r="F16" t="n">
-        <v>1887.3935</v>
+        <v>146.28</v>
       </c>
       <c r="G16" t="n">
-        <v>-16084.0225853812</v>
+        <v>95526.77929975293</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
-        <v>132.8</v>
+        <v>136</v>
       </c>
       <c r="D17" t="n">
-        <v>132.8</v>
+        <v>136</v>
       </c>
       <c r="E17" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>-16484.0225853812</v>
+        <v>95542.77929975293</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D18" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E18" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" t="n">
-        <v>9.99</v>
+        <v>6216.3714</v>
       </c>
       <c r="G18" t="n">
-        <v>-16494.0125853812</v>
+        <v>95542.77929975293</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>132</v>
+        <v>131.2</v>
       </c>
       <c r="C19" t="n">
-        <v>132</v>
+        <v>131.2</v>
       </c>
       <c r="D19" t="n">
-        <v>132</v>
+        <v>131.2</v>
       </c>
       <c r="E19" t="n">
-        <v>132</v>
+        <v>131.2</v>
       </c>
       <c r="F19" t="n">
-        <v>458</v>
+        <v>4057</v>
       </c>
       <c r="G19" t="n">
-        <v>-16036.0125853812</v>
+        <v>91485.77929975293</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>131</v>
+        <v>131.2</v>
       </c>
       <c r="C20" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E20" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" t="n">
-        <v>159</v>
+        <v>666.58</v>
       </c>
       <c r="G20" t="n">
-        <v>-16195.0125853812</v>
+        <v>90819.19929975293</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C21" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D21" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E21" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F21" t="n">
-        <v>837.6825</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>-16195.0125853812</v>
+        <v>90827.19929975293</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C22" t="n">
-        <v>131.9</v>
+        <v>133</v>
       </c>
       <c r="D22" t="n">
-        <v>131.9</v>
+        <v>133</v>
       </c>
       <c r="E22" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F22" t="n">
-        <v>6138.743</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>-10056.2695853812</v>
+        <v>90817.19929975293</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C23" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D23" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E23" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G23" t="n">
-        <v>-10116.2695853812</v>
+        <v>90921.19929975293</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C24" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D24" t="n">
-        <v>130.1</v>
+        <v>135</v>
       </c>
       <c r="E24" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F24" t="n">
-        <v>447.7825</v>
+        <v>1087.19</v>
       </c>
       <c r="G24" t="n">
-        <v>-10564.0520853812</v>
+        <v>89834.00929975293</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C25" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D25" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E25" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F25" t="n">
-        <v>1463.6569</v>
+        <v>58.12</v>
       </c>
       <c r="G25" t="n">
-        <v>-10564.0520853812</v>
+        <v>89775.88929975293</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C26" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D26" t="n">
-        <v>130.1</v>
+        <v>136</v>
       </c>
       <c r="E26" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F26" t="n">
-        <v>2941</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>-7623.052085381201</v>
+        <v>89779.88929975293</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C27" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D27" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F27" t="n">
-        <v>840.329</v>
+        <v>759.961</v>
       </c>
       <c r="G27" t="n">
-        <v>-6782.723085381202</v>
+        <v>89019.92829975294</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C28" t="n">
-        <v>126.8</v>
+        <v>131</v>
       </c>
       <c r="D28" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E28" t="n">
-        <v>126.8</v>
+        <v>131</v>
       </c>
       <c r="F28" t="n">
-        <v>3231.3429</v>
+        <v>1553.3798</v>
       </c>
       <c r="G28" t="n">
-        <v>-10014.0659853812</v>
+        <v>89019.92829975294</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>129.1</v>
+        <v>131</v>
       </c>
       <c r="C29" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="D29" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="E29" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F29" t="n">
-        <v>2627</v>
+        <v>200</v>
       </c>
       <c r="G29" t="n">
-        <v>-7387.065985381201</v>
+        <v>89219.92829975294</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>127.2</v>
+        <v>137</v>
       </c>
       <c r="C30" t="n">
-        <v>129.9</v>
+        <v>137</v>
       </c>
       <c r="D30" t="n">
-        <v>129.9</v>
+        <v>137</v>
       </c>
       <c r="E30" t="n">
-        <v>126.2</v>
+        <v>137</v>
       </c>
       <c r="F30" t="n">
-        <v>5315.2043</v>
+        <v>112</v>
       </c>
       <c r="G30" t="n">
-        <v>-12702.2702853812</v>
+        <v>89331.92829975294</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>130.1</v>
+        <v>137</v>
       </c>
       <c r="C31" t="n">
-        <v>130.1</v>
+        <v>132.1</v>
       </c>
       <c r="D31" t="n">
-        <v>130.1</v>
+        <v>137</v>
       </c>
       <c r="E31" t="n">
-        <v>130.1</v>
+        <v>132.1</v>
       </c>
       <c r="F31" t="n">
-        <v>6616.9889</v>
+        <v>464.41</v>
       </c>
       <c r="G31" t="n">
-        <v>-6085.2813853812</v>
+        <v>88867.51829975293</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="C32" t="n">
-        <v>130.1</v>
+        <v>135</v>
       </c>
       <c r="D32" t="n">
-        <v>130.1</v>
+        <v>135</v>
       </c>
       <c r="E32" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="F32" t="n">
-        <v>5749.7249</v>
+        <v>110</v>
       </c>
       <c r="G32" t="n">
-        <v>-6085.2813853812</v>
+        <v>88977.51829975293</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>131.5</v>
+        <v>132</v>
       </c>
       <c r="C33" t="n">
-        <v>131.5</v>
+        <v>133.3</v>
       </c>
       <c r="D33" t="n">
-        <v>131.5</v>
+        <v>139.9</v>
       </c>
       <c r="E33" t="n">
-        <v>131.5</v>
+        <v>131.2</v>
       </c>
       <c r="F33" t="n">
-        <v>14196.3491</v>
+        <v>6931.0324</v>
       </c>
       <c r="G33" t="n">
-        <v>8111.067714618799</v>
+        <v>82046.48589975294</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D34" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E34" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" t="n">
-        <v>4.888</v>
+        <v>593.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>8115.955714618799</v>
+        <v>81452.48599975294</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>132</v>
+        <v>133.5</v>
       </c>
       <c r="C35" t="n">
-        <v>137.2</v>
+        <v>133.5</v>
       </c>
       <c r="D35" t="n">
-        <v>137.2</v>
+        <v>133.5</v>
       </c>
       <c r="E35" t="n">
-        <v>129.2</v>
+        <v>133.5</v>
       </c>
       <c r="F35" t="n">
-        <v>7000</v>
+        <v>421</v>
       </c>
       <c r="G35" t="n">
-        <v>15115.9557146188</v>
+        <v>81873.48599975294</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>131.3</v>
+        <v>134</v>
       </c>
       <c r="C36" t="n">
-        <v>136.2</v>
+        <v>133</v>
       </c>
       <c r="D36" t="n">
-        <v>136.2</v>
+        <v>134</v>
       </c>
       <c r="E36" t="n">
-        <v>131.3</v>
+        <v>133</v>
       </c>
       <c r="F36" t="n">
-        <v>290.65</v>
+        <v>498.4999</v>
       </c>
       <c r="G36" t="n">
-        <v>14825.3057146188</v>
+        <v>81374.98609975295</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>132</v>
+        <v>131.1</v>
       </c>
       <c r="C37" t="n">
-        <v>136.2</v>
+        <v>131.1</v>
       </c>
       <c r="D37" t="n">
-        <v>136.2</v>
+        <v>131.1</v>
       </c>
       <c r="E37" t="n">
-        <v>132</v>
+        <v>131.1</v>
       </c>
       <c r="F37" t="n">
-        <v>1831.7029</v>
+        <v>1332.8278</v>
       </c>
       <c r="G37" t="n">
-        <v>14825.3057146188</v>
+        <v>80042.15829975295</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>136.2</v>
+        <v>135</v>
       </c>
       <c r="C38" t="n">
-        <v>136.2</v>
+        <v>138.8</v>
       </c>
       <c r="D38" t="n">
-        <v>136.2</v>
+        <v>138.8</v>
       </c>
       <c r="E38" t="n">
-        <v>136.2</v>
+        <v>135</v>
       </c>
       <c r="F38" t="n">
-        <v>3.8573</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>14825.3057146188</v>
+        <v>80053.15829975295</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" t="n">
         <v>131.1</v>
       </c>
       <c r="D39" t="n">
-        <v>132</v>
+        <v>137.9</v>
       </c>
       <c r="E39" t="n">
-        <v>131.1</v>
+        <v>130.1</v>
       </c>
       <c r="F39" t="n">
-        <v>799.9434</v>
+        <v>3969.337485134155</v>
       </c>
       <c r="G39" t="n">
-        <v>14025.3623146188</v>
+        <v>76083.8208146188</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>133.9</v>
+        <v>131.1</v>
       </c>
       <c r="C40" t="n">
-        <v>131.4</v>
+        <v>131.1</v>
       </c>
       <c r="D40" t="n">
-        <v>133.9</v>
+        <v>131.1</v>
       </c>
       <c r="E40" t="n">
-        <v>131.4</v>
+        <v>131.1</v>
       </c>
       <c r="F40" t="n">
-        <v>7196.7376</v>
+        <v>293</v>
       </c>
       <c r="G40" t="n">
-        <v>21222.0999146188</v>
+        <v>76083.8208146188</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>132.5</v>
+        <v>131</v>
       </c>
       <c r="C41" t="n">
-        <v>132.5</v>
+        <v>130</v>
       </c>
       <c r="D41" t="n">
-        <v>132.5</v>
+        <v>131</v>
       </c>
       <c r="E41" t="n">
-        <v>132.5</v>
+        <v>130</v>
       </c>
       <c r="F41" t="n">
-        <v>1030</v>
+        <v>2396.3375</v>
       </c>
       <c r="G41" t="n">
-        <v>22252.0999146188</v>
+        <v>73687.4833146188</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="C42" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D42" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="E42" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F42" t="n">
-        <v>13.9718</v>
+        <v>220.6528</v>
       </c>
       <c r="G42" t="n">
-        <v>22266.0717146188</v>
+        <v>73908.1361146188</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="C43" t="n">
-        <v>135.1</v>
+        <v>132</v>
       </c>
       <c r="D43" t="n">
-        <v>135.1</v>
+        <v>132</v>
       </c>
       <c r="E43" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>116.6388</v>
       </c>
       <c r="G43" t="n">
-        <v>22272.0717146188</v>
+        <v>74024.7749146188</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="C44" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="D44" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="E44" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="F44" t="n">
-        <v>668.5683</v>
+        <v>43.3505</v>
       </c>
       <c r="G44" t="n">
-        <v>22272.0717146188</v>
+        <v>73981.4244146188</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="C45" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="D45" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="E45" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="F45" t="n">
-        <v>604.9153</v>
+        <v>53.9893</v>
       </c>
       <c r="G45" t="n">
-        <v>22272.0717146188</v>
+        <v>73981.4244146188</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>135.1</v>
+        <v>131</v>
       </c>
       <c r="C46" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" t="n">
-        <v>136.1</v>
+        <v>131</v>
       </c>
       <c r="E46" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F46" t="n">
-        <v>18865.8563</v>
+        <v>11363.5304</v>
       </c>
       <c r="G46" t="n">
-        <v>3406.215414618797</v>
+        <v>62617.8940146188</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C47" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D47" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E47" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F47" t="n">
-        <v>508.8354</v>
+        <v>510.7848</v>
       </c>
       <c r="G47" t="n">
-        <v>3915.050814618797</v>
+        <v>63128.6788146188</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C48" t="n">
-        <v>136.8</v>
+        <v>130</v>
       </c>
       <c r="D48" t="n">
-        <v>136.8</v>
+        <v>130</v>
       </c>
       <c r="E48" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F48" t="n">
-        <v>1098</v>
+        <v>8000</v>
       </c>
       <c r="G48" t="n">
-        <v>5013.050814618797</v>
+        <v>55128.6788146188</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C49" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F49" t="n">
-        <v>151.2507</v>
+        <v>16875.9897</v>
       </c>
       <c r="G49" t="n">
-        <v>4861.800114618797</v>
+        <v>72004.6685146188</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C50" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D50" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E50" t="n">
-        <v>134.2</v>
+        <v>129</v>
       </c>
       <c r="F50" t="n">
-        <v>757</v>
+        <v>56851.1516</v>
       </c>
       <c r="G50" t="n">
-        <v>5618.800114618797</v>
+        <v>15153.5169146188</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>137.2</v>
+        <v>129</v>
       </c>
       <c r="C51" t="n">
-        <v>137.2</v>
+        <v>129</v>
       </c>
       <c r="D51" t="n">
-        <v>137.2</v>
+        <v>129</v>
       </c>
       <c r="E51" t="n">
-        <v>137.2</v>
+        <v>129</v>
       </c>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>5624.800114618797</v>
+        <v>15153.5169146188</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C52" t="n">
-        <v>136.2</v>
+        <v>128</v>
       </c>
       <c r="D52" t="n">
-        <v>136.2</v>
+        <v>128</v>
       </c>
       <c r="E52" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F52" t="n">
-        <v>669</v>
+        <v>1836.0756</v>
       </c>
       <c r="G52" t="n">
-        <v>4955.800114618797</v>
+        <v>13317.4413146188</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>134.1</v>
+        <v>127</v>
       </c>
       <c r="C53" t="n">
-        <v>135.2</v>
+        <v>127</v>
       </c>
       <c r="D53" t="n">
-        <v>135.2</v>
+        <v>127</v>
       </c>
       <c r="E53" t="n">
-        <v>134.1</v>
+        <v>127</v>
       </c>
       <c r="F53" t="n">
-        <v>4361</v>
+        <v>123.5768</v>
       </c>
       <c r="G53" t="n">
-        <v>594.8001146187971</v>
+        <v>13193.8645146188</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>134.2</v>
+        <v>128</v>
       </c>
       <c r="C54" t="n">
-        <v>136.2</v>
+        <v>128</v>
       </c>
       <c r="D54" t="n">
-        <v>136.2</v>
+        <v>128</v>
       </c>
       <c r="E54" t="n">
-        <v>134.2</v>
+        <v>128</v>
       </c>
       <c r="F54" t="n">
-        <v>6514.4269</v>
+        <v>5600</v>
       </c>
       <c r="G54" t="n">
-        <v>7109.227014618798</v>
+        <v>18793.8645146188</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>135.2</v>
+        <v>128</v>
       </c>
       <c r="C55" t="n">
-        <v>136.2</v>
+        <v>128</v>
       </c>
       <c r="D55" t="n">
-        <v>137.2</v>
+        <v>128</v>
       </c>
       <c r="E55" t="n">
-        <v>135.2</v>
+        <v>128</v>
       </c>
       <c r="F55" t="n">
-        <v>17</v>
+        <v>9400</v>
       </c>
       <c r="G55" t="n">
-        <v>7109.227014618798</v>
+        <v>18793.8645146188</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>134.4</v>
+        <v>128</v>
       </c>
       <c r="C56" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D56" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E56" t="n">
-        <v>134.3</v>
+        <v>128</v>
       </c>
       <c r="F56" t="n">
-        <v>6986.9671</v>
+        <v>480</v>
       </c>
       <c r="G56" t="n">
-        <v>122.2599146187977</v>
+        <v>18793.8645146188</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>135</v>
+        <v>129.6</v>
       </c>
       <c r="C57" t="n">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D57" t="n">
-        <v>135</v>
+        <v>129.6</v>
       </c>
       <c r="E57" t="n">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F57" t="n">
-        <v>97.7482</v>
+        <v>34310.6013</v>
       </c>
       <c r="G57" t="n">
-        <v>24.51171461879767</v>
+        <v>-15516.7367853812</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C58" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D58" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E58" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F58" t="n">
-        <v>518.7482</v>
+        <v>5616</v>
       </c>
       <c r="G58" t="n">
-        <v>-494.2364853812023</v>
+        <v>-15516.7367853812</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C59" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D59" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E59" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F59" t="n">
-        <v>726.8549</v>
+        <v>1653</v>
       </c>
       <c r="G59" t="n">
-        <v>232.6184146187977</v>
+        <v>-13863.7367853812</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C60" t="n">
-        <v>132</v>
+        <v>129.3</v>
       </c>
       <c r="D60" t="n">
-        <v>132</v>
+        <v>129.3</v>
       </c>
       <c r="E60" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F60" t="n">
-        <v>6166.7376</v>
+        <v>20726.087</v>
       </c>
       <c r="G60" t="n">
-        <v>-5934.119185381202</v>
+        <v>6862.350214618797</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>132.2</v>
+        <v>129.5</v>
       </c>
       <c r="C61" t="n">
-        <v>132.2</v>
+        <v>129.5</v>
       </c>
       <c r="D61" t="n">
-        <v>132.2</v>
+        <v>129.5</v>
       </c>
       <c r="E61" t="n">
-        <v>132.2</v>
+        <v>129.5</v>
       </c>
       <c r="F61" t="n">
-        <v>9852.197200000001</v>
+        <v>21</v>
       </c>
       <c r="G61" t="n">
-        <v>3918.078014618798</v>
+        <v>6883.350214618797</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>134</v>
+        <v>129.4</v>
       </c>
       <c r="C62" t="n">
-        <v>134</v>
+        <v>129.4</v>
       </c>
       <c r="D62" t="n">
-        <v>134</v>
+        <v>129.4</v>
       </c>
       <c r="E62" t="n">
-        <v>134</v>
+        <v>129.4</v>
       </c>
       <c r="F62" t="n">
-        <v>574</v>
+        <v>452</v>
       </c>
       <c r="G62" t="n">
-        <v>4492.078014618798</v>
+        <v>6431.350214618797</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>133.9</v>
+        <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="D63" t="n">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="E63" t="n">
-        <v>133.9</v>
+        <v>129</v>
       </c>
       <c r="F63" t="n">
-        <v>533.3537</v>
+        <v>1029.2019</v>
       </c>
       <c r="G63" t="n">
-        <v>3958.724314618798</v>
+        <v>6431.350214618797</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="C64" t="n">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="D64" t="n">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="E64" t="n">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="G64" t="n">
-        <v>3958.724314618798</v>
+        <v>6431.350214618797</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,28 +2706,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="C65" t="n">
-        <v>133.2</v>
+        <v>129.4</v>
       </c>
       <c r="D65" t="n">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="E65" t="n">
-        <v>133.2</v>
+        <v>129.4</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="G65" t="n">
-        <v>3950.724314618798</v>
+        <v>6431.350214618797</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>133.9</v>
+        <v>129.3</v>
       </c>
       <c r="C66" t="n">
-        <v>134.8</v>
+        <v>129.3</v>
       </c>
       <c r="D66" t="n">
-        <v>134.8</v>
+        <v>129.5</v>
       </c>
       <c r="E66" t="n">
-        <v>133.9</v>
+        <v>129.3</v>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>26567.25</v>
       </c>
       <c r="G66" t="n">
-        <v>4750.724314618798</v>
+        <v>-20135.8997853812</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>133.2</v>
+        <v>130</v>
       </c>
       <c r="C67" t="n">
-        <v>133.8</v>
+        <v>130</v>
       </c>
       <c r="D67" t="n">
-        <v>134.9</v>
+        <v>130</v>
       </c>
       <c r="E67" t="n">
-        <v>132.3</v>
+        <v>130</v>
       </c>
       <c r="F67" t="n">
-        <v>24084.05</v>
+        <v>1298.1911</v>
       </c>
       <c r="G67" t="n">
-        <v>-19333.3256853812</v>
+        <v>-18837.7086853812</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>134.1</v>
+        <v>131</v>
       </c>
       <c r="C68" t="n">
-        <v>134.1</v>
+        <v>131</v>
       </c>
       <c r="D68" t="n">
-        <v>134.1</v>
+        <v>131</v>
       </c>
       <c r="E68" t="n">
-        <v>134.1</v>
+        <v>131</v>
       </c>
       <c r="F68" t="n">
-        <v>433</v>
+        <v>76</v>
       </c>
       <c r="G68" t="n">
-        <v>-18900.3256853812</v>
+        <v>-18761.7086853812</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>133.1</v>
+        <v>131</v>
       </c>
       <c r="C69" t="n">
-        <v>133.1</v>
+        <v>131</v>
       </c>
       <c r="D69" t="n">
-        <v>133.1</v>
+        <v>131</v>
       </c>
       <c r="E69" t="n">
-        <v>133.1</v>
+        <v>131</v>
       </c>
       <c r="F69" t="n">
-        <v>150.2671</v>
+        <v>76.3359</v>
       </c>
       <c r="G69" t="n">
-        <v>-19050.5927853812</v>
+        <v>-18761.7086853812</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>133.9</v>
+        <v>131</v>
       </c>
       <c r="C70" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D70" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E70" t="n">
-        <v>133.9</v>
+        <v>131</v>
       </c>
       <c r="F70" t="n">
-        <v>2500</v>
+        <v>76.3359</v>
       </c>
       <c r="G70" t="n">
-        <v>-16550.5927853812</v>
+        <v>-18761.7086853812</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>134.6</v>
+        <v>131</v>
       </c>
       <c r="C71" t="n">
-        <v>134.6</v>
+        <v>131.9</v>
       </c>
       <c r="D71" t="n">
-        <v>134.6</v>
+        <v>131.9</v>
       </c>
       <c r="E71" t="n">
-        <v>134.6</v>
+        <v>131</v>
       </c>
       <c r="F71" t="n">
-        <v>447</v>
+        <v>207.6409</v>
       </c>
       <c r="G71" t="n">
-        <v>-16997.5927853812</v>
+        <v>-18554.0677853812</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>134.6</v>
+        <v>131.8</v>
       </c>
       <c r="C72" t="n">
-        <v>134.1</v>
+        <v>131.7</v>
       </c>
       <c r="D72" t="n">
-        <v>134.6</v>
+        <v>132</v>
       </c>
       <c r="E72" t="n">
-        <v>134.1</v>
+        <v>131.7</v>
       </c>
       <c r="F72" t="n">
-        <v>1302.8654</v>
+        <v>1623</v>
       </c>
       <c r="G72" t="n">
-        <v>-18300.4581853812</v>
+        <v>-20177.0677853812</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>133.6</v>
+        <v>132</v>
       </c>
       <c r="C73" t="n">
-        <v>133.6</v>
+        <v>132</v>
       </c>
       <c r="D73" t="n">
-        <v>133.6</v>
+        <v>132</v>
       </c>
       <c r="E73" t="n">
-        <v>133.6</v>
+        <v>132</v>
       </c>
       <c r="F73" t="n">
-        <v>2600</v>
+        <v>162.5484</v>
       </c>
       <c r="G73" t="n">
-        <v>-20900.4581853812</v>
+        <v>-20014.51938538121</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>132.1</v>
+        <v>131</v>
       </c>
       <c r="C74" t="n">
-        <v>133.1</v>
+        <v>131</v>
       </c>
       <c r="D74" t="n">
-        <v>133.1</v>
+        <v>131</v>
       </c>
       <c r="E74" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F74" t="n">
-        <v>37885.6159</v>
+        <v>45.0925</v>
       </c>
       <c r="G74" t="n">
-        <v>-58786.0740853812</v>
+        <v>-20059.6118853812</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="C75" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="D75" t="n">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="E75" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="F75" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="G75" t="n">
-        <v>-58786.0740853812</v>
+        <v>-19771.6118853812</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="C76" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="D76" t="n">
-        <v>134.1</v>
+        <v>132.9</v>
       </c>
       <c r="E76" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="F76" t="n">
-        <v>2086.125</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>-60872.1990853812</v>
+        <v>-19767.6118853812</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>133.1</v>
+        <v>132.8</v>
       </c>
       <c r="C77" t="n">
-        <v>133.1</v>
+        <v>130.7</v>
       </c>
       <c r="D77" t="n">
-        <v>133.1</v>
+        <v>132.8</v>
       </c>
       <c r="E77" t="n">
-        <v>133.1</v>
+        <v>130.7</v>
       </c>
       <c r="F77" t="n">
-        <v>968.6814000000001</v>
+        <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>-59903.5176853812</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>133</v>
+        <v>130.7</v>
       </c>
       <c r="C78" t="n">
-        <v>133</v>
+        <v>130.7</v>
       </c>
       <c r="D78" t="n">
-        <v>133</v>
+        <v>130.7</v>
       </c>
       <c r="E78" t="n">
-        <v>133</v>
+        <v>130.7</v>
       </c>
       <c r="F78" t="n">
-        <v>2621</v>
+        <v>44.93</v>
       </c>
       <c r="G78" t="n">
-        <v>-62524.5176853812</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>133.1</v>
+        <v>130.7</v>
       </c>
       <c r="C79" t="n">
-        <v>133.1</v>
+        <v>130.7</v>
       </c>
       <c r="D79" t="n">
-        <v>133.1</v>
+        <v>130.7</v>
       </c>
       <c r="E79" t="n">
-        <v>133.1</v>
+        <v>128</v>
       </c>
       <c r="F79" t="n">
-        <v>2254</v>
+        <v>3442.8133</v>
       </c>
       <c r="G79" t="n">
-        <v>-60270.5176853812</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>132</v>
+        <v>130.7</v>
       </c>
       <c r="C80" t="n">
-        <v>132</v>
+        <v>130.7</v>
       </c>
       <c r="D80" t="n">
-        <v>132</v>
+        <v>130.7</v>
       </c>
       <c r="E80" t="n">
-        <v>132</v>
+        <v>130.7</v>
       </c>
       <c r="F80" t="n">
-        <v>11081.8643</v>
+        <v>521.0939</v>
       </c>
       <c r="G80" t="n">
-        <v>-71352.3819853812</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>132</v>
+        <v>130.7</v>
       </c>
       <c r="C81" t="n">
-        <v>132.5</v>
+        <v>130.7</v>
       </c>
       <c r="D81" t="n">
-        <v>132.5</v>
+        <v>131.7</v>
       </c>
       <c r="E81" t="n">
-        <v>132</v>
+        <v>130.7</v>
       </c>
       <c r="F81" t="n">
-        <v>5781</v>
+        <v>1814.8233</v>
       </c>
       <c r="G81" t="n">
-        <v>-65571.3819853812</v>
+        <v>-19775.6118853812</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F82" t="n">
-        <v>595</v>
+        <v>656.3208</v>
       </c>
       <c r="G82" t="n">
-        <v>-66166.3819853812</v>
+        <v>-19119.2910853812</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3366,10 +3366,10 @@
         <v>132</v>
       </c>
       <c r="F83" t="n">
-        <v>594</v>
+        <v>17</v>
       </c>
       <c r="G83" t="n">
-        <v>-66166.3819853812</v>
+        <v>-19102.2910853812</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>132</v>
+        <v>129.7</v>
       </c>
       <c r="C84" t="n">
-        <v>132</v>
+        <v>129.7</v>
       </c>
       <c r="D84" t="n">
-        <v>132</v>
+        <v>129.7</v>
       </c>
       <c r="E84" t="n">
-        <v>132</v>
+        <v>129.7</v>
       </c>
       <c r="F84" t="n">
-        <v>501.4283</v>
+        <v>61.125</v>
       </c>
       <c r="G84" t="n">
-        <v>-66166.3819853812</v>
+        <v>-19163.4160853812</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>130.2</v>
+        <v>131</v>
       </c>
       <c r="C85" t="n">
-        <v>131.6</v>
+        <v>136.8</v>
       </c>
       <c r="D85" t="n">
-        <v>131.6</v>
+        <v>136.8</v>
       </c>
       <c r="E85" t="n">
-        <v>129.9</v>
+        <v>131</v>
       </c>
       <c r="F85" t="n">
-        <v>8802.956899999999</v>
+        <v>1200</v>
       </c>
       <c r="G85" t="n">
-        <v>-74969.33888538121</v>
+        <v>-17963.4160853812</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>131.6</v>
+        <v>133</v>
       </c>
       <c r="C86" t="n">
-        <v>130.9</v>
+        <v>131</v>
       </c>
       <c r="D86" t="n">
-        <v>131.6</v>
+        <v>133</v>
       </c>
       <c r="E86" t="n">
-        <v>130.9</v>
+        <v>131</v>
       </c>
       <c r="F86" t="n">
-        <v>2180</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>-77149.33888538121</v>
+        <v>-17971.4160853812</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3501,19 +3501,19 @@
         <v>132</v>
       </c>
       <c r="C87" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="D87" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="E87" t="n">
         <v>131</v>
       </c>
       <c r="F87" t="n">
-        <v>577.8736</v>
+        <v>1887.3935</v>
       </c>
       <c r="G87" t="n">
-        <v>-76571.4652853812</v>
+        <v>-16084.0225853812</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>131.5</v>
+        <v>132</v>
       </c>
       <c r="C88" t="n">
-        <v>131.5</v>
+        <v>132.8</v>
       </c>
       <c r="D88" t="n">
-        <v>131.5</v>
+        <v>132.8</v>
       </c>
       <c r="E88" t="n">
-        <v>131.5</v>
+        <v>132</v>
       </c>
       <c r="F88" t="n">
-        <v>226.7123</v>
+        <v>400</v>
       </c>
       <c r="G88" t="n">
-        <v>-76798.1775853812</v>
+        <v>-16484.0225853812</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         <v>131</v>
       </c>
       <c r="E89" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F89" t="n">
-        <v>1308.4706</v>
+        <v>9.99</v>
       </c>
       <c r="G89" t="n">
-        <v>-78106.6481853812</v>
+        <v>-16494.0125853812</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,38 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="C90" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="D90" t="n">
-        <v>130.1</v>
+        <v>132</v>
       </c>
       <c r="E90" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F90" t="n">
-        <v>10248.7018</v>
+        <v>458</v>
       </c>
       <c r="G90" t="n">
-        <v>-88355.3499853812</v>
+        <v>-16036.0125853812</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>131</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3648,38 +3642,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="C91" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="D91" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="E91" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="F91" t="n">
-        <v>1444.2</v>
+        <v>159</v>
       </c>
       <c r="G91" t="n">
-        <v>-88355.3499853812</v>
+        <v>-16195.0125853812</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>130.1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3702,26 +3690,20 @@
         <v>131</v>
       </c>
       <c r="F92" t="n">
-        <v>991.6488000000001</v>
+        <v>837.6825</v>
       </c>
       <c r="G92" t="n">
-        <v>-87363.7011853812</v>
+        <v>-16195.0125853812</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>130.1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3732,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C93" t="n">
-        <v>131</v>
+        <v>131.9</v>
       </c>
       <c r="D93" t="n">
-        <v>131</v>
+        <v>131.9</v>
       </c>
       <c r="E93" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F93" t="n">
-        <v>20473.1154</v>
+        <v>6138.743</v>
       </c>
       <c r="G93" t="n">
-        <v>-87363.7011853812</v>
+        <v>-10056.2695853812</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3761,7 +3743,7 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3774,22 +3756,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C94" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D94" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E94" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F94" t="n">
-        <v>9.650600000000001</v>
+        <v>60</v>
       </c>
       <c r="G94" t="n">
-        <v>-87363.7011853812</v>
+        <v>-10116.2695853812</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -3798,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>131</v>
+        <v>131.9</v>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
@@ -3816,22 +3798,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C95" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D95" t="n">
-        <v>133</v>
+        <v>130.1</v>
       </c>
       <c r="E95" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>447.7825</v>
       </c>
       <c r="G95" t="n">
-        <v>-87163.7011853812</v>
+        <v>-10564.0520853812</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3840,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
@@ -3858,22 +3840,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C96" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D96" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E96" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F96" t="n">
-        <v>34.2555</v>
+        <v>1463.6569</v>
       </c>
       <c r="G96" t="n">
-        <v>-87163.7011853812</v>
+        <v>-10564.0520853812</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -3882,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
@@ -3900,22 +3882,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C97" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" t="n">
-        <v>130</v>
+        <v>130.1</v>
       </c>
       <c r="E97" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F97" t="n">
-        <v>7665.9888</v>
+        <v>2941</v>
       </c>
       <c r="G97" t="n">
-        <v>-94829.68998538121</v>
+        <v>-7623.052085381201</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -3924,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
@@ -3942,30 +3924,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C98" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D98" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E98" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F98" t="n">
-        <v>28.9707</v>
+        <v>840.329</v>
       </c>
       <c r="G98" t="n">
-        <v>-94800.7192853812</v>
+        <v>-6782.723085381202</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>129</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -3982,30 +3966,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>129.7</v>
+        <v>128</v>
       </c>
       <c r="C99" t="n">
-        <v>129.7</v>
+        <v>126.8</v>
       </c>
       <c r="D99" t="n">
-        <v>129.7</v>
+        <v>128</v>
       </c>
       <c r="E99" t="n">
-        <v>129.7</v>
+        <v>126.8</v>
       </c>
       <c r="F99" t="n">
-        <v>49.3929</v>
+        <v>3231.3429</v>
       </c>
       <c r="G99" t="n">
-        <v>-94850.11218538121</v>
+        <v>-10014.0659853812</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>130</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4022,22 +4008,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>129.6</v>
+        <v>129.1</v>
       </c>
       <c r="C100" t="n">
-        <v>130.5</v>
+        <v>130.1</v>
       </c>
       <c r="D100" t="n">
-        <v>131.8</v>
+        <v>130.1</v>
       </c>
       <c r="E100" t="n">
-        <v>129.6</v>
+        <v>129</v>
       </c>
       <c r="F100" t="n">
-        <v>14162.1791</v>
+        <v>2627</v>
       </c>
       <c r="G100" t="n">
-        <v>-80687.93308538121</v>
+        <v>-7387.065985381201</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4046,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>129.7</v>
+        <v>126.8</v>
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
@@ -4064,32 +4050,30 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>130.2</v>
+        <v>127.2</v>
       </c>
       <c r="C101" t="n">
-        <v>130.2</v>
+        <v>129.9</v>
       </c>
       <c r="D101" t="n">
-        <v>130.2</v>
+        <v>129.9</v>
       </c>
       <c r="E101" t="n">
-        <v>130.2</v>
+        <v>126.2</v>
       </c>
       <c r="F101" t="n">
-        <v>11830</v>
+        <v>5315.2043</v>
       </c>
       <c r="G101" t="n">
-        <v>-92517.93308538121</v>
+        <v>-12702.2702853812</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>130.5</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4106,32 +4090,30 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="C102" t="n">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="D102" t="n">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="E102" t="n">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="F102" t="n">
-        <v>3830</v>
+        <v>6616.9889</v>
       </c>
       <c r="G102" t="n">
-        <v>-92517.93308538121</v>
+        <v>-6085.2813853812</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>130.2</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4148,22 +4130,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="C103" t="n">
-        <v>130</v>
+        <v>130.1</v>
       </c>
       <c r="D103" t="n">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="E103" t="n">
-        <v>130</v>
+        <v>130.1</v>
       </c>
       <c r="F103" t="n">
-        <v>643.8045</v>
+        <v>5749.7249</v>
       </c>
       <c r="G103" t="n">
-        <v>-93161.73758538121</v>
+        <v>-6085.2813853812</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -4172,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
@@ -4190,22 +4172,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="C104" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="D104" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="E104" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="F104" t="n">
-        <v>123</v>
+        <v>14196.3491</v>
       </c>
       <c r="G104" t="n">
-        <v>-93161.73758538121</v>
+        <v>8111.067714618799</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4214,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>130</v>
+        <v>130.1</v>
       </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
@@ -4232,22 +4214,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="C105" t="n">
-        <v>128.5</v>
+        <v>132</v>
       </c>
       <c r="D105" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="E105" t="n">
-        <v>128.5</v>
+        <v>132</v>
       </c>
       <c r="F105" t="n">
-        <v>4353.6424</v>
+        <v>4.888</v>
       </c>
       <c r="G105" t="n">
-        <v>-97515.37998538121</v>
+        <v>8115.955714618799</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4256,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
@@ -4274,30 +4256,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="C106" t="n">
-        <v>130</v>
+        <v>137.2</v>
       </c>
       <c r="D106" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>15115.9557146188</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>132</v>
       </c>
-      <c r="E106" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F106" t="n">
-        <v>8961</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-88554.37998538121</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4314,22 +4298,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>130</v>
+        <v>131.3</v>
       </c>
       <c r="C107" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="D107" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="E107" t="n">
-        <v>130</v>
+        <v>131.3</v>
       </c>
       <c r="F107" t="n">
-        <v>1151</v>
+        <v>290.65</v>
       </c>
       <c r="G107" t="n">
-        <v>-88554.37998538121</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4338,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>130</v>
+        <v>137.2</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
@@ -4356,22 +4340,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C108" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="D108" t="n">
-        <v>133</v>
+        <v>136.2</v>
       </c>
       <c r="E108" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F108" t="n">
-        <v>7360.9245</v>
+        <v>1831.7029</v>
       </c>
       <c r="G108" t="n">
-        <v>-88554.37998538121</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4396,32 +4380,30 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="C109" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="D109" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="E109" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="F109" t="n">
-        <v>901.78</v>
+        <v>3.8573</v>
       </c>
       <c r="G109" t="n">
-        <v>-88554.37998538121</v>
+        <v>14825.3057146188</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>130</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4438,32 +4420,30 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C110" t="n">
-        <v>130</v>
+        <v>131.1</v>
       </c>
       <c r="D110" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E110" t="n">
-        <v>130</v>
+        <v>131.1</v>
       </c>
       <c r="F110" t="n">
-        <v>7.6924</v>
+        <v>799.9434</v>
       </c>
       <c r="G110" t="n">
-        <v>-88554.37998538121</v>
+        <v>14025.3623146188</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>130</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4480,32 +4460,30 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>130</v>
+        <v>133.9</v>
       </c>
       <c r="C111" t="n">
-        <v>130.6</v>
+        <v>131.4</v>
       </c>
       <c r="D111" t="n">
-        <v>130.6</v>
+        <v>133.9</v>
       </c>
       <c r="E111" t="n">
-        <v>129.1</v>
+        <v>131.4</v>
       </c>
       <c r="F111" t="n">
-        <v>19975.5284</v>
+        <v>7196.7376</v>
       </c>
       <c r="G111" t="n">
-        <v>-68578.85158538121</v>
+        <v>21222.0999146188</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>130</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4522,32 +4500,30 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>129.5</v>
+        <v>132.5</v>
       </c>
       <c r="C112" t="n">
-        <v>129.5</v>
+        <v>132.5</v>
       </c>
       <c r="D112" t="n">
-        <v>130.6</v>
+        <v>132.5</v>
       </c>
       <c r="E112" t="n">
-        <v>129.5</v>
+        <v>132.5</v>
       </c>
       <c r="F112" t="n">
-        <v>21006.4733</v>
+        <v>1030</v>
       </c>
       <c r="G112" t="n">
-        <v>-89585.32488538121</v>
+        <v>22252.0999146188</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>130.6</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4564,22 +4540,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="C113" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="D113" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="E113" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="F113" t="n">
-        <v>600</v>
+        <v>13.9718</v>
       </c>
       <c r="G113" t="n">
-        <v>-89585.32488538121</v>
+        <v>22266.0717146188</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4604,32 +4580,30 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="C114" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="D114" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="E114" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="F114" t="n">
-        <v>4800</v>
+        <v>6</v>
       </c>
       <c r="G114" t="n">
-        <v>-89585.32488538121</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4646,32 +4620,30 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="C115" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="D115" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="E115" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>668.5683</v>
       </c>
       <c r="G115" t="n">
-        <v>-89585.32488538121</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4688,32 +4660,30 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>128.5</v>
+        <v>135.1</v>
       </c>
       <c r="C116" t="n">
-        <v>128.5</v>
+        <v>135.1</v>
       </c>
       <c r="D116" t="n">
-        <v>128.5</v>
+        <v>135.1</v>
       </c>
       <c r="E116" t="n">
-        <v>128.5</v>
+        <v>135.1</v>
       </c>
       <c r="F116" t="n">
-        <v>18060.9778</v>
+        <v>604.9153</v>
       </c>
       <c r="G116" t="n">
-        <v>-107646.3026853812</v>
+        <v>22272.0717146188</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -4730,32 +4700,30 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>129.5</v>
+        <v>135.1</v>
       </c>
       <c r="C117" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="D117" t="n">
-        <v>129.5</v>
+        <v>136.1</v>
       </c>
       <c r="E117" t="n">
-        <v>129.5</v>
+        <v>132</v>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>18865.8563</v>
       </c>
       <c r="G117" t="n">
-        <v>-107446.3026853812</v>
+        <v>3406.215414618797</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>128.5</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4772,32 +4740,30 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>129.5</v>
+        <v>134</v>
       </c>
       <c r="C118" t="n">
-        <v>129.5</v>
+        <v>134</v>
       </c>
       <c r="D118" t="n">
-        <v>129.5</v>
+        <v>134</v>
       </c>
       <c r="E118" t="n">
-        <v>129.5</v>
+        <v>134</v>
       </c>
       <c r="F118" t="n">
-        <v>1715</v>
+        <v>508.8354</v>
       </c>
       <c r="G118" t="n">
-        <v>-107446.3026853812</v>
+        <v>3915.050814618797</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4814,32 +4780,30 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="C119" t="n">
-        <v>129.5</v>
+        <v>136.8</v>
       </c>
       <c r="D119" t="n">
-        <v>129.5</v>
+        <v>136.8</v>
       </c>
       <c r="E119" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>1098</v>
       </c>
       <c r="G119" t="n">
-        <v>-107446.3026853812</v>
+        <v>5013.050814618797</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4856,41 +4820,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="C120" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="D120" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="E120" t="n">
-        <v>129.5</v>
+        <v>135</v>
       </c>
       <c r="F120" t="n">
-        <v>1315</v>
+        <v>151.2507</v>
       </c>
       <c r="G120" t="n">
-        <v>-107446.3026853812</v>
+        <v>4861.800114618797</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>129.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -4898,38 +4858,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C121" t="n">
-        <v>129.5</v>
+        <v>137</v>
       </c>
       <c r="D121" t="n">
-        <v>129.5</v>
+        <v>137</v>
       </c>
       <c r="E121" t="n">
-        <v>129</v>
+        <v>134.2</v>
       </c>
       <c r="F121" t="n">
-        <v>524</v>
+        <v>757</v>
       </c>
       <c r="G121" t="n">
-        <v>-107446.3026853812</v>
+        <v>5618.800114618797</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4940,38 +4894,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>130</v>
+        <v>137.2</v>
       </c>
       <c r="C122" t="n">
-        <v>130</v>
+        <v>137.2</v>
       </c>
       <c r="D122" t="n">
-        <v>130</v>
+        <v>137.2</v>
       </c>
       <c r="E122" t="n">
-        <v>130</v>
+        <v>137.2</v>
       </c>
       <c r="F122" t="n">
-        <v>151.8712</v>
+        <v>6</v>
       </c>
       <c r="G122" t="n">
-        <v>-107294.4314853812</v>
+        <v>5624.800114618797</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>129.5</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4982,38 +4930,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C123" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="D123" t="n">
-        <v>130</v>
+        <v>136.2</v>
       </c>
       <c r="E123" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F123" t="n">
-        <v>7.041</v>
+        <v>669</v>
       </c>
       <c r="G123" t="n">
-        <v>-107294.4314853812</v>
+        <v>4955.800114618797</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5024,38 +4966,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>130</v>
+        <v>134.1</v>
       </c>
       <c r="C124" t="n">
-        <v>130</v>
+        <v>135.2</v>
       </c>
       <c r="D124" t="n">
-        <v>130</v>
+        <v>135.2</v>
       </c>
       <c r="E124" t="n">
-        <v>130</v>
+        <v>134.1</v>
       </c>
       <c r="F124" t="n">
-        <v>3774.1598</v>
+        <v>4361</v>
       </c>
       <c r="G124" t="n">
-        <v>-107294.4314853812</v>
+        <v>594.8001146187971</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>130</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5066,38 +5002,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>129.9</v>
+        <v>134.2</v>
       </c>
       <c r="C125" t="n">
-        <v>129.9</v>
+        <v>136.2</v>
       </c>
       <c r="D125" t="n">
-        <v>129.9</v>
+        <v>136.2</v>
       </c>
       <c r="E125" t="n">
-        <v>129.9</v>
+        <v>134.2</v>
       </c>
       <c r="F125" t="n">
-        <v>273</v>
+        <v>6514.4269</v>
       </c>
       <c r="G125" t="n">
-        <v>-107567.4314853812</v>
+        <v>7109.227014618798</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>130</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5108,38 +5038,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>129.9</v>
+        <v>135.2</v>
       </c>
       <c r="C126" t="n">
-        <v>129.9</v>
+        <v>136.2</v>
       </c>
       <c r="D126" t="n">
-        <v>129.9</v>
+        <v>137.2</v>
       </c>
       <c r="E126" t="n">
-        <v>129.9</v>
+        <v>135.2</v>
       </c>
       <c r="F126" t="n">
-        <v>11209.5664</v>
+        <v>17</v>
       </c>
       <c r="G126" t="n">
-        <v>-107567.4314853812</v>
+        <v>7109.227014618798</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>129.9</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5150,38 +5074,32 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>129.9</v>
+        <v>134.4</v>
       </c>
       <c r="C127" t="n">
-        <v>129.9</v>
+        <v>136</v>
       </c>
       <c r="D127" t="n">
-        <v>129.9</v>
+        <v>136</v>
       </c>
       <c r="E127" t="n">
-        <v>129.9</v>
+        <v>134.3</v>
       </c>
       <c r="F127" t="n">
-        <v>3350.6497</v>
+        <v>6986.9671</v>
       </c>
       <c r="G127" t="n">
-        <v>-107567.4314853812</v>
+        <v>122.2599146187977</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>129.9</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5192,38 +5110,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C128" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D128" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E128" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F128" t="n">
-        <v>99.708</v>
+        <v>97.7482</v>
       </c>
       <c r="G128" t="n">
-        <v>-107467.7234853812</v>
+        <v>24.51171461879767</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>129.9</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5234,38 +5146,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C129" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D129" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E129" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F129" t="n">
-        <v>59.9144</v>
+        <v>518.7482</v>
       </c>
       <c r="G129" t="n">
-        <v>-107467.7234853812</v>
+        <v>-494.2364853812023</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>131</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5276,22 +5182,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>132.6</v>
+        <v>134</v>
       </c>
       <c r="C130" t="n">
-        <v>132.6</v>
+        <v>134</v>
       </c>
       <c r="D130" t="n">
-        <v>132.6</v>
+        <v>134</v>
       </c>
       <c r="E130" t="n">
-        <v>132.6</v>
+        <v>134</v>
       </c>
       <c r="F130" t="n">
-        <v>4</v>
+        <v>726.8549</v>
       </c>
       <c r="G130" t="n">
-        <v>-107463.7234853812</v>
+        <v>232.6184146187977</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5301,11 +5207,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5316,22 +5218,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>132.6</v>
+        <v>132</v>
       </c>
       <c r="C131" t="n">
-        <v>132.6</v>
+        <v>132</v>
       </c>
       <c r="D131" t="n">
-        <v>132.6</v>
+        <v>132</v>
       </c>
       <c r="E131" t="n">
-        <v>132.6</v>
+        <v>132</v>
       </c>
       <c r="F131" t="n">
-        <v>24.483</v>
+        <v>6166.7376</v>
       </c>
       <c r="G131" t="n">
-        <v>-107463.7234853812</v>
+        <v>-5934.119185381202</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5341,11 +5243,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5356,22 +5254,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>129.6</v>
+        <v>132.2</v>
       </c>
       <c r="C132" t="n">
-        <v>130.5</v>
+        <v>132.2</v>
       </c>
       <c r="D132" t="n">
-        <v>131.5</v>
+        <v>132.2</v>
       </c>
       <c r="E132" t="n">
-        <v>129.6</v>
+        <v>132.2</v>
       </c>
       <c r="F132" t="n">
-        <v>4717.6925</v>
+        <v>9852.197200000001</v>
       </c>
       <c r="G132" t="n">
-        <v>-112181.4159853812</v>
+        <v>3918.078014618798</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5381,11 +5279,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5396,22 +5290,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C133" t="n">
-        <v>131.5</v>
+        <v>134</v>
       </c>
       <c r="D133" t="n">
-        <v>131.5</v>
+        <v>134</v>
       </c>
       <c r="E133" t="n">
-        <v>129.7</v>
+        <v>134</v>
       </c>
       <c r="F133" t="n">
-        <v>2848.7091</v>
+        <v>574</v>
       </c>
       <c r="G133" t="n">
-        <v>-109332.7068853812</v>
+        <v>4492.078014618798</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5421,11 +5315,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5436,38 +5326,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>129.9</v>
+        <v>133.9</v>
       </c>
       <c r="C134" t="n">
-        <v>129.9</v>
+        <v>133.9</v>
       </c>
       <c r="D134" t="n">
-        <v>129.9</v>
+        <v>133.9</v>
       </c>
       <c r="E134" t="n">
-        <v>129.9</v>
+        <v>133.9</v>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>533.3537</v>
       </c>
       <c r="G134" t="n">
-        <v>-109532.7068853812</v>
+        <v>3958.724314618798</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>131.5</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5478,38 +5362,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>129.9</v>
+        <v>133.9</v>
       </c>
       <c r="C135" t="n">
-        <v>130.9</v>
+        <v>133.9</v>
       </c>
       <c r="D135" t="n">
-        <v>130.9</v>
+        <v>133.9</v>
       </c>
       <c r="E135" t="n">
-        <v>129.9</v>
+        <v>133.9</v>
       </c>
       <c r="F135" t="n">
-        <v>1562.9999</v>
+        <v>200</v>
       </c>
       <c r="G135" t="n">
-        <v>-107969.7069853812</v>
+        <v>3958.724314618798</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>129.9</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5520,42 +5398,2958 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3950.724314618798</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>800</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4750.724314618798</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>24084.05</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-19333.3256853812</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>433</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-18900.3256853812</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>150.2671</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-19050.5927853812</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>136</v>
+      </c>
+      <c r="D141" t="n">
+        <v>136</v>
+      </c>
+      <c r="E141" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-16550.5927853812</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>447</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-16997.5927853812</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1302.8654</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-18300.4581853812</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-20900.4581853812</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>128</v>
+      </c>
+      <c r="F145" t="n">
+        <v>37885.6159</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-58786.0740853812</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>312</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-58786.0740853812</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>132</v>
+      </c>
+      <c r="C147" t="n">
+        <v>132</v>
+      </c>
+      <c r="D147" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>132</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2086.125</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-60872.1990853812</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>968.6814000000001</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-59903.5176853812</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>133</v>
+      </c>
+      <c r="C149" t="n">
+        <v>133</v>
+      </c>
+      <c r="D149" t="n">
+        <v>133</v>
+      </c>
+      <c r="E149" t="n">
+        <v>133</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2621</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-62524.5176853812</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2254</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-60270.5176853812</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>132</v>
+      </c>
+      <c r="C151" t="n">
+        <v>132</v>
+      </c>
+      <c r="D151" t="n">
+        <v>132</v>
+      </c>
+      <c r="E151" t="n">
+        <v>132</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11081.8643</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-71352.3819853812</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>132</v>
+      </c>
+      <c r="C152" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>132</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5781</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-65571.3819853812</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>132</v>
+      </c>
+      <c r="C153" t="n">
+        <v>132</v>
+      </c>
+      <c r="D153" t="n">
+        <v>132</v>
+      </c>
+      <c r="E153" t="n">
+        <v>132</v>
+      </c>
+      <c r="F153" t="n">
+        <v>595</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-66166.3819853812</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>132</v>
+      </c>
+      <c r="C154" t="n">
+        <v>132</v>
+      </c>
+      <c r="D154" t="n">
+        <v>132</v>
+      </c>
+      <c r="E154" t="n">
+        <v>132</v>
+      </c>
+      <c r="F154" t="n">
+        <v>594</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-66166.3819853812</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>132</v>
+      </c>
+      <c r="C155" t="n">
+        <v>132</v>
+      </c>
+      <c r="D155" t="n">
+        <v>132</v>
+      </c>
+      <c r="E155" t="n">
+        <v>132</v>
+      </c>
+      <c r="F155" t="n">
+        <v>501.4283</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-66166.3819853812</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8802.956899999999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-74969.33888538121</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2180</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-77149.33888538121</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>132</v>
+      </c>
+      <c r="C158" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>131</v>
+      </c>
+      <c r="F158" t="n">
+        <v>577.8736</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-76571.4652853812</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="K158" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>226.7123</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-76798.1775853812</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>131</v>
+      </c>
+      <c r="C160" t="n">
+        <v>131</v>
+      </c>
+      <c r="D160" t="n">
+        <v>131</v>
+      </c>
+      <c r="E160" t="n">
+        <v>130</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1308.4706</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-78106.6481853812</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>130</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10248.7018</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-88355.3499853812</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1444.2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-88355.3499853812</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>131</v>
+      </c>
+      <c r="C163" t="n">
+        <v>131</v>
+      </c>
+      <c r="D163" t="n">
+        <v>131</v>
+      </c>
+      <c r="E163" t="n">
+        <v>131</v>
+      </c>
+      <c r="F163" t="n">
+        <v>991.6488000000001</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-87363.7011853812</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>131</v>
+      </c>
+      <c r="C164" t="n">
+        <v>131</v>
+      </c>
+      <c r="D164" t="n">
+        <v>131</v>
+      </c>
+      <c r="E164" t="n">
+        <v>131</v>
+      </c>
+      <c r="F164" t="n">
+        <v>20473.1154</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-87363.7011853812</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>131</v>
+      </c>
+      <c r="K164" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>131</v>
+      </c>
+      <c r="C165" t="n">
+        <v>131</v>
+      </c>
+      <c r="D165" t="n">
+        <v>131</v>
+      </c>
+      <c r="E165" t="n">
+        <v>131</v>
+      </c>
+      <c r="F165" t="n">
+        <v>9.650600000000001</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-87363.7011853812</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>133</v>
+      </c>
+      <c r="C166" t="n">
+        <v>132</v>
+      </c>
+      <c r="D166" t="n">
+        <v>133</v>
+      </c>
+      <c r="E166" t="n">
+        <v>132</v>
+      </c>
+      <c r="F166" t="n">
+        <v>200</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-87163.7011853812</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>131</v>
+      </c>
+      <c r="K166" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>132</v>
+      </c>
+      <c r="C167" t="n">
+        <v>132</v>
+      </c>
+      <c r="D167" t="n">
+        <v>132</v>
+      </c>
+      <c r="E167" t="n">
+        <v>132</v>
+      </c>
+      <c r="F167" t="n">
+        <v>34.2555</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-87163.7011853812</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>130</v>
+      </c>
+      <c r="C168" t="n">
+        <v>130</v>
+      </c>
+      <c r="D168" t="n">
+        <v>130</v>
+      </c>
+      <c r="E168" t="n">
+        <v>130</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7665.9888</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-94829.68998538121</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>131</v>
+      </c>
+      <c r="C169" t="n">
+        <v>131</v>
+      </c>
+      <c r="D169" t="n">
+        <v>131</v>
+      </c>
+      <c r="E169" t="n">
+        <v>131</v>
+      </c>
+      <c r="F169" t="n">
+        <v>28.9707</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-94800.7192853812</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>129.7</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C170" t="n">
         <v>129.7</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D170" t="n">
         <v>129.7</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E170" t="n">
         <v>129.7</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F170" t="n">
+        <v>49.3929</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-94850.11218538121</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>14162.1791</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-80687.93308538121</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>11830</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-92517.93308538121</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3830</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-92517.93308538121</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>130</v>
+      </c>
+      <c r="D174" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>130</v>
+      </c>
+      <c r="F174" t="n">
+        <v>643.8045</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-93161.73758538121</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>130</v>
+      </c>
+      <c r="C175" t="n">
+        <v>130</v>
+      </c>
+      <c r="D175" t="n">
+        <v>130</v>
+      </c>
+      <c r="E175" t="n">
+        <v>130</v>
+      </c>
+      <c r="F175" t="n">
+        <v>123</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-93161.73758538121</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>130</v>
+      </c>
+      <c r="K175" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4353.6424</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-97515.37998538121</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>130</v>
+      </c>
+      <c r="D177" t="n">
+        <v>132</v>
+      </c>
+      <c r="E177" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8961</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="K177" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>130</v>
+      </c>
+      <c r="C178" t="n">
+        <v>130</v>
+      </c>
+      <c r="D178" t="n">
+        <v>130</v>
+      </c>
+      <c r="E178" t="n">
+        <v>130</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1151</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>130</v>
+      </c>
+      <c r="K178" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>130</v>
+      </c>
+      <c r="C179" t="n">
+        <v>130</v>
+      </c>
+      <c r="D179" t="n">
+        <v>133</v>
+      </c>
+      <c r="E179" t="n">
+        <v>130</v>
+      </c>
+      <c r="F179" t="n">
+        <v>7360.9245</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>130</v>
+      </c>
+      <c r="K179" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>130</v>
+      </c>
+      <c r="C180" t="n">
+        <v>130</v>
+      </c>
+      <c r="D180" t="n">
+        <v>130</v>
+      </c>
+      <c r="E180" t="n">
+        <v>130</v>
+      </c>
+      <c r="F180" t="n">
+        <v>901.78</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>130</v>
+      </c>
+      <c r="K180" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>130</v>
+      </c>
+      <c r="C181" t="n">
+        <v>130</v>
+      </c>
+      <c r="D181" t="n">
+        <v>130</v>
+      </c>
+      <c r="E181" t="n">
+        <v>130</v>
+      </c>
+      <c r="F181" t="n">
+        <v>7.6924</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-88554.37998538121</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>130</v>
+      </c>
+      <c r="K181" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>130</v>
+      </c>
+      <c r="C182" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19975.5284</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-68578.85158538121</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>130</v>
+      </c>
+      <c r="K182" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>21006.4733</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-89585.32488538121</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="K183" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C184" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>600</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-89585.32488538121</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K184" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C185" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-89585.32488538121</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K185" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-89585.32488538121</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K186" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>18060.9778</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-107646.3026853812</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K187" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>200</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="K188" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1715</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K189" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K190" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1315</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K191" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>129</v>
+      </c>
+      <c r="C192" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>129</v>
+      </c>
+      <c r="F192" t="n">
+        <v>524</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K192" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>130</v>
+      </c>
+      <c r="C193" t="n">
+        <v>130</v>
+      </c>
+      <c r="D193" t="n">
+        <v>130</v>
+      </c>
+      <c r="E193" t="n">
+        <v>130</v>
+      </c>
+      <c r="F193" t="n">
+        <v>151.8712</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K193" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>130</v>
+      </c>
+      <c r="C194" t="n">
+        <v>130</v>
+      </c>
+      <c r="D194" t="n">
+        <v>130</v>
+      </c>
+      <c r="E194" t="n">
+        <v>130</v>
+      </c>
+      <c r="F194" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>130</v>
+      </c>
+      <c r="K194" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>130</v>
+      </c>
+      <c r="C195" t="n">
+        <v>130</v>
+      </c>
+      <c r="D195" t="n">
+        <v>130</v>
+      </c>
+      <c r="E195" t="n">
+        <v>130</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3774.1598</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>130</v>
+      </c>
+      <c r="K195" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D196" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E196" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>273</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>130</v>
+      </c>
+      <c r="K196" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11209.5664</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K197" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3350.6497</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K198" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>131</v>
+      </c>
+      <c r="C199" t="n">
+        <v>131</v>
+      </c>
+      <c r="D199" t="n">
+        <v>131</v>
+      </c>
+      <c r="E199" t="n">
+        <v>131</v>
+      </c>
+      <c r="F199" t="n">
+        <v>99.708</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-107467.7234853812</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K199" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>131</v>
+      </c>
+      <c r="C200" t="n">
+        <v>131</v>
+      </c>
+      <c r="D200" t="n">
+        <v>131</v>
+      </c>
+      <c r="E200" t="n">
+        <v>131</v>
+      </c>
+      <c r="F200" t="n">
+        <v>59.9144</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-107467.7234853812</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>131</v>
+      </c>
+      <c r="K200" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-107463.7234853812</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>131</v>
+      </c>
+      <c r="K201" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F202" t="n">
+        <v>24.483</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-107463.7234853812</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="K202" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="C203" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4717.6925</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-112181.4159853812</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="K203" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>130</v>
+      </c>
+      <c r="C204" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2848.7091</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-109332.7068853812</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="K204" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C205" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D205" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E205" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F205" t="n">
+        <v>200</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-109532.7068853812</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="K205" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C206" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="D206" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="E206" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1562.9999</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-107969.7069853812</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K206" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="D207" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="F207" t="n">
         <v>19449.518</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G207" t="n">
         <v>-127419.2249853812</v>
       </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
         <v>130.9</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="K207" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>95526.77929975293</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>95542.77929975293</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>91485.77929975293</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>89019.92829975294</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>88867.51829975293</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>81452.48599975294</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>81873.48599975294</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>81374.98609975295</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>80042.15829975295</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>80053.15829975295</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>76083.8208146188</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,24 +3454,15 @@
         <v>-10056.2695853812</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3774,24 +3487,15 @@
         <v>-10116.2695853812</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>131.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3816,24 +3520,21 @@
         <v>-10564.0520853812</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>129</v>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,24 +3559,19 @@
         <v>-10564.0520853812</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>128</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3900,24 +3596,21 @@
         <v>-7623.052085381201</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>128</v>
       </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3942,24 +3635,21 @@
         <v>-6782.723085381202</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>129</v>
       </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3984,24 +3674,21 @@
         <v>-10014.0659853812</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>130</v>
       </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4026,24 +3713,21 @@
         <v>-7387.065985381201</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>126.8</v>
       </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4068,22 +3752,21 @@
         <v>-12702.2702853812</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>130.1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4110,20 +3793,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4148,24 +3828,19 @@
         <v>-6085.2813853812</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4190,24 +3865,19 @@
         <v>8111.067714618799</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4232,24 +3902,21 @@
         <v>8115.955714618799</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
         <v>131.5</v>
       </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4274,24 +3941,21 @@
         <v>15115.9557146188</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>132</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+        <v>132</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4316,24 +3980,19 @@
         <v>14825.3057146188</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4360,20 +4019,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4400,20 +4056,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4440,20 +4093,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4480,20 +4130,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,20 +4167,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4560,20 +4204,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4600,20 +4241,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4640,20 +4278,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4680,20 +4315,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4720,20 +4352,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4760,20 +4389,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4798,22 +4424,19 @@
         <v>5013.050814618797</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4838,20 +4461,17 @@
         <v>4861.800114618797</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4876,18 +4496,15 @@
         <v>5618.800114618797</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4912,18 +4529,15 @@
         <v>5624.800114618797</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4948,18 +4562,15 @@
         <v>4955.800114618797</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4984,18 +4595,15 @@
         <v>594.8001146187971</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5020,18 +4628,15 @@
         <v>7109.227014618798</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5056,18 +4661,15 @@
         <v>7109.227014618798</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5092,18 +4694,15 @@
         <v>122.2599146187977</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5130,16 +4729,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5166,16 +4762,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5202,16 +4795,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5236,18 +4826,15 @@
         <v>-5934.119185381202</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5274,16 +4861,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5308,18 +4892,15 @@
         <v>4492.078014618798</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5344,18 +4925,15 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5380,18 +4958,15 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5416,18 +4991,15 @@
         <v>3950.724314618798</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5452,18 +5024,15 @@
         <v>4750.724314618798</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5488,18 +5057,15 @@
         <v>-19333.3256853812</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5524,18 +5090,15 @@
         <v>-18900.3256853812</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5560,18 +5123,15 @@
         <v>-19050.5927853812</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5596,18 +5156,15 @@
         <v>-16550.5927853812</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5632,18 +5189,15 @@
         <v>-16997.5927853812</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5670,16 +5224,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5704,18 +5255,15 @@
         <v>-20900.4581853812</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5740,18 +5288,15 @@
         <v>-58786.0740853812</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5778,16 +5323,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5814,16 +5356,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5850,16 +5389,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5884,18 +5420,15 @@
         <v>-62524.5176853812</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5922,16 +5455,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5958,16 +5488,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5994,16 +5521,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6028,18 +5552,19 @@
         <v>-66166.3819853812</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>132.5</v>
+      </c>
+      <c r="J153" t="n">
+        <v>132.5</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6066,16 +5591,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6102,16 +5630,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6136,18 +5667,23 @@
         <v>-74969.33888538121</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="J156" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6174,16 +5710,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6208,22 +5747,23 @@
         <v>-76571.4652853812</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>130.9</v>
       </c>
       <c r="J158" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="K158" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>132.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6250,22 +5790,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6292,22 +5829,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6332,24 +5866,23 @@
         <v>-88355.3499853812</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>131</v>
+      </c>
+      <c r="J161" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6376,22 +5909,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6418,22 +5948,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6460,24 +5987,19 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>131</v>
-      </c>
-      <c r="K164" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6504,22 +6026,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6546,24 +6065,19 @@
       <c r="H166" t="n">
         <v>1</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>131</v>
-      </c>
-      <c r="K166" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6590,22 +6104,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6632,22 +6143,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6674,22 +6182,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6714,24 +6219,21 @@
         <v>-94850.11218538121</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6756,24 +6258,21 @@
         <v>-80687.93308538121</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6798,24 +6297,21 @@
         <v>-92517.93308538121</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6840,24 +6336,21 @@
         <v>-92517.93308538121</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6882,24 +6375,21 @@
         <v>-93161.73758538121</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6924,26 +6414,21 @@
         <v>-93161.73758538121</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>130</v>
-      </c>
-      <c r="K175" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L175" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6970,22 +6455,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7012,24 +6494,19 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="K177" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7054,26 +6531,21 @@
         <v>-88554.37998538121</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>130</v>
-      </c>
-      <c r="K178" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7098,26 +6570,23 @@
         <v>-88554.37998538121</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J179" t="n">
-        <v>130</v>
-      </c>
-      <c r="K179" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L179" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7142,26 +6611,23 @@
         <v>-88554.37998538121</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J180" t="n">
-        <v>130</v>
-      </c>
-      <c r="K180" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7186,26 +6652,23 @@
         <v>-88554.37998538121</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J181" t="n">
-        <v>130</v>
-      </c>
-      <c r="K181" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7230,26 +6693,21 @@
         <v>-68578.85158538121</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>130</v>
-      </c>
-      <c r="K182" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L182" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7274,26 +6732,23 @@
         <v>-89585.32488538121</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>130.6</v>
       </c>
       <c r="J183" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="K183" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7318,26 +6773,21 @@
         <v>-89585.32488538121</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K184" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7362,26 +6812,23 @@
         <v>-89585.32488538121</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>129.5</v>
       </c>
       <c r="J185" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K185" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7406,26 +6853,23 @@
         <v>-89585.32488538121</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>129.5</v>
       </c>
       <c r="J186" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K186" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7450,26 +6894,21 @@
         <v>-107646.3026853812</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K187" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L187" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7494,26 +6933,21 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="K188" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7538,26 +6972,21 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K189" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L189" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7582,26 +7011,23 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>129.5</v>
       </c>
       <c r="J190" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K190" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7626,26 +7052,21 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K191" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7670,26 +7091,21 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K192" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7714,26 +7130,23 @@
         <v>-107294.4314853812</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>129.5</v>
       </c>
       <c r="J193" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K193" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L193" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7758,26 +7171,21 @@
         <v>-107294.4314853812</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>130</v>
-      </c>
-      <c r="K194" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7802,26 +7210,21 @@
         <v>-107294.4314853812</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>130</v>
-      </c>
-      <c r="K195" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7846,26 +7249,21 @@
         <v>-107567.4314853812</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>130</v>
-      </c>
-      <c r="K196" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L196" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7890,26 +7288,21 @@
         <v>-107567.4314853812</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K197" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L197" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7934,26 +7327,21 @@
         <v>-107567.4314853812</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K198" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L198" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7978,26 +7366,23 @@
         <v>-107467.7234853812</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>129.9</v>
       </c>
       <c r="J199" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K199" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8022,26 +7407,23 @@
         <v>-107467.7234853812</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="J200" t="n">
-        <v>131</v>
-      </c>
-      <c r="K200" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8066,26 +7448,23 @@
         <v>-107463.7234853812</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="J201" t="n">
-        <v>131</v>
-      </c>
-      <c r="K201" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8110,26 +7489,21 @@
         <v>-107463.7234853812</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K202" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8156,24 +7530,19 @@
       <c r="H203" t="n">
         <v>1</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K203" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8198,26 +7567,21 @@
         <v>-109332.7068853812</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="K204" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8242,26 +7606,21 @@
         <v>-109532.7068853812</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="K205" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8286,26 +7645,23 @@
         <v>-107969.7069853812</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>129.9</v>
       </c>
       <c r="J206" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K206" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8330,28 +7686,25 @@
         <v>-127419.2249853812</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>130.9</v>
       </c>
       <c r="J207" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="K207" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>132.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>102762.8888997529</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>103063.8888997529</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>102994.8493997529</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>102998.8493997529</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>103002.8493997529</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>102987.8493997529</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>102273.8494997529</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>102273.8494997529</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>102273.8494997529</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>102377.528799753</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>94882.20269975295</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>99284.21269975294</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>96833.32929975294</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>95526.77929975293</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>95526.77929975293</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>95542.77929975293</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>95542.77929975293</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>91485.77929975293</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>90819.19929975293</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>90827.19929975293</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>90921.19929975293</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>89019.92829975294</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>88867.51829975293</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>81452.48599975294</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>81873.48599975294</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>81374.98609975295</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>80042.15829975295</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>80053.15829975295</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>76083.8208146188</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-10564.0520853812</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>129</v>
@@ -3559,9 +3559,11 @@
         <v>-10564.0520853812</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>128</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3596,7 +3598,7 @@
         <v>-7623.052085381201</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>128</v>
@@ -3635,11 +3637,9 @@
         <v>-6782.723085381202</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3674,11 +3674,9 @@
         <v>-10014.0659853812</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3713,11 +3711,9 @@
         <v>-7387.065985381201</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>126.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3752,7 +3748,7 @@
         <v>-12702.2702853812</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>130.1</v>
@@ -3902,7 +3898,7 @@
         <v>8115.955714618799</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>131.5</v>
@@ -3941,7 +3937,7 @@
         <v>15115.9557146188</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>132</v>
@@ -4424,7 +4420,7 @@
         <v>5013.050814618797</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4461,16 +4457,18 @@
         <v>4861.800114618797</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
       <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -4496,11 +4494,15 @@
         <v>5618.800114618797</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4529,11 +4531,15 @@
         <v>5624.800114618797</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4568,15 @@
         <v>4955.800114618797</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4595,11 +4605,15 @@
         <v>594.8001146187971</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4628,11 +4642,15 @@
         <v>7109.227014618798</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4661,11 +4679,15 @@
         <v>7109.227014618798</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4694,11 +4716,15 @@
         <v>122.2599146187977</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4731,7 +4757,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4764,7 +4794,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4797,7 +4831,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +4864,15 @@
         <v>-5934.119185381202</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4863,7 +4905,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4892,11 +4938,15 @@
         <v>4492.078014618798</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4925,11 +4975,15 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4958,11 +5012,15 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4991,11 +5049,15 @@
         <v>3950.724314618798</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +5086,15 @@
         <v>4750.724314618798</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5057,11 +5123,15 @@
         <v>-19333.3256853812</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5090,11 +5160,15 @@
         <v>-18900.3256853812</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5123,11 +5197,15 @@
         <v>-19050.5927853812</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5156,11 +5234,15 @@
         <v>-16550.5927853812</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +5271,15 @@
         <v>-16997.5927853812</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5226,7 +5312,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5255,11 +5345,15 @@
         <v>-20900.4581853812</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5288,11 +5382,15 @@
         <v>-58786.0740853812</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5325,7 +5423,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5460,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5391,7 +5497,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5530,15 @@
         <v>-62524.5176853812</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5457,7 +5571,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5490,7 +5608,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5523,7 +5645,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5552,15 +5678,15 @@
         <v>-66166.3819853812</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="J153" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5592,12 +5718,10 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5631,12 +5755,10 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5667,17 +5789,13 @@
         <v>-74969.33888538121</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>132</v>
-      </c>
-      <c r="J156" t="n">
-        <v>132.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5711,9 +5829,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5747,14 +5863,10 @@
         <v>-76571.4652853812</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="J158" t="n">
-        <v>132.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5791,9 +5903,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,9 +5940,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5866,14 +5974,10 @@
         <v>-88355.3499853812</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>131</v>
-      </c>
-      <c r="J161" t="n">
-        <v>132.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,9 +6014,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,9 +6051,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,10 +6087,10 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="I164" t="n">
+        <v>131</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6027,9 +6127,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,12 +6161,10 @@
         <v>-87163.7011853812</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6105,9 +6201,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6144,9 +6238,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6183,9 +6275,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,12 +6309,10 @@
         <v>-94850.11218538121</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6260,10 +6348,10 @@
       <c r="H171" t="n">
         <v>1</v>
       </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="I171" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6297,12 +6385,10 @@
         <v>-92517.93308538121</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6336,12 +6422,10 @@
         <v>-92517.93308538121</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6377,10 +6461,10 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="I174" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6414,12 +6498,12 @@
         <v>-93161.73758538121</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>130</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,12 +6537,12 @@
         <v>-97515.37998538121</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>130</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6494,10 +6578,10 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="I177" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6531,12 +6615,12 @@
         <v>-88554.37998538121</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>130</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6570,14 +6654,12 @@
         <v>-88554.37998538121</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>130</v>
       </c>
-      <c r="J179" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6611,14 +6693,12 @@
         <v>-88554.37998538121</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>130</v>
       </c>
-      <c r="J180" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,14 +6732,12 @@
         <v>-88554.37998538121</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>130</v>
       </c>
-      <c r="J181" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6693,12 +6771,12 @@
         <v>-68578.85158538121</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>130</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6732,14 +6810,12 @@
         <v>-89585.32488538121</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>130.6</v>
       </c>
-      <c r="J183" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6773,12 +6849,12 @@
         <v>-89585.32488538121</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,14 +6888,12 @@
         <v>-89585.32488538121</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>129.5</v>
       </c>
-      <c r="J185" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,14 +6927,12 @@
         <v>-89585.32488538121</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>129.5</v>
       </c>
-      <c r="J186" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6894,12 +6966,12 @@
         <v>-107646.3026853812</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6936,9 +7008,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,12 +7042,12 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,14 +7081,12 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>129.5</v>
       </c>
-      <c r="J190" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7052,12 +7120,12 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7091,12 +7159,12 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7130,14 +7198,12 @@
         <v>-107294.4314853812</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>129.5</v>
       </c>
-      <c r="J193" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7171,12 +7237,12 @@
         <v>-107294.4314853812</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>130</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7210,12 +7276,12 @@
         <v>-107294.4314853812</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>130</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7249,12 +7315,12 @@
         <v>-107567.4314853812</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>130</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7288,12 +7354,12 @@
         <v>-107567.4314853812</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,12 +7393,12 @@
         <v>-107567.4314853812</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7366,14 +7432,12 @@
         <v>-107467.7234853812</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>129.9</v>
       </c>
-      <c r="J199" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7407,14 +7471,12 @@
         <v>-107467.7234853812</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>131</v>
       </c>
-      <c r="J200" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7448,14 +7510,12 @@
         <v>-107463.7234853812</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>131</v>
       </c>
-      <c r="J201" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7489,12 +7549,12 @@
         <v>-107463.7234853812</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7530,10 +7590,10 @@
       <c r="H203" t="n">
         <v>1</v>
       </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="I203" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7567,12 +7627,12 @@
         <v>-109332.7068853812</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7606,12 +7666,12 @@
         <v>-109532.7068853812</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>132.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,14 +7705,12 @@
         <v>-107969.7069853812</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>129.9</v>
       </c>
-      <c r="J206" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7686,14 +7744,12 @@
         <v>-127419.2249853812</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>130.9</v>
       </c>
-      <c r="J207" t="n">
-        <v>132.5</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7705,6 +7761,6 @@
       <c r="M207" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -451,7 +451,7 @@
         <v>102762.8888997529</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>103063.8888997529</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>102994.8493997529</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>102273.8494997529</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>15153.5169146188</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>14825.3057146188</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>14025.3623146188</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>21222.0999146188</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>22252.0999146188</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>22272.0717146188</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>5013.050814618797</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>7109.227014618798</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>122.2599146187977</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>3918.078014618798</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>4492.078014618798</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>3950.724314618798</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>4750.724314618798</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-19333.3256853812</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-58786.0740853812</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-60872.1990853812</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-59903.5176853812</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-65571.3819853812</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-78106.6481853812</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-88355.3499853812</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6622,14 +6622,10 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="J189" t="n">
-        <v>129.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6662,543 +6658,509 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>129.5</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="C191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1315</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>129</v>
+      </c>
+      <c r="C192" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>129</v>
+      </c>
+      <c r="F192" t="n">
+        <v>524</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-107446.3026853812</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>130</v>
+      </c>
+      <c r="C193" t="n">
+        <v>130</v>
+      </c>
+      <c r="D193" t="n">
+        <v>130</v>
+      </c>
+      <c r="E193" t="n">
+        <v>130</v>
+      </c>
+      <c r="F193" t="n">
+        <v>151.8712</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="J193" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>130</v>
+      </c>
+      <c r="C194" t="n">
+        <v>130</v>
+      </c>
+      <c r="D194" t="n">
+        <v>130</v>
+      </c>
+      <c r="E194" t="n">
+        <v>130</v>
+      </c>
+      <c r="F194" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>130</v>
+      </c>
+      <c r="J194" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>130</v>
+      </c>
+      <c r="C195" t="n">
+        <v>130</v>
+      </c>
+      <c r="D195" t="n">
+        <v>130</v>
+      </c>
+      <c r="E195" t="n">
+        <v>130</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3774.1598</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-107294.4314853812</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>130</v>
+      </c>
+      <c r="J195" t="n">
         <v>129.5</v>
       </c>
-      <c r="C191" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D191" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1315</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-107446.3026853812</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="J191" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K191" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>129</v>
-      </c>
-      <c r="C192" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="D192" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="E192" t="n">
-        <v>129</v>
-      </c>
-      <c r="F192" t="n">
-        <v>524</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-107446.3026853812</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="J192" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K192" t="inlineStr">
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D196" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E196" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>273</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>130</v>
+      </c>
+      <c r="J196" t="n">
+        <v>130</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11209.5664</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="J197" t="n">
+        <v>130</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3350.6497</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-107567.4314853812</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="J198" t="n">
+        <v>130</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>131</v>
+      </c>
+      <c r="C199" t="n">
+        <v>131</v>
+      </c>
+      <c r="D199" t="n">
+        <v>131</v>
+      </c>
+      <c r="E199" t="n">
+        <v>131</v>
+      </c>
+      <c r="F199" t="n">
+        <v>99.708</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-107467.7234853812</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="J199" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>131</v>
+      </c>
+      <c r="C200" t="n">
+        <v>131</v>
+      </c>
+      <c r="D200" t="n">
+        <v>131</v>
+      </c>
+      <c r="E200" t="n">
+        <v>131</v>
+      </c>
+      <c r="F200" t="n">
+        <v>59.9144</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-107467.7234853812</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>131</v>
+      </c>
+      <c r="J200" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-107463.7234853812</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>131</v>
+      </c>
+      <c r="J201" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F202" t="n">
+        <v>24.483</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-107463.7234853812</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="J202" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="C203" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4717.6925</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-112181.4159853812</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="J203" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>130</v>
-      </c>
-      <c r="C193" t="n">
-        <v>130</v>
-      </c>
-      <c r="D193" t="n">
-        <v>130</v>
-      </c>
-      <c r="E193" t="n">
-        <v>130</v>
-      </c>
-      <c r="F193" t="n">
-        <v>151.8712</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-107294.4314853812</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="J193" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>130</v>
-      </c>
-      <c r="C194" t="n">
-        <v>130</v>
-      </c>
-      <c r="D194" t="n">
-        <v>130</v>
-      </c>
-      <c r="E194" t="n">
-        <v>130</v>
-      </c>
-      <c r="F194" t="n">
-        <v>7.041</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-107294.4314853812</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>130</v>
-      </c>
-      <c r="J194" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>130</v>
-      </c>
-      <c r="C195" t="n">
-        <v>130</v>
-      </c>
-      <c r="D195" t="n">
-        <v>130</v>
-      </c>
-      <c r="E195" t="n">
-        <v>130</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3774.1598</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-107294.4314853812</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>130</v>
-      </c>
-      <c r="J195" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C196" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="D196" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="E196" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F196" t="n">
-        <v>273</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-107567.4314853812</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>130</v>
-      </c>
-      <c r="J196" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C197" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="D197" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="E197" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F197" t="n">
-        <v>11209.5664</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-107567.4314853812</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="J197" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C198" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="D198" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="E198" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3350.6497</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-107567.4314853812</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="J198" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>131</v>
-      </c>
-      <c r="C199" t="n">
-        <v>131</v>
-      </c>
-      <c r="D199" t="n">
-        <v>131</v>
-      </c>
-      <c r="E199" t="n">
-        <v>131</v>
-      </c>
-      <c r="F199" t="n">
-        <v>99.708</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-107467.7234853812</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="J199" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>131</v>
-      </c>
-      <c r="C200" t="n">
-        <v>131</v>
-      </c>
-      <c r="D200" t="n">
-        <v>131</v>
-      </c>
-      <c r="E200" t="n">
-        <v>131</v>
-      </c>
-      <c r="F200" t="n">
-        <v>59.9144</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-107467.7234853812</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>131</v>
-      </c>
-      <c r="J200" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="C201" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="D201" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="E201" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="F201" t="n">
-        <v>4</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-107463.7234853812</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>131</v>
-      </c>
-      <c r="J201" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="C202" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="D202" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="E202" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="F202" t="n">
-        <v>24.483</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-107463.7234853812</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="C203" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="D203" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="F203" t="n">
-        <v>4717.6925</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-112181.4159853812</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7233,7 +7195,7 @@
         <v>130.5</v>
       </c>
       <c r="J204" t="n">
-        <v>129.5</v>
+        <v>132.6</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7274,7 +7236,7 @@
         <v>131.5</v>
       </c>
       <c r="J205" t="n">
-        <v>129.5</v>
+        <v>132.6</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7315,7 +7277,7 @@
         <v>129.9</v>
       </c>
       <c r="J206" t="n">
-        <v>129.5</v>
+        <v>132.6</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7356,7 +7318,7 @@
         <v>130.9</v>
       </c>
       <c r="J207" t="n">
-        <v>129.5</v>
+        <v>132.6</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>

--- a/BackTest/2020-01-12 BackTest RDN.xlsx
+++ b/BackTest/2020-01-12 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>102762.8888997529</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>301</v>
       </c>
       <c r="G3" t="n">
-        <v>103063.8888997529</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>69.0395</v>
       </c>
       <c r="G4" t="n">
-        <v>102994.8493997529</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>102998.8493997529</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>103002.8493997529</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>102987.8493997529</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>713.9999</v>
       </c>
       <c r="G8" t="n">
-        <v>102273.8494997529</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,19 @@
         <v>1311.83</v>
       </c>
       <c r="G9" t="n">
-        <v>102273.8494997529</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>130.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>130.1</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +687,23 @@
         <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>102273.8494997529</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>130.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +725,23 @@
         <v>103.6793</v>
       </c>
       <c r="G11" t="n">
-        <v>102377.528799753</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>130.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +763,15 @@
         <v>7495.3261</v>
       </c>
       <c r="G12" t="n">
-        <v>94882.20269975295</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +793,15 @@
         <v>4402.01</v>
       </c>
       <c r="G13" t="n">
-        <v>99284.21269975294</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +823,15 @@
         <v>2450.8834</v>
       </c>
       <c r="G14" t="n">
-        <v>96833.32929975294</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +853,15 @@
         <v>1306.55</v>
       </c>
       <c r="G15" t="n">
-        <v>95526.77929975293</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +883,15 @@
         <v>146.28</v>
       </c>
       <c r="G16" t="n">
-        <v>95526.77929975293</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +913,15 @@
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>95542.77929975293</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +943,15 @@
         <v>6216.3714</v>
       </c>
       <c r="G18" t="n">
-        <v>95542.77929975293</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +973,15 @@
         <v>4057</v>
       </c>
       <c r="G19" t="n">
-        <v>91485.77929975293</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1003,15 @@
         <v>666.58</v>
       </c>
       <c r="G20" t="n">
-        <v>90819.19929975293</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1033,15 @@
         <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>90827.19929975293</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1063,15 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>90817.19929975293</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1093,15 @@
         <v>104</v>
       </c>
       <c r="G23" t="n">
-        <v>90921.19929975293</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1123,15 @@
         <v>1087.19</v>
       </c>
       <c r="G24" t="n">
-        <v>89834.00929975293</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1153,15 @@
         <v>58.12</v>
       </c>
       <c r="G25" t="n">
-        <v>89775.88929975293</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1183,15 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>89779.88929975293</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1213,15 @@
         <v>759.961</v>
       </c>
       <c r="G27" t="n">
-        <v>89019.92829975294</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1243,15 @@
         <v>1553.3798</v>
       </c>
       <c r="G28" t="n">
-        <v>89019.92829975294</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1273,15 @@
         <v>200</v>
       </c>
       <c r="G29" t="n">
-        <v>89219.92829975294</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1303,15 @@
         <v>112</v>
       </c>
       <c r="G30" t="n">
-        <v>89331.92829975294</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1333,15 @@
         <v>464.41</v>
       </c>
       <c r="G31" t="n">
-        <v>88867.51829975293</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1363,15 @@
         <v>110</v>
       </c>
       <c r="G32" t="n">
-        <v>88977.51829975293</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1393,15 @@
         <v>6931.0324</v>
       </c>
       <c r="G33" t="n">
-        <v>82046.48589975294</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1423,15 @@
         <v>593.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>81452.48599975294</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1453,15 @@
         <v>421</v>
       </c>
       <c r="G35" t="n">
-        <v>81873.48599975294</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1483,15 @@
         <v>498.4999</v>
       </c>
       <c r="G36" t="n">
-        <v>81374.98609975295</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1513,15 @@
         <v>1332.8278</v>
       </c>
       <c r="G37" t="n">
-        <v>80042.15829975295</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1543,15 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>80053.15829975295</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1573,15 @@
         <v>3969.337485134155</v>
       </c>
       <c r="G39" t="n">
-        <v>76083.8208146188</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1603,15 @@
         <v>293</v>
       </c>
       <c r="G40" t="n">
-        <v>76083.8208146188</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1633,15 @@
         <v>2396.3375</v>
       </c>
       <c r="G41" t="n">
-        <v>73687.4833146188</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1663,15 @@
         <v>220.6528</v>
       </c>
       <c r="G42" t="n">
-        <v>73908.1361146188</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1693,15 @@
         <v>116.6388</v>
       </c>
       <c r="G43" t="n">
-        <v>74024.7749146188</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1723,15 @@
         <v>43.3505</v>
       </c>
       <c r="G44" t="n">
-        <v>73981.4244146188</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1753,15 @@
         <v>53.9893</v>
       </c>
       <c r="G45" t="n">
-        <v>73981.4244146188</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1783,15 @@
         <v>11363.5304</v>
       </c>
       <c r="G46" t="n">
-        <v>62617.8940146188</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1813,15 @@
         <v>510.7848</v>
       </c>
       <c r="G47" t="n">
-        <v>63128.6788146188</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1843,15 @@
         <v>8000</v>
       </c>
       <c r="G48" t="n">
-        <v>55128.6788146188</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1873,15 @@
         <v>16875.9897</v>
       </c>
       <c r="G49" t="n">
-        <v>72004.6685146188</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1903,15 @@
         <v>56851.1516</v>
       </c>
       <c r="G50" t="n">
-        <v>15153.5169146188</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1933,15 @@
         <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>15153.5169146188</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1963,15 @@
         <v>1836.0756</v>
       </c>
       <c r="G52" t="n">
-        <v>13317.4413146188</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1993,15 @@
         <v>123.5768</v>
       </c>
       <c r="G53" t="n">
-        <v>13193.8645146188</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2023,15 @@
         <v>5600</v>
       </c>
       <c r="G54" t="n">
-        <v>18793.8645146188</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2053,15 @@
         <v>9400</v>
       </c>
       <c r="G55" t="n">
-        <v>18793.8645146188</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2083,15 @@
         <v>480</v>
       </c>
       <c r="G56" t="n">
-        <v>18793.8645146188</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2113,15 @@
         <v>34310.6013</v>
       </c>
       <c r="G57" t="n">
-        <v>-15516.7367853812</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2143,15 @@
         <v>5616</v>
       </c>
       <c r="G58" t="n">
-        <v>-15516.7367853812</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2173,15 @@
         <v>1653</v>
       </c>
       <c r="G59" t="n">
-        <v>-13863.7367853812</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2203,15 @@
         <v>20726.087</v>
       </c>
       <c r="G60" t="n">
-        <v>6862.350214618797</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2233,15 @@
         <v>21</v>
       </c>
       <c r="G61" t="n">
-        <v>6883.350214618797</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2263,15 @@
         <v>452</v>
       </c>
       <c r="G62" t="n">
-        <v>6431.350214618797</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2293,15 @@
         <v>1029.2019</v>
       </c>
       <c r="G63" t="n">
-        <v>6431.350214618797</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2323,15 @@
         <v>360</v>
       </c>
       <c r="G64" t="n">
-        <v>6431.350214618797</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2353,15 @@
         <v>216</v>
       </c>
       <c r="G65" t="n">
-        <v>6431.350214618797</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2383,15 @@
         <v>26567.25</v>
       </c>
       <c r="G66" t="n">
-        <v>-20135.8997853812</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2413,15 @@
         <v>1298.1911</v>
       </c>
       <c r="G67" t="n">
-        <v>-18837.7086853812</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2443,15 @@
         <v>76</v>
       </c>
       <c r="G68" t="n">
-        <v>-18761.7086853812</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2473,15 @@
         <v>76.3359</v>
       </c>
       <c r="G69" t="n">
-        <v>-18761.7086853812</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2503,15 @@
         <v>76.3359</v>
       </c>
       <c r="G70" t="n">
-        <v>-18761.7086853812</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2533,15 @@
         <v>207.6409</v>
       </c>
       <c r="G71" t="n">
-        <v>-18554.0677853812</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2563,15 @@
         <v>1623</v>
       </c>
       <c r="G72" t="n">
-        <v>-20177.0677853812</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2593,15 @@
         <v>162.5484</v>
       </c>
       <c r="G73" t="n">
-        <v>-20014.51938538121</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2623,15 @@
         <v>45.0925</v>
       </c>
       <c r="G74" t="n">
-        <v>-20059.6118853812</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2653,15 @@
         <v>288</v>
       </c>
       <c r="G75" t="n">
-        <v>-19771.6118853812</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2683,15 @@
         <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>-19767.6118853812</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2713,15 @@
         <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>-19775.6118853812</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2743,15 @@
         <v>44.93</v>
       </c>
       <c r="G78" t="n">
-        <v>-19775.6118853812</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2773,15 @@
         <v>3442.8133</v>
       </c>
       <c r="G79" t="n">
-        <v>-19775.6118853812</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2803,15 @@
         <v>521.0939</v>
       </c>
       <c r="G80" t="n">
-        <v>-19775.6118853812</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2833,15 @@
         <v>1814.8233</v>
       </c>
       <c r="G81" t="n">
-        <v>-19775.6118853812</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2863,15 @@
         <v>656.3208</v>
       </c>
       <c r="G82" t="n">
-        <v>-19119.2910853812</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2893,15 @@
         <v>17</v>
       </c>
       <c r="G83" t="n">
-        <v>-19102.2910853812</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2923,15 @@
         <v>61.125</v>
       </c>
       <c r="G84" t="n">
-        <v>-19163.4160853812</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2953,15 @@
         <v>1200</v>
       </c>
       <c r="G85" t="n">
-        <v>-17963.4160853812</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2983,15 @@
         <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>-17971.4160853812</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3013,15 @@
         <v>1887.3935</v>
       </c>
       <c r="G87" t="n">
-        <v>-16084.0225853812</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3043,15 @@
         <v>400</v>
       </c>
       <c r="G88" t="n">
-        <v>-16484.0225853812</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3073,15 @@
         <v>9.99</v>
       </c>
       <c r="G89" t="n">
-        <v>-16494.0125853812</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3103,15 @@
         <v>458</v>
       </c>
       <c r="G90" t="n">
-        <v>-16036.0125853812</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3133,15 @@
         <v>159</v>
       </c>
       <c r="G91" t="n">
-        <v>-16195.0125853812</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3163,15 @@
         <v>837.6825</v>
       </c>
       <c r="G92" t="n">
-        <v>-16195.0125853812</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3193,15 @@
         <v>6138.743</v>
       </c>
       <c r="G93" t="n">
-        <v>-10056.2695853812</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3223,15 @@
         <v>60</v>
       </c>
       <c r="G94" t="n">
-        <v>-10116.2695853812</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3253,15 @@
         <v>447.7825</v>
       </c>
       <c r="G95" t="n">
-        <v>-10564.0520853812</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3283,19 @@
         <v>1463.6569</v>
       </c>
       <c r="G96" t="n">
-        <v>-10564.0520853812</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="I96" t="n">
+        <v>128</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3317,23 @@
         <v>2941</v>
       </c>
       <c r="G97" t="n">
-        <v>-7623.052085381201</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="I97" t="n">
+        <v>128</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3355,23 @@
         <v>840.329</v>
       </c>
       <c r="G98" t="n">
-        <v>-6782.723085381202</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="I98" t="n">
+        <v>128</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3393,23 @@
         <v>3231.3429</v>
       </c>
       <c r="G99" t="n">
-        <v>-10014.0659853812</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I99" t="n">
+        <v>128</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3431,21 @@
         <v>2627</v>
       </c>
       <c r="G100" t="n">
-        <v>-7387.065985381201</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>128</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3467,21 @@
         <v>5315.2043</v>
       </c>
       <c r="G101" t="n">
-        <v>-12702.2702853812</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>128</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3503,21 @@
         <v>6616.9889</v>
       </c>
       <c r="G102" t="n">
-        <v>-6085.2813853812</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>128</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3539,21 @@
         <v>5749.7249</v>
       </c>
       <c r="G103" t="n">
-        <v>-6085.2813853812</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>128</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3575,21 @@
         <v>14196.3491</v>
       </c>
       <c r="G104" t="n">
-        <v>8111.067714618799</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>128</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3611,21 @@
         <v>4.888</v>
       </c>
       <c r="G105" t="n">
-        <v>8115.955714618799</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>128</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3647,21 @@
         <v>7000</v>
       </c>
       <c r="G106" t="n">
-        <v>15115.9557146188</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>128</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3683,21 @@
         <v>290.65</v>
       </c>
       <c r="G107" t="n">
-        <v>14825.3057146188</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>128</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3719,21 @@
         <v>1831.7029</v>
       </c>
       <c r="G108" t="n">
-        <v>14825.3057146188</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>128</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3755,21 @@
         <v>3.8573</v>
       </c>
       <c r="G109" t="n">
-        <v>14825.3057146188</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>128</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3791,21 @@
         <v>799.9434</v>
       </c>
       <c r="G110" t="n">
-        <v>14025.3623146188</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>128</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3827,21 @@
         <v>7196.7376</v>
       </c>
       <c r="G111" t="n">
-        <v>21222.0999146188</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>128</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3863,21 @@
         <v>1030</v>
       </c>
       <c r="G112" t="n">
-        <v>22252.0999146188</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>128</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3899,21 @@
         <v>13.9718</v>
       </c>
       <c r="G113" t="n">
-        <v>22266.0717146188</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>128</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3935,21 @@
         <v>6</v>
       </c>
       <c r="G114" t="n">
-        <v>22272.0717146188</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>128</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3971,21 @@
         <v>668.5683</v>
       </c>
       <c r="G115" t="n">
-        <v>22272.0717146188</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>128</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4007,21 @@
         <v>604.9153</v>
       </c>
       <c r="G116" t="n">
-        <v>22272.0717146188</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>128</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4043,21 @@
         <v>18865.8563</v>
       </c>
       <c r="G117" t="n">
-        <v>3406.215414618797</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>128</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4079,21 @@
         <v>508.8354</v>
       </c>
       <c r="G118" t="n">
-        <v>3915.050814618797</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>128</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4115,21 @@
         <v>1098</v>
       </c>
       <c r="G119" t="n">
-        <v>5013.050814618797</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>128</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4151,21 @@
         <v>151.2507</v>
       </c>
       <c r="G120" t="n">
-        <v>4861.800114618797</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>128</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4187,21 @@
         <v>757</v>
       </c>
       <c r="G121" t="n">
-        <v>5618.800114618797</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>128</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4223,21 @@
         <v>6</v>
       </c>
       <c r="G122" t="n">
-        <v>5624.800114618797</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>128</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4259,21 @@
         <v>669</v>
       </c>
       <c r="G123" t="n">
-        <v>4955.800114618797</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>128</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4295,21 @@
         <v>4361</v>
       </c>
       <c r="G124" t="n">
-        <v>594.8001146187971</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>128</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4331,21 @@
         <v>6514.4269</v>
       </c>
       <c r="G125" t="n">
-        <v>7109.227014618798</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>128</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4367,21 @@
         <v>17</v>
       </c>
       <c r="G126" t="n">
-        <v>7109.227014618798</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>128</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4403,21 @@
         <v>6986.9671</v>
       </c>
       <c r="G127" t="n">
-        <v>122.2599146187977</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>128</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4439,21 @@
         <v>97.7482</v>
       </c>
       <c r="G128" t="n">
-        <v>24.51171461879767</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>128</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4475,21 @@
         <v>518.7482</v>
       </c>
       <c r="G129" t="n">
-        <v>-494.2364853812023</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>128</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4511,21 @@
         <v>726.8549</v>
       </c>
       <c r="G130" t="n">
-        <v>232.6184146187977</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>128</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4547,21 @@
         <v>6166.7376</v>
       </c>
       <c r="G131" t="n">
-        <v>-5934.119185381202</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>128</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4583,21 @@
         <v>9852.197200000001</v>
       </c>
       <c r="G132" t="n">
-        <v>3918.078014618798</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>128</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4619,21 @@
         <v>574</v>
       </c>
       <c r="G133" t="n">
-        <v>4492.078014618798</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>128</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4655,21 @@
         <v>533.3537</v>
       </c>
       <c r="G134" t="n">
-        <v>3958.724314618798</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>128</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4691,21 @@
         <v>200</v>
       </c>
       <c r="G135" t="n">
-        <v>3958.724314618798</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>128</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4727,21 @@
         <v>8</v>
       </c>
       <c r="G136" t="n">
-        <v>3950.724314618798</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>128</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4763,21 @@
         <v>800</v>
       </c>
       <c r="G137" t="n">
-        <v>4750.724314618798</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>128</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4799,21 @@
         <v>24084.05</v>
       </c>
       <c r="G138" t="n">
-        <v>-19333.3256853812</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>128</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4835,21 @@
         <v>433</v>
       </c>
       <c r="G139" t="n">
-        <v>-18900.3256853812</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>128</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4871,21 @@
         <v>150.2671</v>
       </c>
       <c r="G140" t="n">
-        <v>-19050.5927853812</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>128</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4907,21 @@
         <v>2500</v>
       </c>
       <c r="G141" t="n">
-        <v>-16550.5927853812</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>128</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4943,21 @@
         <v>447</v>
       </c>
       <c r="G142" t="n">
-        <v>-16997.5927853812</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>128</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4979,21 @@
         <v>1302.8654</v>
       </c>
       <c r="G143" t="n">
-        <v>-18300.4581853812</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>128</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5015,21 @@
         <v>2600</v>
       </c>
       <c r="G144" t="n">
-        <v>-20900.4581853812</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>128</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5051,21 @@
         <v>37885.6159</v>
       </c>
       <c r="G145" t="n">
-        <v>-58786.0740853812</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>128</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5087,21 @@
         <v>312</v>
       </c>
       <c r="G146" t="n">
-        <v>-58786.0740853812</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>128</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5123,21 @@
         <v>2086.125</v>
       </c>
       <c r="G147" t="n">
-        <v>-60872.1990853812</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>128</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5159,21 @@
         <v>968.6814000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>-59903.5176853812</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>128</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5195,21 @@
         <v>2621</v>
       </c>
       <c r="G149" t="n">
-        <v>-62524.5176853812</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>128</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5231,21 @@
         <v>2254</v>
       </c>
       <c r="G150" t="n">
-        <v>-60270.5176853812</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>128</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5267,21 @@
         <v>11081.8643</v>
       </c>
       <c r="G151" t="n">
-        <v>-71352.3819853812</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>128</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5303,21 @@
         <v>5781</v>
       </c>
       <c r="G152" t="n">
-        <v>-65571.3819853812</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>128</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5339,21 @@
         <v>595</v>
       </c>
       <c r="G153" t="n">
-        <v>-66166.3819853812</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>128</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5375,21 @@
         <v>594</v>
       </c>
       <c r="G154" t="n">
-        <v>-66166.3819853812</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>128</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5411,21 @@
         <v>501.4283</v>
       </c>
       <c r="G155" t="n">
-        <v>-66166.3819853812</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>128</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5447,21 @@
         <v>8802.956899999999</v>
       </c>
       <c r="G156" t="n">
-        <v>-74969.33888538121</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>128</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5483,21 @@
         <v>2180</v>
       </c>
       <c r="G157" t="n">
-        <v>-77149.33888538121</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>128</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5519,21 @@
         <v>577.8736</v>
       </c>
       <c r="G158" t="n">
-        <v>-76571.4652853812</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>128</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5555,21 @@
         <v>226.7123</v>
       </c>
       <c r="G159" t="n">
-        <v>-76798.1775853812</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>128</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5591,21 @@
         <v>1308.4706</v>
       </c>
       <c r="G160" t="n">
-        <v>-78106.6481853812</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>128</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5627,21 @@
         <v>10248.7018</v>
       </c>
       <c r="G161" t="n">
-        <v>-88355.3499853812</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>128</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5663,21 @@
         <v>1444.2</v>
       </c>
       <c r="G162" t="n">
-        <v>-88355.3499853812</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>128</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5699,23 @@
         <v>991.6488000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>-87363.7011853812</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>130.1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>128</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5737,23 @@
         <v>20473.1154</v>
       </c>
       <c r="G164" t="n">
-        <v>-87363.7011853812</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>131</v>
+      </c>
+      <c r="I164" t="n">
+        <v>128</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5775,21 @@
         <v>9.650600000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>-87363.7011853812</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>128</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5811,21 @@
         <v>200</v>
       </c>
       <c r="G166" t="n">
-        <v>-87163.7011853812</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>128</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5847,21 @@
         <v>34.2555</v>
       </c>
       <c r="G167" t="n">
-        <v>-87163.7011853812</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>128</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5883,21 @@
         <v>7665.9888</v>
       </c>
       <c r="G168" t="n">
-        <v>-94829.68998538121</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>128</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5919,21 @@
         <v>28.9707</v>
       </c>
       <c r="G169" t="n">
-        <v>-94800.7192853812</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>128</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5955,23 @@
         <v>49.3929</v>
       </c>
       <c r="G170" t="n">
-        <v>-94850.11218538121</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>131</v>
+      </c>
+      <c r="I170" t="n">
+        <v>128</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5993,23 @@
         <v>14162.1791</v>
       </c>
       <c r="G171" t="n">
-        <v>-80687.93308538121</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>129.7</v>
+      </c>
+      <c r="I171" t="n">
+        <v>128</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6031,21 @@
         <v>11830</v>
       </c>
       <c r="G172" t="n">
-        <v>-92517.93308538121</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>128</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6067,21 @@
         <v>3830</v>
       </c>
       <c r="G173" t="n">
-        <v>-92517.93308538121</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>128</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6103,21 @@
         <v>643.8045</v>
       </c>
       <c r="G174" t="n">
-        <v>-93161.73758538121</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>128</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6139,23 @@
         <v>123</v>
       </c>
       <c r="G175" t="n">
-        <v>-93161.73758538121</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I175" t="n">
+        <v>128</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6177,23 @@
         <v>4353.6424</v>
       </c>
       <c r="G176" t="n">
-        <v>-97515.37998538121</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I176" t="n">
+        <v>128</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6215,23 @@
         <v>8961</v>
       </c>
       <c r="G177" t="n">
-        <v>-88554.37998538121</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>128.5</v>
+      </c>
+      <c r="I177" t="n">
+        <v>128</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6253,23 @@
         <v>1151</v>
       </c>
       <c r="G178" t="n">
-        <v>-88554.37998538121</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I178" t="n">
+        <v>128</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6291,23 @@
         <v>7360.9245</v>
       </c>
       <c r="G179" t="n">
-        <v>-88554.37998538121</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I179" t="n">
+        <v>128</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6329,23 @@
         <v>901.78</v>
       </c>
       <c r="G180" t="n">
-        <v>-88554.37998538121</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I180" t="n">
+        <v>128</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6367,23 @@
         <v>7.6924</v>
       </c>
       <c r="G181" t="n">
-        <v>-88554.37998538121</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I181" t="n">
+        <v>128</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6405,21 @@
         <v>19975.5284</v>
       </c>
       <c r="G182" t="n">
-        <v>-68578.85158538121</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>128</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6441,21 @@
         <v>21006.4733</v>
       </c>
       <c r="G183" t="n">
-        <v>-89585.32488538121</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>128</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6477,21 @@
         <v>600</v>
       </c>
       <c r="G184" t="n">
-        <v>-89585.32488538121</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>128</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6513,23 @@
         <v>4800</v>
       </c>
       <c r="G185" t="n">
-        <v>-89585.32488538121</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>129.5</v>
+      </c>
+      <c r="I185" t="n">
+        <v>128</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6551,23 @@
         <v>1000</v>
       </c>
       <c r="G186" t="n">
-        <v>-89585.32488538121</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>129.5</v>
+      </c>
+      <c r="I186" t="n">
+        <v>128</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6589,23 @@
         <v>18060.9778</v>
       </c>
       <c r="G187" t="n">
-        <v>-107646.3026853812</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>129.5</v>
+      </c>
+      <c r="I187" t="n">
+        <v>128</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6627,23 @@
         <v>200</v>
       </c>
       <c r="G188" t="n">
-        <v>-107446.3026853812</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>128.5</v>
+      </c>
+      <c r="I188" t="n">
+        <v>128</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6665,23 @@
         <v>1715</v>
       </c>
       <c r="G189" t="n">
-        <v>-107446.3026853812</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>129.5</v>
+      </c>
+      <c r="I189" t="n">
+        <v>128</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6703,23 @@
         <v>2000</v>
       </c>
       <c r="G190" t="n">
-        <v>-107446.3026853812</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>129.5</v>
+      </c>
+      <c r="I190" t="n">
+        <v>128</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6741,23 @@
         <v>1315</v>
       </c>
       <c r="G191" t="n">
-        <v>-107446.3026853812</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>129.5</v>
+      </c>
+      <c r="I191" t="n">
+        <v>128</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6779,21 @@
         <v>524</v>
       </c>
       <c r="G192" t="n">
-        <v>-107446.3026853812</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>128</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,22 +6815,23 @@
         <v>151.8712</v>
       </c>
       <c r="G193" t="n">
-        <v>-107294.4314853812</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>129.5</v>
       </c>
       <c r="I193" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="J193" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6788,26 +6853,21 @@
         <v>7.041</v>
       </c>
       <c r="G194" t="n">
-        <v>-107294.4314853812</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>130</v>
-      </c>
-      <c r="J194" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6829,26 +6889,23 @@
         <v>3774.1598</v>
       </c>
       <c r="G195" t="n">
-        <v>-107294.4314853812</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="I195" t="n">
-        <v>130</v>
-      </c>
-      <c r="J195" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6870,22 +6927,23 @@
         <v>273</v>
       </c>
       <c r="G196" t="n">
-        <v>-107567.4314853812</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="I196" t="n">
-        <v>130</v>
-      </c>
-      <c r="J196" t="n">
-        <v>130</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6907,26 +6965,21 @@
         <v>11209.5664</v>
       </c>
       <c r="G197" t="n">
-        <v>-107567.4314853812</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="J197" t="n">
-        <v>130</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6948,26 +7001,21 @@
         <v>3350.6497</v>
       </c>
       <c r="G198" t="n">
-        <v>-107567.4314853812</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="J198" t="n">
-        <v>130</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6989,22 +7037,23 @@
         <v>99.708</v>
       </c>
       <c r="G199" t="n">
-        <v>-107467.7234853812</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>129.9</v>
       </c>
       <c r="I199" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="J199" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7026,26 +7075,21 @@
         <v>59.9144</v>
       </c>
       <c r="G200" t="n">
-        <v>-107467.7234853812</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>131</v>
-      </c>
-      <c r="J200" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7067,26 +7111,21 @@
         <v>4</v>
       </c>
       <c r="G201" t="n">
-        <v>-107463.7234853812</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>131</v>
-      </c>
-      <c r="J201" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7108,22 +7147,21 @@
         <v>24.483</v>
       </c>
       <c r="G202" t="n">
-        <v>-107463.7234853812</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="J202" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7145,26 +7183,21 @@
         <v>4717.6925</v>
       </c>
       <c r="G203" t="n">
-        <v>-112181.4159853812</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="J203" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7186,26 +7219,21 @@
         <v>2848.7091</v>
       </c>
       <c r="G204" t="n">
-        <v>-109332.7068853812</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="J204" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7227,26 +7255,23 @@
         <v>200</v>
       </c>
       <c r="G205" t="n">
-        <v>-109532.7068853812</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>131.5</v>
       </c>
       <c r="I205" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="J205" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7268,26 +7293,23 @@
         <v>1562.9999</v>
       </c>
       <c r="G206" t="n">
-        <v>-107969.7069853812</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>129.9</v>
       </c>
       <c r="I206" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="J206" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7309,26 +7331,21 @@
         <v>19449.518</v>
       </c>
       <c r="G207" t="n">
-        <v>-127419.2249853812</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="J207" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
